--- a/team-managment/purchases/project-payments .xlsx
+++ b/team-managment/purchases/project-payments .xlsx
@@ -1,28 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhdgh\OneDrive\Desktop\#Senior_Year\#Final_Project\on-campus-delivery-robot\team-managment\purchases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CurSold-PC\Desktop\Github project\on-campus-delivery-robot\team-managment\purchases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF4DE64-F7E5-47AF-A311-54195F872D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEE1C1D-5885-42D5-A6D5-B14A6CF62BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>ITEM</t>
   </si>
@@ -103,6 +101,9 @@
   </si>
   <si>
     <t>platform down payment</t>
+  </si>
+  <si>
+    <t>platform final payment</t>
   </si>
 </sst>
 </file>
@@ -772,22 +773,22 @@
   <dimension ref="A1:AB996"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="50.59765625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" style="14" customWidth="1"/>
+    <col min="1" max="2" width="50.625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="13.25" style="14" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="14" customWidth="1"/>
-    <col min="5" max="5" width="7.69921875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="11.09765625" style="14" customWidth="1"/>
-    <col min="7" max="8" width="7.69921875" style="14" customWidth="1"/>
-    <col min="9" max="28" width="7.59765625" style="14" customWidth="1"/>
-    <col min="29" max="16384" width="12.59765625" style="14"/>
+    <col min="5" max="5" width="7.75" style="14" customWidth="1"/>
+    <col min="6" max="6" width="11.125" style="14" customWidth="1"/>
+    <col min="7" max="8" width="7.75" style="14" customWidth="1"/>
+    <col min="9" max="28" width="7.625" style="14" customWidth="1"/>
+    <col min="29" max="16384" width="12.625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -825,7 +826,7 @@
       <c r="AA1" s="13"/>
       <c r="AB1" s="13"/>
     </row>
-    <row r="2" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28"/>
       <c r="B2" s="35"/>
       <c r="C2" s="33"/>
@@ -861,7 +862,7 @@
       <c r="AA2" s="13"/>
       <c r="AB2" s="13"/>
     </row>
-    <row r="3" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -904,7 +905,7 @@
       <c r="AA3" s="13"/>
       <c r="AB3" s="13"/>
     </row>
-    <row r="4" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -947,7 +948,7 @@
       <c r="AA4" s="13"/>
       <c r="AB4" s="13"/>
     </row>
-    <row r="5" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -990,7 +991,7 @@
       <c r="AA5" s="13"/>
       <c r="AB5" s="13"/>
     </row>
-    <row r="6" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
@@ -1033,7 +1034,7 @@
       <c r="AA6" s="13"/>
       <c r="AB6" s="13"/>
     </row>
-    <row r="7" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -1076,7 +1077,7 @@
       <c r="AA7" s="13"/>
       <c r="AB7" s="13"/>
     </row>
-    <row r="8" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
@@ -1119,7 +1120,7 @@
       <c r="AA8" s="13"/>
       <c r="AB8" s="13"/>
     </row>
-    <row r="9" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -1162,7 +1163,7 @@
       <c r="AA9" s="13"/>
       <c r="AB9" s="13"/>
     </row>
-    <row r="10" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
@@ -1205,7 +1206,7 @@
       <c r="AA10" s="13"/>
       <c r="AB10" s="13"/>
     </row>
-    <row r="11" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>17</v>
       </c>
@@ -1248,7 +1249,7 @@
       <c r="AA11" s="13"/>
       <c r="AB11" s="13"/>
     </row>
-    <row r="12" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>19</v>
       </c>
@@ -1291,7 +1292,7 @@
       <c r="AA12" s="13"/>
       <c r="AB12" s="13"/>
     </row>
-    <row r="13" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>20</v>
       </c>
@@ -1334,7 +1335,7 @@
       <c r="AA13" s="13"/>
       <c r="AB13" s="13"/>
     </row>
-    <row r="14" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>21</v>
       </c>
@@ -1376,7 +1377,7 @@
       <c r="AA14" s="13"/>
       <c r="AB14" s="13"/>
     </row>
-    <row r="15" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>22</v>
       </c>
@@ -1418,13 +1419,25 @@
       <c r="AA15" s="13"/>
       <c r="AB15" s="13"/>
     </row>
-    <row r="16" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10"/>
+    <row r="16" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="7">
+        <v>200</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
+        <v>200</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0</v>
+      </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
@@ -1448,7 +1461,7 @@
       <c r="AA16" s="13"/>
       <c r="AB16" s="13"/>
     </row>
-    <row r="17" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1478,7 +1491,7 @@
       <c r="AA17" s="13"/>
       <c r="AB17" s="13"/>
     </row>
-    <row r="18" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1508,7 +1521,7 @@
       <c r="AA18" s="13"/>
       <c r="AB18" s="13"/>
     </row>
-    <row r="19" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1538,7 +1551,7 @@
       <c r="AA19" s="13"/>
       <c r="AB19" s="13"/>
     </row>
-    <row r="20" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1568,7 +1581,7 @@
       <c r="AA20" s="13"/>
       <c r="AB20" s="13"/>
     </row>
-    <row r="21" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
         <v>5</v>
       </c>
@@ -1580,7 +1593,7 @@
       </c>
       <c r="E21" s="17">
         <f>SUM(E3:E20)</f>
-        <v>78</v>
+        <v>278</v>
       </c>
       <c r="F21" s="18">
         <f>SUM(F3:F20)</f>
@@ -1609,7 +1622,7 @@
       <c r="AA21" s="13"/>
       <c r="AB21" s="13"/>
     </row>
-    <row r="22" spans="1:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>6</v>
       </c>
@@ -1617,7 +1630,7 @@
       <c r="C22" s="20"/>
       <c r="D22" s="21">
         <f>SUM(E3:F20)/3</f>
-        <v>89.100000000000009</v>
+        <v>155.76666666666668</v>
       </c>
       <c r="E22" s="21">
         <f>SUM(D3:D20,F3:F20)/3</f>
@@ -1625,7 +1638,7 @@
       </c>
       <c r="F22" s="22">
         <f>SUM(D3:E20)/3</f>
-        <v>507.74583333333334</v>
+        <v>574.41250000000002</v>
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
@@ -1650,7 +1663,7 @@
       <c r="AA22" s="13"/>
       <c r="AB22" s="13"/>
     </row>
-    <row r="23" spans="1:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>7</v>
       </c>
@@ -1658,15 +1671,15 @@
       <c r="C23" s="24"/>
       <c r="D23" s="25">
         <f t="shared" ref="D23:F23" si="1">D22-2*D21/3</f>
-        <v>-874.39166666666665</v>
+        <v>-807.72500000000002</v>
       </c>
       <c r="E23" s="25">
         <f t="shared" si="1"/>
-        <v>492.8458333333333</v>
+        <v>359.51249999999993</v>
       </c>
       <c r="F23" s="26">
         <f t="shared" si="1"/>
-        <v>381.54583333333335</v>
+        <v>448.21250000000003</v>
       </c>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
@@ -1691,7 +1704,7 @@
       <c r="AA23" s="13"/>
       <c r="AB23" s="13"/>
     </row>
-    <row r="24" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -1721,7 +1734,7 @@
       <c r="AA24" s="13"/>
       <c r="AB24" s="13"/>
     </row>
-    <row r="25" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -1751,7 +1764,7 @@
       <c r="AA25" s="13"/>
       <c r="AB25" s="13"/>
     </row>
-    <row r="26" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -1781,7 +1794,7 @@
       <c r="AA26" s="13"/>
       <c r="AB26" s="13"/>
     </row>
-    <row r="27" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -1811,7 +1824,7 @@
       <c r="AA27" s="13"/>
       <c r="AB27" s="13"/>
     </row>
-    <row r="28" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -1841,7 +1854,7 @@
       <c r="AA28" s="13"/>
       <c r="AB28" s="13"/>
     </row>
-    <row r="29" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -1871,7 +1884,7 @@
       <c r="AA29" s="13"/>
       <c r="AB29" s="13"/>
     </row>
-    <row r="30" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -1901,7 +1914,7 @@
       <c r="AA30" s="13"/>
       <c r="AB30" s="13"/>
     </row>
-    <row r="31" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -1931,7 +1944,7 @@
       <c r="AA31" s="13"/>
       <c r="AB31" s="13"/>
     </row>
-    <row r="32" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -1961,7 +1974,7 @@
       <c r="AA32" s="13"/>
       <c r="AB32" s="13"/>
     </row>
-    <row r="33" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -1991,7 +2004,7 @@
       <c r="AA33" s="13"/>
       <c r="AB33" s="13"/>
     </row>
-    <row r="34" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -2021,7 +2034,7 @@
       <c r="AA34" s="13"/>
       <c r="AB34" s="13"/>
     </row>
-    <row r="35" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -2051,7 +2064,7 @@
       <c r="AA35" s="13"/>
       <c r="AB35" s="13"/>
     </row>
-    <row r="36" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -2081,7 +2094,7 @@
       <c r="AA36" s="13"/>
       <c r="AB36" s="13"/>
     </row>
-    <row r="37" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -2111,7 +2124,7 @@
       <c r="AA37" s="13"/>
       <c r="AB37" s="13"/>
     </row>
-    <row r="38" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -2141,7 +2154,7 @@
       <c r="AA38" s="13"/>
       <c r="AB38" s="13"/>
     </row>
-    <row r="39" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -2171,7 +2184,7 @@
       <c r="AA39" s="13"/>
       <c r="AB39" s="13"/>
     </row>
-    <row r="40" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -2201,7 +2214,7 @@
       <c r="AA40" s="13"/>
       <c r="AB40" s="13"/>
     </row>
-    <row r="41" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
@@ -2231,7 +2244,7 @@
       <c r="AA41" s="13"/>
       <c r="AB41" s="13"/>
     </row>
-    <row r="42" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
@@ -2261,7 +2274,7 @@
       <c r="AA42" s="13"/>
       <c r="AB42" s="13"/>
     </row>
-    <row r="43" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -2291,7 +2304,7 @@
       <c r="AA43" s="13"/>
       <c r="AB43" s="13"/>
     </row>
-    <row r="44" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
@@ -2321,7 +2334,7 @@
       <c r="AA44" s="13"/>
       <c r="AB44" s="13"/>
     </row>
-    <row r="45" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
@@ -2351,7 +2364,7 @@
       <c r="AA45" s="13"/>
       <c r="AB45" s="13"/>
     </row>
-    <row r="46" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="13"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
@@ -2381,7 +2394,7 @@
       <c r="AA46" s="13"/>
       <c r="AB46" s="13"/>
     </row>
-    <row r="47" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="13"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
@@ -2411,7 +2424,7 @@
       <c r="AA47" s="13"/>
       <c r="AB47" s="13"/>
     </row>
-    <row r="48" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="13"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
@@ -2441,7 +2454,7 @@
       <c r="AA48" s="13"/>
       <c r="AB48" s="13"/>
     </row>
-    <row r="49" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
@@ -2471,7 +2484,7 @@
       <c r="AA49" s="13"/>
       <c r="AB49" s="13"/>
     </row>
-    <row r="50" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="13"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
@@ -2501,7 +2514,7 @@
       <c r="AA50" s="13"/>
       <c r="AB50" s="13"/>
     </row>
-    <row r="51" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
@@ -2531,7 +2544,7 @@
       <c r="AA51" s="13"/>
       <c r="AB51" s="13"/>
     </row>
-    <row r="52" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
@@ -2561,7 +2574,7 @@
       <c r="AA52" s="13"/>
       <c r="AB52" s="13"/>
     </row>
-    <row r="53" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
@@ -2591,7 +2604,7 @@
       <c r="AA53" s="13"/>
       <c r="AB53" s="13"/>
     </row>
-    <row r="54" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
@@ -2621,7 +2634,7 @@
       <c r="AA54" s="13"/>
       <c r="AB54" s="13"/>
     </row>
-    <row r="55" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="13"/>
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
@@ -2651,7 +2664,7 @@
       <c r="AA55" s="13"/>
       <c r="AB55" s="13"/>
     </row>
-    <row r="56" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="13"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
@@ -2681,7 +2694,7 @@
       <c r="AA56" s="13"/>
       <c r="AB56" s="13"/>
     </row>
-    <row r="57" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="13"/>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
@@ -2711,7 +2724,7 @@
       <c r="AA57" s="13"/>
       <c r="AB57" s="13"/>
     </row>
-    <row r="58" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="13"/>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
@@ -2741,7 +2754,7 @@
       <c r="AA58" s="13"/>
       <c r="AB58" s="13"/>
     </row>
-    <row r="59" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="13"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
@@ -2771,7 +2784,7 @@
       <c r="AA59" s="13"/>
       <c r="AB59" s="13"/>
     </row>
-    <row r="60" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
@@ -2801,7 +2814,7 @@
       <c r="AA60" s="13"/>
       <c r="AB60" s="13"/>
     </row>
-    <row r="61" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
@@ -2831,7 +2844,7 @@
       <c r="AA61" s="13"/>
       <c r="AB61" s="13"/>
     </row>
-    <row r="62" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
@@ -2861,7 +2874,7 @@
       <c r="AA62" s="13"/>
       <c r="AB62" s="13"/>
     </row>
-    <row r="63" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
@@ -2891,7 +2904,7 @@
       <c r="AA63" s="13"/>
       <c r="AB63" s="13"/>
     </row>
-    <row r="64" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
@@ -2921,7 +2934,7 @@
       <c r="AA64" s="13"/>
       <c r="AB64" s="13"/>
     </row>
-    <row r="65" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="13"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
@@ -2951,7 +2964,7 @@
       <c r="AA65" s="13"/>
       <c r="AB65" s="13"/>
     </row>
-    <row r="66" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="13"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
@@ -2981,7 +2994,7 @@
       <c r="AA66" s="13"/>
       <c r="AB66" s="13"/>
     </row>
-    <row r="67" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="13"/>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
@@ -3011,7 +3024,7 @@
       <c r="AA67" s="13"/>
       <c r="AB67" s="13"/>
     </row>
-    <row r="68" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="13"/>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
@@ -3041,7 +3054,7 @@
       <c r="AA68" s="13"/>
       <c r="AB68" s="13"/>
     </row>
-    <row r="69" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="13"/>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
@@ -3071,7 +3084,7 @@
       <c r="AA69" s="13"/>
       <c r="AB69" s="13"/>
     </row>
-    <row r="70" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="13"/>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
@@ -3101,7 +3114,7 @@
       <c r="AA70" s="13"/>
       <c r="AB70" s="13"/>
     </row>
-    <row r="71" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="13"/>
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
@@ -3131,7 +3144,7 @@
       <c r="AA71" s="13"/>
       <c r="AB71" s="13"/>
     </row>
-    <row r="72" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="13"/>
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
@@ -3161,7 +3174,7 @@
       <c r="AA72" s="13"/>
       <c r="AB72" s="13"/>
     </row>
-    <row r="73" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="13"/>
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
@@ -3191,7 +3204,7 @@
       <c r="AA73" s="13"/>
       <c r="AB73" s="13"/>
     </row>
-    <row r="74" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="13"/>
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
@@ -3221,7 +3234,7 @@
       <c r="AA74" s="13"/>
       <c r="AB74" s="13"/>
     </row>
-    <row r="75" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="13"/>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
@@ -3251,7 +3264,7 @@
       <c r="AA75" s="13"/>
       <c r="AB75" s="13"/>
     </row>
-    <row r="76" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="13"/>
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
@@ -3281,7 +3294,7 @@
       <c r="AA76" s="13"/>
       <c r="AB76" s="13"/>
     </row>
-    <row r="77" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="13"/>
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
@@ -3311,7 +3324,7 @@
       <c r="AA77" s="13"/>
       <c r="AB77" s="13"/>
     </row>
-    <row r="78" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="13"/>
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
@@ -3341,7 +3354,7 @@
       <c r="AA78" s="13"/>
       <c r="AB78" s="13"/>
     </row>
-    <row r="79" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="13"/>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
@@ -3371,7 +3384,7 @@
       <c r="AA79" s="13"/>
       <c r="AB79" s="13"/>
     </row>
-    <row r="80" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="13"/>
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
@@ -3401,7 +3414,7 @@
       <c r="AA80" s="13"/>
       <c r="AB80" s="13"/>
     </row>
-    <row r="81" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="13"/>
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
@@ -3431,7 +3444,7 @@
       <c r="AA81" s="13"/>
       <c r="AB81" s="13"/>
     </row>
-    <row r="82" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="13"/>
       <c r="B82" s="13"/>
       <c r="C82" s="13"/>
@@ -3461,7 +3474,7 @@
       <c r="AA82" s="13"/>
       <c r="AB82" s="13"/>
     </row>
-    <row r="83" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="13"/>
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
@@ -3491,7 +3504,7 @@
       <c r="AA83" s="13"/>
       <c r="AB83" s="13"/>
     </row>
-    <row r="84" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="13"/>
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
@@ -3521,7 +3534,7 @@
       <c r="AA84" s="13"/>
       <c r="AB84" s="13"/>
     </row>
-    <row r="85" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="13"/>
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
@@ -3551,7 +3564,7 @@
       <c r="AA85" s="13"/>
       <c r="AB85" s="13"/>
     </row>
-    <row r="86" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="13"/>
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
@@ -3581,7 +3594,7 @@
       <c r="AA86" s="13"/>
       <c r="AB86" s="13"/>
     </row>
-    <row r="87" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="13"/>
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
@@ -3611,7 +3624,7 @@
       <c r="AA87" s="13"/>
       <c r="AB87" s="13"/>
     </row>
-    <row r="88" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="13"/>
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
@@ -3641,7 +3654,7 @@
       <c r="AA88" s="13"/>
       <c r="AB88" s="13"/>
     </row>
-    <row r="89" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="13"/>
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
@@ -3671,7 +3684,7 @@
       <c r="AA89" s="13"/>
       <c r="AB89" s="13"/>
     </row>
-    <row r="90" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="13"/>
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
@@ -3701,7 +3714,7 @@
       <c r="AA90" s="13"/>
       <c r="AB90" s="13"/>
     </row>
-    <row r="91" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="13"/>
       <c r="B91" s="13"/>
       <c r="C91" s="13"/>
@@ -3731,7 +3744,7 @@
       <c r="AA91" s="13"/>
       <c r="AB91" s="13"/>
     </row>
-    <row r="92" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="13"/>
       <c r="B92" s="13"/>
       <c r="C92" s="13"/>
@@ -3761,7 +3774,7 @@
       <c r="AA92" s="13"/>
       <c r="AB92" s="13"/>
     </row>
-    <row r="93" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="13"/>
       <c r="B93" s="13"/>
       <c r="C93" s="13"/>
@@ -3791,7 +3804,7 @@
       <c r="AA93" s="13"/>
       <c r="AB93" s="13"/>
     </row>
-    <row r="94" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="13"/>
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
@@ -3821,7 +3834,7 @@
       <c r="AA94" s="13"/>
       <c r="AB94" s="13"/>
     </row>
-    <row r="95" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="13"/>
       <c r="B95" s="13"/>
       <c r="C95" s="13"/>
@@ -3851,7 +3864,7 @@
       <c r="AA95" s="13"/>
       <c r="AB95" s="13"/>
     </row>
-    <row r="96" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="13"/>
       <c r="B96" s="13"/>
       <c r="C96" s="13"/>
@@ -3881,7 +3894,7 @@
       <c r="AA96" s="13"/>
       <c r="AB96" s="13"/>
     </row>
-    <row r="97" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="13"/>
       <c r="B97" s="13"/>
       <c r="C97" s="13"/>
@@ -3911,7 +3924,7 @@
       <c r="AA97" s="13"/>
       <c r="AB97" s="13"/>
     </row>
-    <row r="98" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="13"/>
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
@@ -3941,7 +3954,7 @@
       <c r="AA98" s="13"/>
       <c r="AB98" s="13"/>
     </row>
-    <row r="99" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="13"/>
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
@@ -3971,7 +3984,7 @@
       <c r="AA99" s="13"/>
       <c r="AB99" s="13"/>
     </row>
-    <row r="100" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="13"/>
       <c r="B100" s="13"/>
       <c r="C100" s="13"/>
@@ -4001,7 +4014,7 @@
       <c r="AA100" s="13"/>
       <c r="AB100" s="13"/>
     </row>
-    <row r="101" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="13"/>
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
@@ -4031,7 +4044,7 @@
       <c r="AA101" s="13"/>
       <c r="AB101" s="13"/>
     </row>
-    <row r="102" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="13"/>
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
@@ -4061,7 +4074,7 @@
       <c r="AA102" s="13"/>
       <c r="AB102" s="13"/>
     </row>
-    <row r="103" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="13"/>
       <c r="B103" s="13"/>
       <c r="C103" s="13"/>
@@ -4091,7 +4104,7 @@
       <c r="AA103" s="13"/>
       <c r="AB103" s="13"/>
     </row>
-    <row r="104" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="13"/>
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
@@ -4121,7 +4134,7 @@
       <c r="AA104" s="13"/>
       <c r="AB104" s="13"/>
     </row>
-    <row r="105" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="13"/>
       <c r="B105" s="13"/>
       <c r="C105" s="13"/>
@@ -4151,7 +4164,7 @@
       <c r="AA105" s="13"/>
       <c r="AB105" s="13"/>
     </row>
-    <row r="106" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="13"/>
       <c r="B106" s="13"/>
       <c r="C106" s="13"/>
@@ -4181,7 +4194,7 @@
       <c r="AA106" s="13"/>
       <c r="AB106" s="13"/>
     </row>
-    <row r="107" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="13"/>
       <c r="B107" s="13"/>
       <c r="C107" s="13"/>
@@ -4211,7 +4224,7 @@
       <c r="AA107" s="13"/>
       <c r="AB107" s="13"/>
     </row>
-    <row r="108" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="13"/>
       <c r="B108" s="13"/>
       <c r="C108" s="13"/>
@@ -4241,7 +4254,7 @@
       <c r="AA108" s="13"/>
       <c r="AB108" s="13"/>
     </row>
-    <row r="109" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="13"/>
       <c r="B109" s="13"/>
       <c r="C109" s="13"/>
@@ -4271,7 +4284,7 @@
       <c r="AA109" s="13"/>
       <c r="AB109" s="13"/>
     </row>
-    <row r="110" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="13"/>
       <c r="B110" s="13"/>
       <c r="C110" s="13"/>
@@ -4301,7 +4314,7 @@
       <c r="AA110" s="13"/>
       <c r="AB110" s="13"/>
     </row>
-    <row r="111" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="13"/>
       <c r="B111" s="13"/>
       <c r="C111" s="13"/>
@@ -4331,7 +4344,7 @@
       <c r="AA111" s="13"/>
       <c r="AB111" s="13"/>
     </row>
-    <row r="112" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="13"/>
       <c r="B112" s="13"/>
       <c r="C112" s="13"/>
@@ -4361,7 +4374,7 @@
       <c r="AA112" s="13"/>
       <c r="AB112" s="13"/>
     </row>
-    <row r="113" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="13"/>
       <c r="B113" s="13"/>
       <c r="C113" s="13"/>
@@ -4391,7 +4404,7 @@
       <c r="AA113" s="13"/>
       <c r="AB113" s="13"/>
     </row>
-    <row r="114" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="13"/>
       <c r="B114" s="13"/>
       <c r="C114" s="13"/>
@@ -4421,7 +4434,7 @@
       <c r="AA114" s="13"/>
       <c r="AB114" s="13"/>
     </row>
-    <row r="115" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="13"/>
       <c r="B115" s="13"/>
       <c r="C115" s="13"/>
@@ -4451,7 +4464,7 @@
       <c r="AA115" s="13"/>
       <c r="AB115" s="13"/>
     </row>
-    <row r="116" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="13"/>
       <c r="B116" s="13"/>
       <c r="C116" s="13"/>
@@ -4481,7 +4494,7 @@
       <c r="AA116" s="13"/>
       <c r="AB116" s="13"/>
     </row>
-    <row r="117" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="13"/>
       <c r="B117" s="13"/>
       <c r="C117" s="13"/>
@@ -4511,7 +4524,7 @@
       <c r="AA117" s="13"/>
       <c r="AB117" s="13"/>
     </row>
-    <row r="118" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="13"/>
       <c r="B118" s="13"/>
       <c r="C118" s="13"/>
@@ -4541,7 +4554,7 @@
       <c r="AA118" s="13"/>
       <c r="AB118" s="13"/>
     </row>
-    <row r="119" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="13"/>
       <c r="B119" s="13"/>
       <c r="C119" s="13"/>
@@ -4571,7 +4584,7 @@
       <c r="AA119" s="13"/>
       <c r="AB119" s="13"/>
     </row>
-    <row r="120" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="13"/>
       <c r="B120" s="13"/>
       <c r="C120" s="13"/>
@@ -4601,7 +4614,7 @@
       <c r="AA120" s="13"/>
       <c r="AB120" s="13"/>
     </row>
-    <row r="121" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="13"/>
       <c r="B121" s="13"/>
       <c r="C121" s="13"/>
@@ -4631,7 +4644,7 @@
       <c r="AA121" s="13"/>
       <c r="AB121" s="13"/>
     </row>
-    <row r="122" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="13"/>
       <c r="B122" s="13"/>
       <c r="C122" s="13"/>
@@ -4661,7 +4674,7 @@
       <c r="AA122" s="13"/>
       <c r="AB122" s="13"/>
     </row>
-    <row r="123" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="13"/>
       <c r="B123" s="13"/>
       <c r="C123" s="13"/>
@@ -4691,7 +4704,7 @@
       <c r="AA123" s="13"/>
       <c r="AB123" s="13"/>
     </row>
-    <row r="124" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="13"/>
       <c r="B124" s="13"/>
       <c r="C124" s="13"/>
@@ -4721,7 +4734,7 @@
       <c r="AA124" s="13"/>
       <c r="AB124" s="13"/>
     </row>
-    <row r="125" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="13"/>
       <c r="B125" s="13"/>
       <c r="C125" s="13"/>
@@ -4751,7 +4764,7 @@
       <c r="AA125" s="13"/>
       <c r="AB125" s="13"/>
     </row>
-    <row r="126" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="13"/>
       <c r="B126" s="13"/>
       <c r="C126" s="13"/>
@@ -4781,7 +4794,7 @@
       <c r="AA126" s="13"/>
       <c r="AB126" s="13"/>
     </row>
-    <row r="127" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="13"/>
       <c r="B127" s="13"/>
       <c r="C127" s="13"/>
@@ -4811,7 +4824,7 @@
       <c r="AA127" s="13"/>
       <c r="AB127" s="13"/>
     </row>
-    <row r="128" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="13"/>
       <c r="B128" s="13"/>
       <c r="C128" s="13"/>
@@ -4841,7 +4854,7 @@
       <c r="AA128" s="13"/>
       <c r="AB128" s="13"/>
     </row>
-    <row r="129" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="13"/>
       <c r="B129" s="13"/>
       <c r="C129" s="13"/>
@@ -4871,7 +4884,7 @@
       <c r="AA129" s="13"/>
       <c r="AB129" s="13"/>
     </row>
-    <row r="130" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="13"/>
       <c r="B130" s="13"/>
       <c r="C130" s="13"/>
@@ -4901,7 +4914,7 @@
       <c r="AA130" s="13"/>
       <c r="AB130" s="13"/>
     </row>
-    <row r="131" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="13"/>
       <c r="B131" s="13"/>
       <c r="C131" s="13"/>
@@ -4931,7 +4944,7 @@
       <c r="AA131" s="13"/>
       <c r="AB131" s="13"/>
     </row>
-    <row r="132" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="13"/>
       <c r="B132" s="13"/>
       <c r="C132" s="13"/>
@@ -4961,7 +4974,7 @@
       <c r="AA132" s="13"/>
       <c r="AB132" s="13"/>
     </row>
-    <row r="133" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="13"/>
       <c r="B133" s="13"/>
       <c r="C133" s="13"/>
@@ -4991,7 +5004,7 @@
       <c r="AA133" s="13"/>
       <c r="AB133" s="13"/>
     </row>
-    <row r="134" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="13"/>
       <c r="B134" s="13"/>
       <c r="C134" s="13"/>
@@ -5021,7 +5034,7 @@
       <c r="AA134" s="13"/>
       <c r="AB134" s="13"/>
     </row>
-    <row r="135" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="13"/>
       <c r="B135" s="13"/>
       <c r="C135" s="13"/>
@@ -5051,7 +5064,7 @@
       <c r="AA135" s="13"/>
       <c r="AB135" s="13"/>
     </row>
-    <row r="136" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="13"/>
       <c r="B136" s="13"/>
       <c r="C136" s="13"/>
@@ -5081,7 +5094,7 @@
       <c r="AA136" s="13"/>
       <c r="AB136" s="13"/>
     </row>
-    <row r="137" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="13"/>
       <c r="B137" s="13"/>
       <c r="C137" s="13"/>
@@ -5111,7 +5124,7 @@
       <c r="AA137" s="13"/>
       <c r="AB137" s="13"/>
     </row>
-    <row r="138" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="13"/>
       <c r="B138" s="13"/>
       <c r="C138" s="13"/>
@@ -5141,7 +5154,7 @@
       <c r="AA138" s="13"/>
       <c r="AB138" s="13"/>
     </row>
-    <row r="139" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="13"/>
       <c r="B139" s="13"/>
       <c r="C139" s="13"/>
@@ -5171,7 +5184,7 @@
       <c r="AA139" s="13"/>
       <c r="AB139" s="13"/>
     </row>
-    <row r="140" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="13"/>
       <c r="B140" s="13"/>
       <c r="C140" s="13"/>
@@ -5201,7 +5214,7 @@
       <c r="AA140" s="13"/>
       <c r="AB140" s="13"/>
     </row>
-    <row r="141" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="13"/>
       <c r="B141" s="13"/>
       <c r="C141" s="13"/>
@@ -5231,7 +5244,7 @@
       <c r="AA141" s="13"/>
       <c r="AB141" s="13"/>
     </row>
-    <row r="142" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="13"/>
       <c r="B142" s="13"/>
       <c r="C142" s="13"/>
@@ -5261,7 +5274,7 @@
       <c r="AA142" s="13"/>
       <c r="AB142" s="13"/>
     </row>
-    <row r="143" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="13"/>
       <c r="B143" s="13"/>
       <c r="C143" s="13"/>
@@ -5291,7 +5304,7 @@
       <c r="AA143" s="13"/>
       <c r="AB143" s="13"/>
     </row>
-    <row r="144" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="13"/>
       <c r="B144" s="13"/>
       <c r="C144" s="13"/>
@@ -5321,7 +5334,7 @@
       <c r="AA144" s="13"/>
       <c r="AB144" s="13"/>
     </row>
-    <row r="145" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="13"/>
       <c r="B145" s="13"/>
       <c r="C145" s="13"/>
@@ -5351,7 +5364,7 @@
       <c r="AA145" s="13"/>
       <c r="AB145" s="13"/>
     </row>
-    <row r="146" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="13"/>
       <c r="B146" s="13"/>
       <c r="C146" s="13"/>
@@ -5381,7 +5394,7 @@
       <c r="AA146" s="13"/>
       <c r="AB146" s="13"/>
     </row>
-    <row r="147" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="13"/>
       <c r="B147" s="13"/>
       <c r="C147" s="13"/>
@@ -5411,7 +5424,7 @@
       <c r="AA147" s="13"/>
       <c r="AB147" s="13"/>
     </row>
-    <row r="148" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="13"/>
       <c r="B148" s="13"/>
       <c r="C148" s="13"/>
@@ -5441,7 +5454,7 @@
       <c r="AA148" s="13"/>
       <c r="AB148" s="13"/>
     </row>
-    <row r="149" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="13"/>
       <c r="B149" s="13"/>
       <c r="C149" s="13"/>
@@ -5471,7 +5484,7 @@
       <c r="AA149" s="13"/>
       <c r="AB149" s="13"/>
     </row>
-    <row r="150" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="13"/>
       <c r="B150" s="13"/>
       <c r="C150" s="13"/>
@@ -5501,7 +5514,7 @@
       <c r="AA150" s="13"/>
       <c r="AB150" s="13"/>
     </row>
-    <row r="151" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="13"/>
       <c r="B151" s="13"/>
       <c r="C151" s="13"/>
@@ -5531,7 +5544,7 @@
       <c r="AA151" s="13"/>
       <c r="AB151" s="13"/>
     </row>
-    <row r="152" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="13"/>
       <c r="B152" s="13"/>
       <c r="C152" s="13"/>
@@ -5561,7 +5574,7 @@
       <c r="AA152" s="13"/>
       <c r="AB152" s="13"/>
     </row>
-    <row r="153" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="13"/>
       <c r="B153" s="13"/>
       <c r="C153" s="13"/>
@@ -5591,7 +5604,7 @@
       <c r="AA153" s="13"/>
       <c r="AB153" s="13"/>
     </row>
-    <row r="154" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="13"/>
       <c r="B154" s="13"/>
       <c r="C154" s="13"/>
@@ -5621,7 +5634,7 @@
       <c r="AA154" s="13"/>
       <c r="AB154" s="13"/>
     </row>
-    <row r="155" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="13"/>
       <c r="B155" s="13"/>
       <c r="C155" s="13"/>
@@ -5651,7 +5664,7 @@
       <c r="AA155" s="13"/>
       <c r="AB155" s="13"/>
     </row>
-    <row r="156" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="13"/>
       <c r="B156" s="13"/>
       <c r="C156" s="13"/>
@@ -5681,7 +5694,7 @@
       <c r="AA156" s="13"/>
       <c r="AB156" s="13"/>
     </row>
-    <row r="157" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="13"/>
       <c r="B157" s="13"/>
       <c r="C157" s="13"/>
@@ -5711,7 +5724,7 @@
       <c r="AA157" s="13"/>
       <c r="AB157" s="13"/>
     </row>
-    <row r="158" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="13"/>
       <c r="B158" s="13"/>
       <c r="C158" s="13"/>
@@ -5741,7 +5754,7 @@
       <c r="AA158" s="13"/>
       <c r="AB158" s="13"/>
     </row>
-    <row r="159" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="13"/>
       <c r="B159" s="13"/>
       <c r="C159" s="13"/>
@@ -5771,7 +5784,7 @@
       <c r="AA159" s="13"/>
       <c r="AB159" s="13"/>
     </row>
-    <row r="160" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="13"/>
       <c r="B160" s="13"/>
       <c r="C160" s="13"/>
@@ -5801,7 +5814,7 @@
       <c r="AA160" s="13"/>
       <c r="AB160" s="13"/>
     </row>
-    <row r="161" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="13"/>
       <c r="B161" s="13"/>
       <c r="C161" s="13"/>
@@ -5831,7 +5844,7 @@
       <c r="AA161" s="13"/>
       <c r="AB161" s="13"/>
     </row>
-    <row r="162" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="13"/>
       <c r="B162" s="13"/>
       <c r="C162" s="13"/>
@@ -5861,7 +5874,7 @@
       <c r="AA162" s="13"/>
       <c r="AB162" s="13"/>
     </row>
-    <row r="163" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="13"/>
       <c r="B163" s="13"/>
       <c r="C163" s="13"/>
@@ -5891,7 +5904,7 @@
       <c r="AA163" s="13"/>
       <c r="AB163" s="13"/>
     </row>
-    <row r="164" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="13"/>
       <c r="B164" s="13"/>
       <c r="C164" s="13"/>
@@ -5921,7 +5934,7 @@
       <c r="AA164" s="13"/>
       <c r="AB164" s="13"/>
     </row>
-    <row r="165" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="13"/>
       <c r="B165" s="13"/>
       <c r="C165" s="13"/>
@@ -5951,7 +5964,7 @@
       <c r="AA165" s="13"/>
       <c r="AB165" s="13"/>
     </row>
-    <row r="166" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="13"/>
       <c r="B166" s="13"/>
       <c r="C166" s="13"/>
@@ -5981,7 +5994,7 @@
       <c r="AA166" s="13"/>
       <c r="AB166" s="13"/>
     </row>
-    <row r="167" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="13"/>
       <c r="B167" s="13"/>
       <c r="C167" s="13"/>
@@ -6011,7 +6024,7 @@
       <c r="AA167" s="13"/>
       <c r="AB167" s="13"/>
     </row>
-    <row r="168" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="13"/>
       <c r="B168" s="13"/>
       <c r="C168" s="13"/>
@@ -6041,7 +6054,7 @@
       <c r="AA168" s="13"/>
       <c r="AB168" s="13"/>
     </row>
-    <row r="169" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="13"/>
       <c r="B169" s="13"/>
       <c r="C169" s="13"/>
@@ -6071,7 +6084,7 @@
       <c r="AA169" s="13"/>
       <c r="AB169" s="13"/>
     </row>
-    <row r="170" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="13"/>
       <c r="B170" s="13"/>
       <c r="C170" s="13"/>
@@ -6101,7 +6114,7 @@
       <c r="AA170" s="13"/>
       <c r="AB170" s="13"/>
     </row>
-    <row r="171" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="13"/>
       <c r="B171" s="13"/>
       <c r="C171" s="13"/>
@@ -6131,7 +6144,7 @@
       <c r="AA171" s="13"/>
       <c r="AB171" s="13"/>
     </row>
-    <row r="172" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="13"/>
       <c r="B172" s="13"/>
       <c r="C172" s="13"/>
@@ -6161,7 +6174,7 @@
       <c r="AA172" s="13"/>
       <c r="AB172" s="13"/>
     </row>
-    <row r="173" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="13"/>
       <c r="B173" s="13"/>
       <c r="C173" s="13"/>
@@ -6191,7 +6204,7 @@
       <c r="AA173" s="13"/>
       <c r="AB173" s="13"/>
     </row>
-    <row r="174" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="13"/>
       <c r="B174" s="13"/>
       <c r="C174" s="13"/>
@@ -6221,7 +6234,7 @@
       <c r="AA174" s="13"/>
       <c r="AB174" s="13"/>
     </row>
-    <row r="175" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="13"/>
       <c r="B175" s="13"/>
       <c r="C175" s="13"/>
@@ -6251,7 +6264,7 @@
       <c r="AA175" s="13"/>
       <c r="AB175" s="13"/>
     </row>
-    <row r="176" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="13"/>
       <c r="B176" s="13"/>
       <c r="C176" s="13"/>
@@ -6281,7 +6294,7 @@
       <c r="AA176" s="13"/>
       <c r="AB176" s="13"/>
     </row>
-    <row r="177" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="13"/>
       <c r="B177" s="13"/>
       <c r="C177" s="13"/>
@@ -6311,7 +6324,7 @@
       <c r="AA177" s="13"/>
       <c r="AB177" s="13"/>
     </row>
-    <row r="178" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="13"/>
       <c r="B178" s="13"/>
       <c r="C178" s="13"/>
@@ -6341,7 +6354,7 @@
       <c r="AA178" s="13"/>
       <c r="AB178" s="13"/>
     </row>
-    <row r="179" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="13"/>
       <c r="B179" s="13"/>
       <c r="C179" s="13"/>
@@ -6371,7 +6384,7 @@
       <c r="AA179" s="13"/>
       <c r="AB179" s="13"/>
     </row>
-    <row r="180" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="13"/>
       <c r="B180" s="13"/>
       <c r="C180" s="13"/>
@@ -6401,7 +6414,7 @@
       <c r="AA180" s="13"/>
       <c r="AB180" s="13"/>
     </row>
-    <row r="181" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="13"/>
       <c r="B181" s="13"/>
       <c r="C181" s="13"/>
@@ -6431,7 +6444,7 @@
       <c r="AA181" s="13"/>
       <c r="AB181" s="13"/>
     </row>
-    <row r="182" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="13"/>
       <c r="B182" s="13"/>
       <c r="C182" s="13"/>
@@ -6461,7 +6474,7 @@
       <c r="AA182" s="13"/>
       <c r="AB182" s="13"/>
     </row>
-    <row r="183" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="13"/>
       <c r="B183" s="13"/>
       <c r="C183" s="13"/>
@@ -6491,7 +6504,7 @@
       <c r="AA183" s="13"/>
       <c r="AB183" s="13"/>
     </row>
-    <row r="184" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="13"/>
       <c r="B184" s="13"/>
       <c r="C184" s="13"/>
@@ -6521,7 +6534,7 @@
       <c r="AA184" s="13"/>
       <c r="AB184" s="13"/>
     </row>
-    <row r="185" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="13"/>
       <c r="B185" s="13"/>
       <c r="C185" s="13"/>
@@ -6551,7 +6564,7 @@
       <c r="AA185" s="13"/>
       <c r="AB185" s="13"/>
     </row>
-    <row r="186" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="13"/>
       <c r="B186" s="13"/>
       <c r="C186" s="13"/>
@@ -6581,7 +6594,7 @@
       <c r="AA186" s="13"/>
       <c r="AB186" s="13"/>
     </row>
-    <row r="187" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="13"/>
       <c r="B187" s="13"/>
       <c r="C187" s="13"/>
@@ -6611,7 +6624,7 @@
       <c r="AA187" s="13"/>
       <c r="AB187" s="13"/>
     </row>
-    <row r="188" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="13"/>
       <c r="B188" s="13"/>
       <c r="C188" s="13"/>
@@ -6641,7 +6654,7 @@
       <c r="AA188" s="13"/>
       <c r="AB188" s="13"/>
     </row>
-    <row r="189" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="13"/>
       <c r="B189" s="13"/>
       <c r="C189" s="13"/>
@@ -6671,7 +6684,7 @@
       <c r="AA189" s="13"/>
       <c r="AB189" s="13"/>
     </row>
-    <row r="190" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="13"/>
       <c r="B190" s="13"/>
       <c r="C190" s="13"/>
@@ -6701,7 +6714,7 @@
       <c r="AA190" s="13"/>
       <c r="AB190" s="13"/>
     </row>
-    <row r="191" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="13"/>
       <c r="B191" s="13"/>
       <c r="C191" s="13"/>
@@ -6731,7 +6744,7 @@
       <c r="AA191" s="13"/>
       <c r="AB191" s="13"/>
     </row>
-    <row r="192" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="13"/>
       <c r="B192" s="13"/>
       <c r="C192" s="13"/>
@@ -6761,7 +6774,7 @@
       <c r="AA192" s="13"/>
       <c r="AB192" s="13"/>
     </row>
-    <row r="193" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="13"/>
       <c r="B193" s="13"/>
       <c r="C193" s="13"/>
@@ -6791,7 +6804,7 @@
       <c r="AA193" s="13"/>
       <c r="AB193" s="13"/>
     </row>
-    <row r="194" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="13"/>
       <c r="B194" s="13"/>
       <c r="C194" s="13"/>
@@ -6821,7 +6834,7 @@
       <c r="AA194" s="13"/>
       <c r="AB194" s="13"/>
     </row>
-    <row r="195" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="13"/>
       <c r="B195" s="13"/>
       <c r="C195" s="13"/>
@@ -6851,7 +6864,7 @@
       <c r="AA195" s="13"/>
       <c r="AB195" s="13"/>
     </row>
-    <row r="196" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="13"/>
       <c r="B196" s="13"/>
       <c r="C196" s="13"/>
@@ -6881,7 +6894,7 @@
       <c r="AA196" s="13"/>
       <c r="AB196" s="13"/>
     </row>
-    <row r="197" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="13"/>
       <c r="B197" s="13"/>
       <c r="C197" s="13"/>
@@ -6911,7 +6924,7 @@
       <c r="AA197" s="13"/>
       <c r="AB197" s="13"/>
     </row>
-    <row r="198" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="13"/>
       <c r="B198" s="13"/>
       <c r="C198" s="13"/>
@@ -6941,7 +6954,7 @@
       <c r="AA198" s="13"/>
       <c r="AB198" s="13"/>
     </row>
-    <row r="199" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="13"/>
       <c r="B199" s="13"/>
       <c r="C199" s="13"/>
@@ -6971,7 +6984,7 @@
       <c r="AA199" s="13"/>
       <c r="AB199" s="13"/>
     </row>
-    <row r="200" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="13"/>
       <c r="B200" s="13"/>
       <c r="C200" s="13"/>
@@ -7001,7 +7014,7 @@
       <c r="AA200" s="13"/>
       <c r="AB200" s="13"/>
     </row>
-    <row r="201" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="13"/>
       <c r="B201" s="13"/>
       <c r="C201" s="13"/>
@@ -7031,7 +7044,7 @@
       <c r="AA201" s="13"/>
       <c r="AB201" s="13"/>
     </row>
-    <row r="202" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="13"/>
       <c r="B202" s="13"/>
       <c r="C202" s="13"/>
@@ -7061,7 +7074,7 @@
       <c r="AA202" s="13"/>
       <c r="AB202" s="13"/>
     </row>
-    <row r="203" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="13"/>
       <c r="B203" s="13"/>
       <c r="C203" s="13"/>
@@ -7091,7 +7104,7 @@
       <c r="AA203" s="13"/>
       <c r="AB203" s="13"/>
     </row>
-    <row r="204" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="13"/>
       <c r="B204" s="13"/>
       <c r="C204" s="13"/>
@@ -7121,7 +7134,7 @@
       <c r="AA204" s="13"/>
       <c r="AB204" s="13"/>
     </row>
-    <row r="205" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="13"/>
       <c r="B205" s="13"/>
       <c r="C205" s="13"/>
@@ -7151,7 +7164,7 @@
       <c r="AA205" s="13"/>
       <c r="AB205" s="13"/>
     </row>
-    <row r="206" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="13"/>
       <c r="B206" s="13"/>
       <c r="C206" s="13"/>
@@ -7181,7 +7194,7 @@
       <c r="AA206" s="13"/>
       <c r="AB206" s="13"/>
     </row>
-    <row r="207" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="13"/>
       <c r="B207" s="13"/>
       <c r="C207" s="13"/>
@@ -7211,7 +7224,7 @@
       <c r="AA207" s="13"/>
       <c r="AB207" s="13"/>
     </row>
-    <row r="208" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="13"/>
       <c r="B208" s="13"/>
       <c r="C208" s="13"/>
@@ -7241,7 +7254,7 @@
       <c r="AA208" s="13"/>
       <c r="AB208" s="13"/>
     </row>
-    <row r="209" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="13"/>
       <c r="B209" s="13"/>
       <c r="C209" s="13"/>
@@ -7271,7 +7284,7 @@
       <c r="AA209" s="13"/>
       <c r="AB209" s="13"/>
     </row>
-    <row r="210" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="13"/>
       <c r="B210" s="13"/>
       <c r="C210" s="13"/>
@@ -7301,7 +7314,7 @@
       <c r="AA210" s="13"/>
       <c r="AB210" s="13"/>
     </row>
-    <row r="211" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="13"/>
       <c r="B211" s="13"/>
       <c r="C211" s="13"/>
@@ -7331,7 +7344,7 @@
       <c r="AA211" s="13"/>
       <c r="AB211" s="13"/>
     </row>
-    <row r="212" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="13"/>
       <c r="B212" s="13"/>
       <c r="C212" s="13"/>
@@ -7361,7 +7374,7 @@
       <c r="AA212" s="13"/>
       <c r="AB212" s="13"/>
     </row>
-    <row r="213" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="13"/>
       <c r="B213" s="13"/>
       <c r="C213" s="13"/>
@@ -7391,7 +7404,7 @@
       <c r="AA213" s="13"/>
       <c r="AB213" s="13"/>
     </row>
-    <row r="214" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="13"/>
       <c r="B214" s="13"/>
       <c r="C214" s="13"/>
@@ -7421,7 +7434,7 @@
       <c r="AA214" s="13"/>
       <c r="AB214" s="13"/>
     </row>
-    <row r="215" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="13"/>
       <c r="B215" s="13"/>
       <c r="C215" s="13"/>
@@ -7451,7 +7464,7 @@
       <c r="AA215" s="13"/>
       <c r="AB215" s="13"/>
     </row>
-    <row r="216" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="13"/>
       <c r="B216" s="13"/>
       <c r="C216" s="13"/>
@@ -7481,7 +7494,7 @@
       <c r="AA216" s="13"/>
       <c r="AB216" s="13"/>
     </row>
-    <row r="217" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="13"/>
       <c r="B217" s="13"/>
       <c r="C217" s="13"/>
@@ -7511,7 +7524,7 @@
       <c r="AA217" s="13"/>
       <c r="AB217" s="13"/>
     </row>
-    <row r="218" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="13"/>
       <c r="B218" s="13"/>
       <c r="C218" s="13"/>
@@ -7541,7 +7554,7 @@
       <c r="AA218" s="13"/>
       <c r="AB218" s="13"/>
     </row>
-    <row r="219" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="13"/>
       <c r="B219" s="13"/>
       <c r="C219" s="13"/>
@@ -7571,7 +7584,7 @@
       <c r="AA219" s="13"/>
       <c r="AB219" s="13"/>
     </row>
-    <row r="220" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="13"/>
       <c r="B220" s="13"/>
       <c r="C220" s="13"/>
@@ -7601,7 +7614,7 @@
       <c r="AA220" s="13"/>
       <c r="AB220" s="13"/>
     </row>
-    <row r="221" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="13"/>
       <c r="B221" s="13"/>
       <c r="C221" s="13"/>
@@ -7631,7 +7644,7 @@
       <c r="AA221" s="13"/>
       <c r="AB221" s="13"/>
     </row>
-    <row r="222" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="13"/>
       <c r="B222" s="13"/>
       <c r="C222" s="13"/>
@@ -7661,7 +7674,7 @@
       <c r="AA222" s="13"/>
       <c r="AB222" s="13"/>
     </row>
-    <row r="223" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="13"/>
       <c r="B223" s="13"/>
       <c r="C223" s="13"/>
@@ -7691,7 +7704,7 @@
       <c r="AA223" s="13"/>
       <c r="AB223" s="13"/>
     </row>
-    <row r="224" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="13"/>
       <c r="B224" s="13"/>
       <c r="C224" s="13"/>
@@ -7721,7 +7734,7 @@
       <c r="AA224" s="13"/>
       <c r="AB224" s="13"/>
     </row>
-    <row r="225" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="13"/>
       <c r="B225" s="13"/>
       <c r="C225" s="13"/>
@@ -7751,7 +7764,7 @@
       <c r="AA225" s="13"/>
       <c r="AB225" s="13"/>
     </row>
-    <row r="226" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="13"/>
       <c r="B226" s="13"/>
       <c r="C226" s="13"/>
@@ -7781,7 +7794,7 @@
       <c r="AA226" s="13"/>
       <c r="AB226" s="13"/>
     </row>
-    <row r="227" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="13"/>
       <c r="B227" s="13"/>
       <c r="C227" s="13"/>
@@ -7811,7 +7824,7 @@
       <c r="AA227" s="13"/>
       <c r="AB227" s="13"/>
     </row>
-    <row r="228" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="13"/>
       <c r="B228" s="13"/>
       <c r="C228" s="13"/>
@@ -7841,7 +7854,7 @@
       <c r="AA228" s="13"/>
       <c r="AB228" s="13"/>
     </row>
-    <row r="229" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="13"/>
       <c r="B229" s="13"/>
       <c r="C229" s="13"/>
@@ -7871,7 +7884,7 @@
       <c r="AA229" s="13"/>
       <c r="AB229" s="13"/>
     </row>
-    <row r="230" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="13"/>
       <c r="B230" s="13"/>
       <c r="C230" s="13"/>
@@ -7901,7 +7914,7 @@
       <c r="AA230" s="13"/>
       <c r="AB230" s="13"/>
     </row>
-    <row r="231" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="13"/>
       <c r="B231" s="13"/>
       <c r="C231" s="13"/>
@@ -7931,7 +7944,7 @@
       <c r="AA231" s="13"/>
       <c r="AB231" s="13"/>
     </row>
-    <row r="232" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="13"/>
       <c r="B232" s="13"/>
       <c r="C232" s="13"/>
@@ -7961,7 +7974,7 @@
       <c r="AA232" s="13"/>
       <c r="AB232" s="13"/>
     </row>
-    <row r="233" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="13"/>
       <c r="B233" s="13"/>
       <c r="C233" s="13"/>
@@ -7991,7 +8004,7 @@
       <c r="AA233" s="13"/>
       <c r="AB233" s="13"/>
     </row>
-    <row r="234" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="13"/>
       <c r="B234" s="13"/>
       <c r="C234" s="13"/>
@@ -8021,7 +8034,7 @@
       <c r="AA234" s="13"/>
       <c r="AB234" s="13"/>
     </row>
-    <row r="235" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="13"/>
       <c r="B235" s="13"/>
       <c r="C235" s="13"/>
@@ -8051,7 +8064,7 @@
       <c r="AA235" s="13"/>
       <c r="AB235" s="13"/>
     </row>
-    <row r="236" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="13"/>
       <c r="B236" s="13"/>
       <c r="C236" s="13"/>
@@ -8081,7 +8094,7 @@
       <c r="AA236" s="13"/>
       <c r="AB236" s="13"/>
     </row>
-    <row r="237" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="13"/>
       <c r="B237" s="13"/>
       <c r="C237" s="13"/>
@@ -8111,7 +8124,7 @@
       <c r="AA237" s="13"/>
       <c r="AB237" s="13"/>
     </row>
-    <row r="238" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="13"/>
       <c r="B238" s="13"/>
       <c r="C238" s="13"/>
@@ -8141,7 +8154,7 @@
       <c r="AA238" s="13"/>
       <c r="AB238" s="13"/>
     </row>
-    <row r="239" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="13"/>
       <c r="B239" s="13"/>
       <c r="C239" s="13"/>
@@ -8171,7 +8184,7 @@
       <c r="AA239" s="13"/>
       <c r="AB239" s="13"/>
     </row>
-    <row r="240" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="13"/>
       <c r="B240" s="13"/>
       <c r="C240" s="13"/>
@@ -8201,7 +8214,7 @@
       <c r="AA240" s="13"/>
       <c r="AB240" s="13"/>
     </row>
-    <row r="241" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="13"/>
       <c r="B241" s="13"/>
       <c r="C241" s="13"/>
@@ -8231,7 +8244,7 @@
       <c r="AA241" s="13"/>
       <c r="AB241" s="13"/>
     </row>
-    <row r="242" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="13"/>
       <c r="B242" s="13"/>
       <c r="C242" s="13"/>
@@ -8261,7 +8274,7 @@
       <c r="AA242" s="13"/>
       <c r="AB242" s="13"/>
     </row>
-    <row r="243" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="13"/>
       <c r="B243" s="13"/>
       <c r="C243" s="13"/>
@@ -8291,7 +8304,7 @@
       <c r="AA243" s="13"/>
       <c r="AB243" s="13"/>
     </row>
-    <row r="244" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="13"/>
       <c r="B244" s="13"/>
       <c r="C244" s="13"/>
@@ -8321,7 +8334,7 @@
       <c r="AA244" s="13"/>
       <c r="AB244" s="13"/>
     </row>
-    <row r="245" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="13"/>
       <c r="B245" s="13"/>
       <c r="C245" s="13"/>
@@ -8351,7 +8364,7 @@
       <c r="AA245" s="13"/>
       <c r="AB245" s="13"/>
     </row>
-    <row r="246" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="13"/>
       <c r="B246" s="13"/>
       <c r="C246" s="13"/>
@@ -8381,7 +8394,7 @@
       <c r="AA246" s="13"/>
       <c r="AB246" s="13"/>
     </row>
-    <row r="247" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="13"/>
       <c r="B247" s="13"/>
       <c r="C247" s="13"/>
@@ -8411,7 +8424,7 @@
       <c r="AA247" s="13"/>
       <c r="AB247" s="13"/>
     </row>
-    <row r="248" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="13"/>
       <c r="B248" s="13"/>
       <c r="C248" s="13"/>
@@ -8441,7 +8454,7 @@
       <c r="AA248" s="13"/>
       <c r="AB248" s="13"/>
     </row>
-    <row r="249" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="13"/>
       <c r="B249" s="13"/>
       <c r="C249" s="13"/>
@@ -8471,7 +8484,7 @@
       <c r="AA249" s="13"/>
       <c r="AB249" s="13"/>
     </row>
-    <row r="250" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="13"/>
       <c r="B250" s="13"/>
       <c r="C250" s="13"/>
@@ -8501,7 +8514,7 @@
       <c r="AA250" s="13"/>
       <c r="AB250" s="13"/>
     </row>
-    <row r="251" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="13"/>
       <c r="B251" s="13"/>
       <c r="C251" s="13"/>
@@ -8531,7 +8544,7 @@
       <c r="AA251" s="13"/>
       <c r="AB251" s="13"/>
     </row>
-    <row r="252" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="13"/>
       <c r="B252" s="13"/>
       <c r="C252" s="13"/>
@@ -8561,7 +8574,7 @@
       <c r="AA252" s="13"/>
       <c r="AB252" s="13"/>
     </row>
-    <row r="253" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="13"/>
       <c r="B253" s="13"/>
       <c r="C253" s="13"/>
@@ -8591,7 +8604,7 @@
       <c r="AA253" s="13"/>
       <c r="AB253" s="13"/>
     </row>
-    <row r="254" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="13"/>
       <c r="B254" s="13"/>
       <c r="C254" s="13"/>
@@ -8621,7 +8634,7 @@
       <c r="AA254" s="13"/>
       <c r="AB254" s="13"/>
     </row>
-    <row r="255" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="13"/>
       <c r="B255" s="13"/>
       <c r="C255" s="13"/>
@@ -8651,7 +8664,7 @@
       <c r="AA255" s="13"/>
       <c r="AB255" s="13"/>
     </row>
-    <row r="256" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="13"/>
       <c r="B256" s="13"/>
       <c r="C256" s="13"/>
@@ -8681,7 +8694,7 @@
       <c r="AA256" s="13"/>
       <c r="AB256" s="13"/>
     </row>
-    <row r="257" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="13"/>
       <c r="B257" s="13"/>
       <c r="C257" s="13"/>
@@ -8711,7 +8724,7 @@
       <c r="AA257" s="13"/>
       <c r="AB257" s="13"/>
     </row>
-    <row r="258" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="13"/>
       <c r="B258" s="13"/>
       <c r="C258" s="13"/>
@@ -8741,7 +8754,7 @@
       <c r="AA258" s="13"/>
       <c r="AB258" s="13"/>
     </row>
-    <row r="259" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="13"/>
       <c r="B259" s="13"/>
       <c r="C259" s="13"/>
@@ -8771,7 +8784,7 @@
       <c r="AA259" s="13"/>
       <c r="AB259" s="13"/>
     </row>
-    <row r="260" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="13"/>
       <c r="B260" s="13"/>
       <c r="C260" s="13"/>
@@ -8801,7 +8814,7 @@
       <c r="AA260" s="13"/>
       <c r="AB260" s="13"/>
     </row>
-    <row r="261" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="13"/>
       <c r="B261" s="13"/>
       <c r="C261" s="13"/>
@@ -8831,7 +8844,7 @@
       <c r="AA261" s="13"/>
       <c r="AB261" s="13"/>
     </row>
-    <row r="262" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="13"/>
       <c r="B262" s="13"/>
       <c r="C262" s="13"/>
@@ -8861,7 +8874,7 @@
       <c r="AA262" s="13"/>
       <c r="AB262" s="13"/>
     </row>
-    <row r="263" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="13"/>
       <c r="B263" s="13"/>
       <c r="C263" s="13"/>
@@ -8891,7 +8904,7 @@
       <c r="AA263" s="13"/>
       <c r="AB263" s="13"/>
     </row>
-    <row r="264" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="13"/>
       <c r="B264" s="13"/>
       <c r="C264" s="13"/>
@@ -8921,7 +8934,7 @@
       <c r="AA264" s="13"/>
       <c r="AB264" s="13"/>
     </row>
-    <row r="265" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="13"/>
       <c r="B265" s="13"/>
       <c r="C265" s="13"/>
@@ -8951,7 +8964,7 @@
       <c r="AA265" s="13"/>
       <c r="AB265" s="13"/>
     </row>
-    <row r="266" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="13"/>
       <c r="B266" s="13"/>
       <c r="C266" s="13"/>
@@ -8981,7 +8994,7 @@
       <c r="AA266" s="13"/>
       <c r="AB266" s="13"/>
     </row>
-    <row r="267" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="13"/>
       <c r="B267" s="13"/>
       <c r="C267" s="13"/>
@@ -9011,7 +9024,7 @@
       <c r="AA267" s="13"/>
       <c r="AB267" s="13"/>
     </row>
-    <row r="268" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="13"/>
       <c r="B268" s="13"/>
       <c r="C268" s="13"/>
@@ -9041,7 +9054,7 @@
       <c r="AA268" s="13"/>
       <c r="AB268" s="13"/>
     </row>
-    <row r="269" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="13"/>
       <c r="B269" s="13"/>
       <c r="C269" s="13"/>
@@ -9071,7 +9084,7 @@
       <c r="AA269" s="13"/>
       <c r="AB269" s="13"/>
     </row>
-    <row r="270" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="13"/>
       <c r="B270" s="13"/>
       <c r="C270" s="13"/>
@@ -9101,7 +9114,7 @@
       <c r="AA270" s="13"/>
       <c r="AB270" s="13"/>
     </row>
-    <row r="271" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="13"/>
       <c r="B271" s="13"/>
       <c r="C271" s="13"/>
@@ -9131,7 +9144,7 @@
       <c r="AA271" s="13"/>
       <c r="AB271" s="13"/>
     </row>
-    <row r="272" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="13"/>
       <c r="B272" s="13"/>
       <c r="C272" s="13"/>
@@ -9161,7 +9174,7 @@
       <c r="AA272" s="13"/>
       <c r="AB272" s="13"/>
     </row>
-    <row r="273" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="13"/>
       <c r="B273" s="13"/>
       <c r="C273" s="13"/>
@@ -9191,7 +9204,7 @@
       <c r="AA273" s="13"/>
       <c r="AB273" s="13"/>
     </row>
-    <row r="274" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="13"/>
       <c r="B274" s="13"/>
       <c r="C274" s="13"/>
@@ -9221,7 +9234,7 @@
       <c r="AA274" s="13"/>
       <c r="AB274" s="13"/>
     </row>
-    <row r="275" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="13"/>
       <c r="B275" s="13"/>
       <c r="C275" s="13"/>
@@ -9251,7 +9264,7 @@
       <c r="AA275" s="13"/>
       <c r="AB275" s="13"/>
     </row>
-    <row r="276" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="13"/>
       <c r="B276" s="13"/>
       <c r="C276" s="13"/>
@@ -9281,7 +9294,7 @@
       <c r="AA276" s="13"/>
       <c r="AB276" s="13"/>
     </row>
-    <row r="277" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="13"/>
       <c r="B277" s="13"/>
       <c r="C277" s="13"/>
@@ -9311,7 +9324,7 @@
       <c r="AA277" s="13"/>
       <c r="AB277" s="13"/>
     </row>
-    <row r="278" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="13"/>
       <c r="B278" s="13"/>
       <c r="C278" s="13"/>
@@ -9341,7 +9354,7 @@
       <c r="AA278" s="13"/>
       <c r="AB278" s="13"/>
     </row>
-    <row r="279" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="13"/>
       <c r="B279" s="13"/>
       <c r="C279" s="13"/>
@@ -9371,7 +9384,7 @@
       <c r="AA279" s="13"/>
       <c r="AB279" s="13"/>
     </row>
-    <row r="280" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="13"/>
       <c r="B280" s="13"/>
       <c r="C280" s="13"/>
@@ -9401,7 +9414,7 @@
       <c r="AA280" s="13"/>
       <c r="AB280" s="13"/>
     </row>
-    <row r="281" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="13"/>
       <c r="B281" s="13"/>
       <c r="C281" s="13"/>
@@ -9431,7 +9444,7 @@
       <c r="AA281" s="13"/>
       <c r="AB281" s="13"/>
     </row>
-    <row r="282" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="13"/>
       <c r="B282" s="13"/>
       <c r="C282" s="13"/>
@@ -9461,7 +9474,7 @@
       <c r="AA282" s="13"/>
       <c r="AB282" s="13"/>
     </row>
-    <row r="283" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="13"/>
       <c r="B283" s="13"/>
       <c r="C283" s="13"/>
@@ -9491,7 +9504,7 @@
       <c r="AA283" s="13"/>
       <c r="AB283" s="13"/>
     </row>
-    <row r="284" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="13"/>
       <c r="B284" s="13"/>
       <c r="C284" s="13"/>
@@ -9521,7 +9534,7 @@
       <c r="AA284" s="13"/>
       <c r="AB284" s="13"/>
     </row>
-    <row r="285" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="13"/>
       <c r="B285" s="13"/>
       <c r="C285" s="13"/>
@@ -9551,7 +9564,7 @@
       <c r="AA285" s="13"/>
       <c r="AB285" s="13"/>
     </row>
-    <row r="286" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="13"/>
       <c r="B286" s="13"/>
       <c r="C286" s="13"/>
@@ -9581,7 +9594,7 @@
       <c r="AA286" s="13"/>
       <c r="AB286" s="13"/>
     </row>
-    <row r="287" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="13"/>
       <c r="B287" s="13"/>
       <c r="C287" s="13"/>
@@ -9611,7 +9624,7 @@
       <c r="AA287" s="13"/>
       <c r="AB287" s="13"/>
     </row>
-    <row r="288" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="13"/>
       <c r="B288" s="13"/>
       <c r="C288" s="13"/>
@@ -9641,7 +9654,7 @@
       <c r="AA288" s="13"/>
       <c r="AB288" s="13"/>
     </row>
-    <row r="289" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="13"/>
       <c r="B289" s="13"/>
       <c r="C289" s="13"/>
@@ -9671,7 +9684,7 @@
       <c r="AA289" s="13"/>
       <c r="AB289" s="13"/>
     </row>
-    <row r="290" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="13"/>
       <c r="B290" s="13"/>
       <c r="C290" s="13"/>
@@ -9701,7 +9714,7 @@
       <c r="AA290" s="13"/>
       <c r="AB290" s="13"/>
     </row>
-    <row r="291" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="13"/>
       <c r="B291" s="13"/>
       <c r="C291" s="13"/>
@@ -9731,7 +9744,7 @@
       <c r="AA291" s="13"/>
       <c r="AB291" s="13"/>
     </row>
-    <row r="292" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="13"/>
       <c r="B292" s="13"/>
       <c r="C292" s="13"/>
@@ -9761,7 +9774,7 @@
       <c r="AA292" s="13"/>
       <c r="AB292" s="13"/>
     </row>
-    <row r="293" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="13"/>
       <c r="B293" s="13"/>
       <c r="C293" s="13"/>
@@ -9791,7 +9804,7 @@
       <c r="AA293" s="13"/>
       <c r="AB293" s="13"/>
     </row>
-    <row r="294" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="13"/>
       <c r="B294" s="13"/>
       <c r="C294" s="13"/>
@@ -9821,7 +9834,7 @@
       <c r="AA294" s="13"/>
       <c r="AB294" s="13"/>
     </row>
-    <row r="295" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="13"/>
       <c r="B295" s="13"/>
       <c r="C295" s="13"/>
@@ -9851,7 +9864,7 @@
       <c r="AA295" s="13"/>
       <c r="AB295" s="13"/>
     </row>
-    <row r="296" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="13"/>
       <c r="B296" s="13"/>
       <c r="C296" s="13"/>
@@ -9881,7 +9894,7 @@
       <c r="AA296" s="13"/>
       <c r="AB296" s="13"/>
     </row>
-    <row r="297" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="13"/>
       <c r="B297" s="13"/>
       <c r="C297" s="13"/>
@@ -9911,7 +9924,7 @@
       <c r="AA297" s="13"/>
       <c r="AB297" s="13"/>
     </row>
-    <row r="298" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="13"/>
       <c r="B298" s="13"/>
       <c r="C298" s="13"/>
@@ -9941,7 +9954,7 @@
       <c r="AA298" s="13"/>
       <c r="AB298" s="13"/>
     </row>
-    <row r="299" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="13"/>
       <c r="B299" s="13"/>
       <c r="C299" s="13"/>
@@ -9971,7 +9984,7 @@
       <c r="AA299" s="13"/>
       <c r="AB299" s="13"/>
     </row>
-    <row r="300" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="13"/>
       <c r="B300" s="13"/>
       <c r="C300" s="13"/>
@@ -10001,7 +10014,7 @@
       <c r="AA300" s="13"/>
       <c r="AB300" s="13"/>
     </row>
-    <row r="301" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="13"/>
       <c r="B301" s="13"/>
       <c r="C301" s="13"/>
@@ -10031,7 +10044,7 @@
       <c r="AA301" s="13"/>
       <c r="AB301" s="13"/>
     </row>
-    <row r="302" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="13"/>
       <c r="B302" s="13"/>
       <c r="C302" s="13"/>
@@ -10061,7 +10074,7 @@
       <c r="AA302" s="13"/>
       <c r="AB302" s="13"/>
     </row>
-    <row r="303" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="13"/>
       <c r="B303" s="13"/>
       <c r="C303" s="13"/>
@@ -10091,7 +10104,7 @@
       <c r="AA303" s="13"/>
       <c r="AB303" s="13"/>
     </row>
-    <row r="304" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="13"/>
       <c r="B304" s="13"/>
       <c r="C304" s="13"/>
@@ -10121,7 +10134,7 @@
       <c r="AA304" s="13"/>
       <c r="AB304" s="13"/>
     </row>
-    <row r="305" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="13"/>
       <c r="B305" s="13"/>
       <c r="C305" s="13"/>
@@ -10151,7 +10164,7 @@
       <c r="AA305" s="13"/>
       <c r="AB305" s="13"/>
     </row>
-    <row r="306" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="13"/>
       <c r="B306" s="13"/>
       <c r="C306" s="13"/>
@@ -10181,7 +10194,7 @@
       <c r="AA306" s="13"/>
       <c r="AB306" s="13"/>
     </row>
-    <row r="307" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="13"/>
       <c r="B307" s="13"/>
       <c r="C307" s="13"/>
@@ -10211,7 +10224,7 @@
       <c r="AA307" s="13"/>
       <c r="AB307" s="13"/>
     </row>
-    <row r="308" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="13"/>
       <c r="B308" s="13"/>
       <c r="C308" s="13"/>
@@ -10241,7 +10254,7 @@
       <c r="AA308" s="13"/>
       <c r="AB308" s="13"/>
     </row>
-    <row r="309" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="13"/>
       <c r="B309" s="13"/>
       <c r="C309" s="13"/>
@@ -10271,7 +10284,7 @@
       <c r="AA309" s="13"/>
       <c r="AB309" s="13"/>
     </row>
-    <row r="310" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="13"/>
       <c r="B310" s="13"/>
       <c r="C310" s="13"/>
@@ -10301,7 +10314,7 @@
       <c r="AA310" s="13"/>
       <c r="AB310" s="13"/>
     </row>
-    <row r="311" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="13"/>
       <c r="B311" s="13"/>
       <c r="C311" s="13"/>
@@ -10331,7 +10344,7 @@
       <c r="AA311" s="13"/>
       <c r="AB311" s="13"/>
     </row>
-    <row r="312" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="13"/>
       <c r="B312" s="13"/>
       <c r="C312" s="13"/>
@@ -10361,7 +10374,7 @@
       <c r="AA312" s="13"/>
       <c r="AB312" s="13"/>
     </row>
-    <row r="313" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="13"/>
       <c r="B313" s="13"/>
       <c r="C313" s="13"/>
@@ -10391,7 +10404,7 @@
       <c r="AA313" s="13"/>
       <c r="AB313" s="13"/>
     </row>
-    <row r="314" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="13"/>
       <c r="B314" s="13"/>
       <c r="C314" s="13"/>
@@ -10421,7 +10434,7 @@
       <c r="AA314" s="13"/>
       <c r="AB314" s="13"/>
     </row>
-    <row r="315" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="13"/>
       <c r="B315" s="13"/>
       <c r="C315" s="13"/>
@@ -10451,7 +10464,7 @@
       <c r="AA315" s="13"/>
       <c r="AB315" s="13"/>
     </row>
-    <row r="316" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="13"/>
       <c r="B316" s="13"/>
       <c r="C316" s="13"/>
@@ -10481,7 +10494,7 @@
       <c r="AA316" s="13"/>
       <c r="AB316" s="13"/>
     </row>
-    <row r="317" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="13"/>
       <c r="B317" s="13"/>
       <c r="C317" s="13"/>
@@ -10511,7 +10524,7 @@
       <c r="AA317" s="13"/>
       <c r="AB317" s="13"/>
     </row>
-    <row r="318" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="13"/>
       <c r="B318" s="13"/>
       <c r="C318" s="13"/>
@@ -10541,7 +10554,7 @@
       <c r="AA318" s="13"/>
       <c r="AB318" s="13"/>
     </row>
-    <row r="319" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="13"/>
       <c r="B319" s="13"/>
       <c r="C319" s="13"/>
@@ -10571,7 +10584,7 @@
       <c r="AA319" s="13"/>
       <c r="AB319" s="13"/>
     </row>
-    <row r="320" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="13"/>
       <c r="B320" s="13"/>
       <c r="C320" s="13"/>
@@ -10601,7 +10614,7 @@
       <c r="AA320" s="13"/>
       <c r="AB320" s="13"/>
     </row>
-    <row r="321" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="13"/>
       <c r="B321" s="13"/>
       <c r="C321" s="13"/>
@@ -10631,7 +10644,7 @@
       <c r="AA321" s="13"/>
       <c r="AB321" s="13"/>
     </row>
-    <row r="322" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="13"/>
       <c r="B322" s="13"/>
       <c r="C322" s="13"/>
@@ -10661,7 +10674,7 @@
       <c r="AA322" s="13"/>
       <c r="AB322" s="13"/>
     </row>
-    <row r="323" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="13"/>
       <c r="B323" s="13"/>
       <c r="C323" s="13"/>
@@ -10691,7 +10704,7 @@
       <c r="AA323" s="13"/>
       <c r="AB323" s="13"/>
     </row>
-    <row r="324" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="13"/>
       <c r="B324" s="13"/>
       <c r="C324" s="13"/>
@@ -10721,7 +10734,7 @@
       <c r="AA324" s="13"/>
       <c r="AB324" s="13"/>
     </row>
-    <row r="325" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="13"/>
       <c r="B325" s="13"/>
       <c r="C325" s="13"/>
@@ -10751,7 +10764,7 @@
       <c r="AA325" s="13"/>
       <c r="AB325" s="13"/>
     </row>
-    <row r="326" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="13"/>
       <c r="B326" s="13"/>
       <c r="C326" s="13"/>
@@ -10781,7 +10794,7 @@
       <c r="AA326" s="13"/>
       <c r="AB326" s="13"/>
     </row>
-    <row r="327" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="13"/>
       <c r="B327" s="13"/>
       <c r="C327" s="13"/>
@@ -10811,7 +10824,7 @@
       <c r="AA327" s="13"/>
       <c r="AB327" s="13"/>
     </row>
-    <row r="328" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="13"/>
       <c r="B328" s="13"/>
       <c r="C328" s="13"/>
@@ -10841,7 +10854,7 @@
       <c r="AA328" s="13"/>
       <c r="AB328" s="13"/>
     </row>
-    <row r="329" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="13"/>
       <c r="B329" s="13"/>
       <c r="C329" s="13"/>
@@ -10871,7 +10884,7 @@
       <c r="AA329" s="13"/>
       <c r="AB329" s="13"/>
     </row>
-    <row r="330" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="13"/>
       <c r="B330" s="13"/>
       <c r="C330" s="13"/>
@@ -10901,7 +10914,7 @@
       <c r="AA330" s="13"/>
       <c r="AB330" s="13"/>
     </row>
-    <row r="331" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="13"/>
       <c r="B331" s="13"/>
       <c r="C331" s="13"/>
@@ -10931,7 +10944,7 @@
       <c r="AA331" s="13"/>
       <c r="AB331" s="13"/>
     </row>
-    <row r="332" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="13"/>
       <c r="B332" s="13"/>
       <c r="C332" s="13"/>
@@ -10961,7 +10974,7 @@
       <c r="AA332" s="13"/>
       <c r="AB332" s="13"/>
     </row>
-    <row r="333" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="13"/>
       <c r="B333" s="13"/>
       <c r="C333" s="13"/>
@@ -10991,7 +11004,7 @@
       <c r="AA333" s="13"/>
       <c r="AB333" s="13"/>
     </row>
-    <row r="334" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="13"/>
       <c r="B334" s="13"/>
       <c r="C334" s="13"/>
@@ -11021,7 +11034,7 @@
       <c r="AA334" s="13"/>
       <c r="AB334" s="13"/>
     </row>
-    <row r="335" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="13"/>
       <c r="B335" s="13"/>
       <c r="C335" s="13"/>
@@ -11051,7 +11064,7 @@
       <c r="AA335" s="13"/>
       <c r="AB335" s="13"/>
     </row>
-    <row r="336" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="13"/>
       <c r="B336" s="13"/>
       <c r="C336" s="13"/>
@@ -11081,7 +11094,7 @@
       <c r="AA336" s="13"/>
       <c r="AB336" s="13"/>
     </row>
-    <row r="337" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="13"/>
       <c r="B337" s="13"/>
       <c r="C337" s="13"/>
@@ -11111,7 +11124,7 @@
       <c r="AA337" s="13"/>
       <c r="AB337" s="13"/>
     </row>
-    <row r="338" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="13"/>
       <c r="B338" s="13"/>
       <c r="C338" s="13"/>
@@ -11141,7 +11154,7 @@
       <c r="AA338" s="13"/>
       <c r="AB338" s="13"/>
     </row>
-    <row r="339" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="13"/>
       <c r="B339" s="13"/>
       <c r="C339" s="13"/>
@@ -11171,7 +11184,7 @@
       <c r="AA339" s="13"/>
       <c r="AB339" s="13"/>
     </row>
-    <row r="340" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="13"/>
       <c r="B340" s="13"/>
       <c r="C340" s="13"/>
@@ -11201,7 +11214,7 @@
       <c r="AA340" s="13"/>
       <c r="AB340" s="13"/>
     </row>
-    <row r="341" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="13"/>
       <c r="B341" s="13"/>
       <c r="C341" s="13"/>
@@ -11231,7 +11244,7 @@
       <c r="AA341" s="13"/>
       <c r="AB341" s="13"/>
     </row>
-    <row r="342" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="13"/>
       <c r="B342" s="13"/>
       <c r="C342" s="13"/>
@@ -11261,7 +11274,7 @@
       <c r="AA342" s="13"/>
       <c r="AB342" s="13"/>
     </row>
-    <row r="343" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="13"/>
       <c r="B343" s="13"/>
       <c r="C343" s="13"/>
@@ -11291,7 +11304,7 @@
       <c r="AA343" s="13"/>
       <c r="AB343" s="13"/>
     </row>
-    <row r="344" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="13"/>
       <c r="B344" s="13"/>
       <c r="C344" s="13"/>
@@ -11321,7 +11334,7 @@
       <c r="AA344" s="13"/>
       <c r="AB344" s="13"/>
     </row>
-    <row r="345" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="13"/>
       <c r="B345" s="13"/>
       <c r="C345" s="13"/>
@@ -11351,7 +11364,7 @@
       <c r="AA345" s="13"/>
       <c r="AB345" s="13"/>
     </row>
-    <row r="346" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="13"/>
       <c r="B346" s="13"/>
       <c r="C346" s="13"/>
@@ -11381,7 +11394,7 @@
       <c r="AA346" s="13"/>
       <c r="AB346" s="13"/>
     </row>
-    <row r="347" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="13"/>
       <c r="B347" s="13"/>
       <c r="C347" s="13"/>
@@ -11411,7 +11424,7 @@
       <c r="AA347" s="13"/>
       <c r="AB347" s="13"/>
     </row>
-    <row r="348" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="13"/>
       <c r="B348" s="13"/>
       <c r="C348" s="13"/>
@@ -11441,7 +11454,7 @@
       <c r="AA348" s="13"/>
       <c r="AB348" s="13"/>
     </row>
-    <row r="349" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="13"/>
       <c r="B349" s="13"/>
       <c r="C349" s="13"/>
@@ -11471,7 +11484,7 @@
       <c r="AA349" s="13"/>
       <c r="AB349" s="13"/>
     </row>
-    <row r="350" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="13"/>
       <c r="B350" s="13"/>
       <c r="C350" s="13"/>
@@ -11501,7 +11514,7 @@
       <c r="AA350" s="13"/>
       <c r="AB350" s="13"/>
     </row>
-    <row r="351" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="13"/>
       <c r="B351" s="13"/>
       <c r="C351" s="13"/>
@@ -11531,7 +11544,7 @@
       <c r="AA351" s="13"/>
       <c r="AB351" s="13"/>
     </row>
-    <row r="352" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="13"/>
       <c r="B352" s="13"/>
       <c r="C352" s="13"/>
@@ -11561,7 +11574,7 @@
       <c r="AA352" s="13"/>
       <c r="AB352" s="13"/>
     </row>
-    <row r="353" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="13"/>
       <c r="B353" s="13"/>
       <c r="C353" s="13"/>
@@ -11591,7 +11604,7 @@
       <c r="AA353" s="13"/>
       <c r="AB353" s="13"/>
     </row>
-    <row r="354" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="13"/>
       <c r="B354" s="13"/>
       <c r="C354" s="13"/>
@@ -11621,7 +11634,7 @@
       <c r="AA354" s="13"/>
       <c r="AB354" s="13"/>
     </row>
-    <row r="355" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="13"/>
       <c r="B355" s="13"/>
       <c r="C355" s="13"/>
@@ -11651,7 +11664,7 @@
       <c r="AA355" s="13"/>
       <c r="AB355" s="13"/>
     </row>
-    <row r="356" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="13"/>
       <c r="B356" s="13"/>
       <c r="C356" s="13"/>
@@ -11681,7 +11694,7 @@
       <c r="AA356" s="13"/>
       <c r="AB356" s="13"/>
     </row>
-    <row r="357" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="13"/>
       <c r="B357" s="13"/>
       <c r="C357" s="13"/>
@@ -11711,7 +11724,7 @@
       <c r="AA357" s="13"/>
       <c r="AB357" s="13"/>
     </row>
-    <row r="358" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="13"/>
       <c r="B358" s="13"/>
       <c r="C358" s="13"/>
@@ -11741,7 +11754,7 @@
       <c r="AA358" s="13"/>
       <c r="AB358" s="13"/>
     </row>
-    <row r="359" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="13"/>
       <c r="B359" s="13"/>
       <c r="C359" s="13"/>
@@ -11771,7 +11784,7 @@
       <c r="AA359" s="13"/>
       <c r="AB359" s="13"/>
     </row>
-    <row r="360" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="13"/>
       <c r="B360" s="13"/>
       <c r="C360" s="13"/>
@@ -11801,7 +11814,7 @@
       <c r="AA360" s="13"/>
       <c r="AB360" s="13"/>
     </row>
-    <row r="361" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="13"/>
       <c r="B361" s="13"/>
       <c r="C361" s="13"/>
@@ -11831,7 +11844,7 @@
       <c r="AA361" s="13"/>
       <c r="AB361" s="13"/>
     </row>
-    <row r="362" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="13"/>
       <c r="B362" s="13"/>
       <c r="C362" s="13"/>
@@ -11861,7 +11874,7 @@
       <c r="AA362" s="13"/>
       <c r="AB362" s="13"/>
     </row>
-    <row r="363" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="13"/>
       <c r="B363" s="13"/>
       <c r="C363" s="13"/>
@@ -11891,7 +11904,7 @@
       <c r="AA363" s="13"/>
       <c r="AB363" s="13"/>
     </row>
-    <row r="364" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="13"/>
       <c r="B364" s="13"/>
       <c r="C364" s="13"/>
@@ -11921,7 +11934,7 @@
       <c r="AA364" s="13"/>
       <c r="AB364" s="13"/>
     </row>
-    <row r="365" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="13"/>
       <c r="B365" s="13"/>
       <c r="C365" s="13"/>
@@ -11951,7 +11964,7 @@
       <c r="AA365" s="13"/>
       <c r="AB365" s="13"/>
     </row>
-    <row r="366" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="13"/>
       <c r="B366" s="13"/>
       <c r="C366" s="13"/>
@@ -11981,7 +11994,7 @@
       <c r="AA366" s="13"/>
       <c r="AB366" s="13"/>
     </row>
-    <row r="367" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="13"/>
       <c r="B367" s="13"/>
       <c r="C367" s="13"/>
@@ -12011,7 +12024,7 @@
       <c r="AA367" s="13"/>
       <c r="AB367" s="13"/>
     </row>
-    <row r="368" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="13"/>
       <c r="B368" s="13"/>
       <c r="C368" s="13"/>
@@ -12041,7 +12054,7 @@
       <c r="AA368" s="13"/>
       <c r="AB368" s="13"/>
     </row>
-    <row r="369" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="13"/>
       <c r="B369" s="13"/>
       <c r="C369" s="13"/>
@@ -12071,7 +12084,7 @@
       <c r="AA369" s="13"/>
       <c r="AB369" s="13"/>
     </row>
-    <row r="370" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="13"/>
       <c r="B370" s="13"/>
       <c r="C370" s="13"/>
@@ -12101,7 +12114,7 @@
       <c r="AA370" s="13"/>
       <c r="AB370" s="13"/>
     </row>
-    <row r="371" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="13"/>
       <c r="B371" s="13"/>
       <c r="C371" s="13"/>
@@ -12131,7 +12144,7 @@
       <c r="AA371" s="13"/>
       <c r="AB371" s="13"/>
     </row>
-    <row r="372" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="13"/>
       <c r="B372" s="13"/>
       <c r="C372" s="13"/>
@@ -12161,7 +12174,7 @@
       <c r="AA372" s="13"/>
       <c r="AB372" s="13"/>
     </row>
-    <row r="373" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="13"/>
       <c r="B373" s="13"/>
       <c r="C373" s="13"/>
@@ -12191,7 +12204,7 @@
       <c r="AA373" s="13"/>
       <c r="AB373" s="13"/>
     </row>
-    <row r="374" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="13"/>
       <c r="B374" s="13"/>
       <c r="C374" s="13"/>
@@ -12221,7 +12234,7 @@
       <c r="AA374" s="13"/>
       <c r="AB374" s="13"/>
     </row>
-    <row r="375" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="13"/>
       <c r="B375" s="13"/>
       <c r="C375" s="13"/>
@@ -12251,7 +12264,7 @@
       <c r="AA375" s="13"/>
       <c r="AB375" s="13"/>
     </row>
-    <row r="376" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="13"/>
       <c r="B376" s="13"/>
       <c r="C376" s="13"/>
@@ -12281,7 +12294,7 @@
       <c r="AA376" s="13"/>
       <c r="AB376" s="13"/>
     </row>
-    <row r="377" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="13"/>
       <c r="B377" s="13"/>
       <c r="C377" s="13"/>
@@ -12311,7 +12324,7 @@
       <c r="AA377" s="13"/>
       <c r="AB377" s="13"/>
     </row>
-    <row r="378" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="13"/>
       <c r="B378" s="13"/>
       <c r="C378" s="13"/>
@@ -12341,7 +12354,7 @@
       <c r="AA378" s="13"/>
       <c r="AB378" s="13"/>
     </row>
-    <row r="379" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="13"/>
       <c r="B379" s="13"/>
       <c r="C379" s="13"/>
@@ -12371,7 +12384,7 @@
       <c r="AA379" s="13"/>
       <c r="AB379" s="13"/>
     </row>
-    <row r="380" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="13"/>
       <c r="B380" s="13"/>
       <c r="C380" s="13"/>
@@ -12401,7 +12414,7 @@
       <c r="AA380" s="13"/>
       <c r="AB380" s="13"/>
     </row>
-    <row r="381" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="13"/>
       <c r="B381" s="13"/>
       <c r="C381" s="13"/>
@@ -12431,7 +12444,7 @@
       <c r="AA381" s="13"/>
       <c r="AB381" s="13"/>
     </row>
-    <row r="382" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="13"/>
       <c r="B382" s="13"/>
       <c r="C382" s="13"/>
@@ -12461,7 +12474,7 @@
       <c r="AA382" s="13"/>
       <c r="AB382" s="13"/>
     </row>
-    <row r="383" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="13"/>
       <c r="B383" s="13"/>
       <c r="C383" s="13"/>
@@ -12491,7 +12504,7 @@
       <c r="AA383" s="13"/>
       <c r="AB383" s="13"/>
     </row>
-    <row r="384" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="13"/>
       <c r="B384" s="13"/>
       <c r="C384" s="13"/>
@@ -12521,7 +12534,7 @@
       <c r="AA384" s="13"/>
       <c r="AB384" s="13"/>
     </row>
-    <row r="385" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="13"/>
       <c r="B385" s="13"/>
       <c r="C385" s="13"/>
@@ -12551,7 +12564,7 @@
       <c r="AA385" s="13"/>
       <c r="AB385" s="13"/>
     </row>
-    <row r="386" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="13"/>
       <c r="B386" s="13"/>
       <c r="C386" s="13"/>
@@ -12581,7 +12594,7 @@
       <c r="AA386" s="13"/>
       <c r="AB386" s="13"/>
     </row>
-    <row r="387" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="13"/>
       <c r="B387" s="13"/>
       <c r="C387" s="13"/>
@@ -12611,7 +12624,7 @@
       <c r="AA387" s="13"/>
       <c r="AB387" s="13"/>
     </row>
-    <row r="388" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="13"/>
       <c r="B388" s="13"/>
       <c r="C388" s="13"/>
@@ -12641,7 +12654,7 @@
       <c r="AA388" s="13"/>
       <c r="AB388" s="13"/>
     </row>
-    <row r="389" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="13"/>
       <c r="B389" s="13"/>
       <c r="C389" s="13"/>
@@ -12671,7 +12684,7 @@
       <c r="AA389" s="13"/>
       <c r="AB389" s="13"/>
     </row>
-    <row r="390" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="13"/>
       <c r="B390" s="13"/>
       <c r="C390" s="13"/>
@@ -12701,7 +12714,7 @@
       <c r="AA390" s="13"/>
       <c r="AB390" s="13"/>
     </row>
-    <row r="391" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="13"/>
       <c r="B391" s="13"/>
       <c r="C391" s="13"/>
@@ -12731,7 +12744,7 @@
       <c r="AA391" s="13"/>
       <c r="AB391" s="13"/>
     </row>
-    <row r="392" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="13"/>
       <c r="B392" s="13"/>
       <c r="C392" s="13"/>
@@ -12761,7 +12774,7 @@
       <c r="AA392" s="13"/>
       <c r="AB392" s="13"/>
     </row>
-    <row r="393" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="13"/>
       <c r="B393" s="13"/>
       <c r="C393" s="13"/>
@@ -12791,7 +12804,7 @@
       <c r="AA393" s="13"/>
       <c r="AB393" s="13"/>
     </row>
-    <row r="394" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="13"/>
       <c r="B394" s="13"/>
       <c r="C394" s="13"/>
@@ -12821,7 +12834,7 @@
       <c r="AA394" s="13"/>
       <c r="AB394" s="13"/>
     </row>
-    <row r="395" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="13"/>
       <c r="B395" s="13"/>
       <c r="C395" s="13"/>
@@ -12851,7 +12864,7 @@
       <c r="AA395" s="13"/>
       <c r="AB395" s="13"/>
     </row>
-    <row r="396" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="13"/>
       <c r="B396" s="13"/>
       <c r="C396" s="13"/>
@@ -12881,7 +12894,7 @@
       <c r="AA396" s="13"/>
       <c r="AB396" s="13"/>
     </row>
-    <row r="397" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="13"/>
       <c r="B397" s="13"/>
       <c r="C397" s="13"/>
@@ -12911,7 +12924,7 @@
       <c r="AA397" s="13"/>
       <c r="AB397" s="13"/>
     </row>
-    <row r="398" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="13"/>
       <c r="B398" s="13"/>
       <c r="C398" s="13"/>
@@ -12941,7 +12954,7 @@
       <c r="AA398" s="13"/>
       <c r="AB398" s="13"/>
     </row>
-    <row r="399" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="13"/>
       <c r="B399" s="13"/>
       <c r="C399" s="13"/>
@@ -12971,7 +12984,7 @@
       <c r="AA399" s="13"/>
       <c r="AB399" s="13"/>
     </row>
-    <row r="400" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="13"/>
       <c r="B400" s="13"/>
       <c r="C400" s="13"/>
@@ -13001,7 +13014,7 @@
       <c r="AA400" s="13"/>
       <c r="AB400" s="13"/>
     </row>
-    <row r="401" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="13"/>
       <c r="B401" s="13"/>
       <c r="C401" s="13"/>
@@ -13031,7 +13044,7 @@
       <c r="AA401" s="13"/>
       <c r="AB401" s="13"/>
     </row>
-    <row r="402" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="13"/>
       <c r="B402" s="13"/>
       <c r="C402" s="13"/>
@@ -13061,7 +13074,7 @@
       <c r="AA402" s="13"/>
       <c r="AB402" s="13"/>
     </row>
-    <row r="403" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="13"/>
       <c r="B403" s="13"/>
       <c r="C403" s="13"/>
@@ -13091,7 +13104,7 @@
       <c r="AA403" s="13"/>
       <c r="AB403" s="13"/>
     </row>
-    <row r="404" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="13"/>
       <c r="B404" s="13"/>
       <c r="C404" s="13"/>
@@ -13121,7 +13134,7 @@
       <c r="AA404" s="13"/>
       <c r="AB404" s="13"/>
     </row>
-    <row r="405" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="13"/>
       <c r="B405" s="13"/>
       <c r="C405" s="13"/>
@@ -13151,7 +13164,7 @@
       <c r="AA405" s="13"/>
       <c r="AB405" s="13"/>
     </row>
-    <row r="406" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="13"/>
       <c r="B406" s="13"/>
       <c r="C406" s="13"/>
@@ -13181,7 +13194,7 @@
       <c r="AA406" s="13"/>
       <c r="AB406" s="13"/>
     </row>
-    <row r="407" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="13"/>
       <c r="B407" s="13"/>
       <c r="C407" s="13"/>
@@ -13211,7 +13224,7 @@
       <c r="AA407" s="13"/>
       <c r="AB407" s="13"/>
     </row>
-    <row r="408" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="13"/>
       <c r="B408" s="13"/>
       <c r="C408" s="13"/>
@@ -13241,7 +13254,7 @@
       <c r="AA408" s="13"/>
       <c r="AB408" s="13"/>
     </row>
-    <row r="409" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="13"/>
       <c r="B409" s="13"/>
       <c r="C409" s="13"/>
@@ -13271,7 +13284,7 @@
       <c r="AA409" s="13"/>
       <c r="AB409" s="13"/>
     </row>
-    <row r="410" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="13"/>
       <c r="B410" s="13"/>
       <c r="C410" s="13"/>
@@ -13301,7 +13314,7 @@
       <c r="AA410" s="13"/>
       <c r="AB410" s="13"/>
     </row>
-    <row r="411" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="13"/>
       <c r="B411" s="13"/>
       <c r="C411" s="13"/>
@@ -13331,7 +13344,7 @@
       <c r="AA411" s="13"/>
       <c r="AB411" s="13"/>
     </row>
-    <row r="412" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="13"/>
       <c r="B412" s="13"/>
       <c r="C412" s="13"/>
@@ -13361,7 +13374,7 @@
       <c r="AA412" s="13"/>
       <c r="AB412" s="13"/>
     </row>
-    <row r="413" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="13"/>
       <c r="B413" s="13"/>
       <c r="C413" s="13"/>
@@ -13391,7 +13404,7 @@
       <c r="AA413" s="13"/>
       <c r="AB413" s="13"/>
     </row>
-    <row r="414" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="13"/>
       <c r="B414" s="13"/>
       <c r="C414" s="13"/>
@@ -13421,7 +13434,7 @@
       <c r="AA414" s="13"/>
       <c r="AB414" s="13"/>
     </row>
-    <row r="415" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="13"/>
       <c r="B415" s="13"/>
       <c r="C415" s="13"/>
@@ -13451,7 +13464,7 @@
       <c r="AA415" s="13"/>
       <c r="AB415" s="13"/>
     </row>
-    <row r="416" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="13"/>
       <c r="B416" s="13"/>
       <c r="C416" s="13"/>
@@ -13481,7 +13494,7 @@
       <c r="AA416" s="13"/>
       <c r="AB416" s="13"/>
     </row>
-    <row r="417" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="13"/>
       <c r="B417" s="13"/>
       <c r="C417" s="13"/>
@@ -13511,7 +13524,7 @@
       <c r="AA417" s="13"/>
       <c r="AB417" s="13"/>
     </row>
-    <row r="418" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="13"/>
       <c r="B418" s="13"/>
       <c r="C418" s="13"/>
@@ -13541,7 +13554,7 @@
       <c r="AA418" s="13"/>
       <c r="AB418" s="13"/>
     </row>
-    <row r="419" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="13"/>
       <c r="B419" s="13"/>
       <c r="C419" s="13"/>
@@ -13571,7 +13584,7 @@
       <c r="AA419" s="13"/>
       <c r="AB419" s="13"/>
     </row>
-    <row r="420" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="13"/>
       <c r="B420" s="13"/>
       <c r="C420" s="13"/>
@@ -13601,7 +13614,7 @@
       <c r="AA420" s="13"/>
       <c r="AB420" s="13"/>
     </row>
-    <row r="421" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="13"/>
       <c r="B421" s="13"/>
       <c r="C421" s="13"/>
@@ -13631,7 +13644,7 @@
       <c r="AA421" s="13"/>
       <c r="AB421" s="13"/>
     </row>
-    <row r="422" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="13"/>
       <c r="B422" s="13"/>
       <c r="C422" s="13"/>
@@ -13661,7 +13674,7 @@
       <c r="AA422" s="13"/>
       <c r="AB422" s="13"/>
     </row>
-    <row r="423" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="13"/>
       <c r="B423" s="13"/>
       <c r="C423" s="13"/>
@@ -13691,7 +13704,7 @@
       <c r="AA423" s="13"/>
       <c r="AB423" s="13"/>
     </row>
-    <row r="424" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="13"/>
       <c r="B424" s="13"/>
       <c r="C424" s="13"/>
@@ -13721,7 +13734,7 @@
       <c r="AA424" s="13"/>
       <c r="AB424" s="13"/>
     </row>
-    <row r="425" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="13"/>
       <c r="B425" s="13"/>
       <c r="C425" s="13"/>
@@ -13751,7 +13764,7 @@
       <c r="AA425" s="13"/>
       <c r="AB425" s="13"/>
     </row>
-    <row r="426" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="13"/>
       <c r="B426" s="13"/>
       <c r="C426" s="13"/>
@@ -13781,7 +13794,7 @@
       <c r="AA426" s="13"/>
       <c r="AB426" s="13"/>
     </row>
-    <row r="427" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="13"/>
       <c r="B427" s="13"/>
       <c r="C427" s="13"/>
@@ -13811,7 +13824,7 @@
       <c r="AA427" s="13"/>
       <c r="AB427" s="13"/>
     </row>
-    <row r="428" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="13"/>
       <c r="B428" s="13"/>
       <c r="C428" s="13"/>
@@ -13841,7 +13854,7 @@
       <c r="AA428" s="13"/>
       <c r="AB428" s="13"/>
     </row>
-    <row r="429" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="13"/>
       <c r="B429" s="13"/>
       <c r="C429" s="13"/>
@@ -13871,7 +13884,7 @@
       <c r="AA429" s="13"/>
       <c r="AB429" s="13"/>
     </row>
-    <row r="430" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="13"/>
       <c r="B430" s="13"/>
       <c r="C430" s="13"/>
@@ -13901,7 +13914,7 @@
       <c r="AA430" s="13"/>
       <c r="AB430" s="13"/>
     </row>
-    <row r="431" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="13"/>
       <c r="B431" s="13"/>
       <c r="C431" s="13"/>
@@ -13931,7 +13944,7 @@
       <c r="AA431" s="13"/>
       <c r="AB431" s="13"/>
     </row>
-    <row r="432" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="13"/>
       <c r="B432" s="13"/>
       <c r="C432" s="13"/>
@@ -13961,7 +13974,7 @@
       <c r="AA432" s="13"/>
       <c r="AB432" s="13"/>
     </row>
-    <row r="433" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="13"/>
       <c r="B433" s="13"/>
       <c r="C433" s="13"/>
@@ -13991,7 +14004,7 @@
       <c r="AA433" s="13"/>
       <c r="AB433" s="13"/>
     </row>
-    <row r="434" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="13"/>
       <c r="B434" s="13"/>
       <c r="C434" s="13"/>
@@ -14021,7 +14034,7 @@
       <c r="AA434" s="13"/>
       <c r="AB434" s="13"/>
     </row>
-    <row r="435" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="13"/>
       <c r="B435" s="13"/>
       <c r="C435" s="13"/>
@@ -14051,7 +14064,7 @@
       <c r="AA435" s="13"/>
       <c r="AB435" s="13"/>
     </row>
-    <row r="436" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="13"/>
       <c r="B436" s="13"/>
       <c r="C436" s="13"/>
@@ -14081,7 +14094,7 @@
       <c r="AA436" s="13"/>
       <c r="AB436" s="13"/>
     </row>
-    <row r="437" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="13"/>
       <c r="B437" s="13"/>
       <c r="C437" s="13"/>
@@ -14111,7 +14124,7 @@
       <c r="AA437" s="13"/>
       <c r="AB437" s="13"/>
     </row>
-    <row r="438" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="13"/>
       <c r="B438" s="13"/>
       <c r="C438" s="13"/>
@@ -14141,7 +14154,7 @@
       <c r="AA438" s="13"/>
       <c r="AB438" s="13"/>
     </row>
-    <row r="439" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="13"/>
       <c r="B439" s="13"/>
       <c r="C439" s="13"/>
@@ -14171,7 +14184,7 @@
       <c r="AA439" s="13"/>
       <c r="AB439" s="13"/>
     </row>
-    <row r="440" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="13"/>
       <c r="B440" s="13"/>
       <c r="C440" s="13"/>
@@ -14201,7 +14214,7 @@
       <c r="AA440" s="13"/>
       <c r="AB440" s="13"/>
     </row>
-    <row r="441" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="13"/>
       <c r="B441" s="13"/>
       <c r="C441" s="13"/>
@@ -14231,7 +14244,7 @@
       <c r="AA441" s="13"/>
       <c r="AB441" s="13"/>
     </row>
-    <row r="442" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="13"/>
       <c r="B442" s="13"/>
       <c r="C442" s="13"/>
@@ -14261,7 +14274,7 @@
       <c r="AA442" s="13"/>
       <c r="AB442" s="13"/>
     </row>
-    <row r="443" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="13"/>
       <c r="B443" s="13"/>
       <c r="C443" s="13"/>
@@ -14291,7 +14304,7 @@
       <c r="AA443" s="13"/>
       <c r="AB443" s="13"/>
     </row>
-    <row r="444" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="13"/>
       <c r="B444" s="13"/>
       <c r="C444" s="13"/>
@@ -14321,7 +14334,7 @@
       <c r="AA444" s="13"/>
       <c r="AB444" s="13"/>
     </row>
-    <row r="445" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="13"/>
       <c r="B445" s="13"/>
       <c r="C445" s="13"/>
@@ -14351,7 +14364,7 @@
       <c r="AA445" s="13"/>
       <c r="AB445" s="13"/>
     </row>
-    <row r="446" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="13"/>
       <c r="B446" s="13"/>
       <c r="C446" s="13"/>
@@ -14381,7 +14394,7 @@
       <c r="AA446" s="13"/>
       <c r="AB446" s="13"/>
     </row>
-    <row r="447" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="13"/>
       <c r="B447" s="13"/>
       <c r="C447" s="13"/>
@@ -14411,7 +14424,7 @@
       <c r="AA447" s="13"/>
       <c r="AB447" s="13"/>
     </row>
-    <row r="448" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="13"/>
       <c r="B448" s="13"/>
       <c r="C448" s="13"/>
@@ -14441,7 +14454,7 @@
       <c r="AA448" s="13"/>
       <c r="AB448" s="13"/>
     </row>
-    <row r="449" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="13"/>
       <c r="B449" s="13"/>
       <c r="C449" s="13"/>
@@ -14471,7 +14484,7 @@
       <c r="AA449" s="13"/>
       <c r="AB449" s="13"/>
     </row>
-    <row r="450" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="13"/>
       <c r="B450" s="13"/>
       <c r="C450" s="13"/>
@@ -14501,7 +14514,7 @@
       <c r="AA450" s="13"/>
       <c r="AB450" s="13"/>
     </row>
-    <row r="451" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="13"/>
       <c r="B451" s="13"/>
       <c r="C451" s="13"/>
@@ -14531,7 +14544,7 @@
       <c r="AA451" s="13"/>
       <c r="AB451" s="13"/>
     </row>
-    <row r="452" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="13"/>
       <c r="B452" s="13"/>
       <c r="C452" s="13"/>
@@ -14561,7 +14574,7 @@
       <c r="AA452" s="13"/>
       <c r="AB452" s="13"/>
     </row>
-    <row r="453" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="13"/>
       <c r="B453" s="13"/>
       <c r="C453" s="13"/>
@@ -14591,7 +14604,7 @@
       <c r="AA453" s="13"/>
       <c r="AB453" s="13"/>
     </row>
-    <row r="454" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="13"/>
       <c r="B454" s="13"/>
       <c r="C454" s="13"/>
@@ -14621,7 +14634,7 @@
       <c r="AA454" s="13"/>
       <c r="AB454" s="13"/>
     </row>
-    <row r="455" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="13"/>
       <c r="B455" s="13"/>
       <c r="C455" s="13"/>
@@ -14651,7 +14664,7 @@
       <c r="AA455" s="13"/>
       <c r="AB455" s="13"/>
     </row>
-    <row r="456" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="13"/>
       <c r="B456" s="13"/>
       <c r="C456" s="13"/>
@@ -14681,7 +14694,7 @@
       <c r="AA456" s="13"/>
       <c r="AB456" s="13"/>
     </row>
-    <row r="457" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="13"/>
       <c r="B457" s="13"/>
       <c r="C457" s="13"/>
@@ -14711,7 +14724,7 @@
       <c r="AA457" s="13"/>
       <c r="AB457" s="13"/>
     </row>
-    <row r="458" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="13"/>
       <c r="B458" s="13"/>
       <c r="C458" s="13"/>
@@ -14741,7 +14754,7 @@
       <c r="AA458" s="13"/>
       <c r="AB458" s="13"/>
     </row>
-    <row r="459" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="13"/>
       <c r="B459" s="13"/>
       <c r="C459" s="13"/>
@@ -14771,7 +14784,7 @@
       <c r="AA459" s="13"/>
       <c r="AB459" s="13"/>
     </row>
-    <row r="460" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="13"/>
       <c r="B460" s="13"/>
       <c r="C460" s="13"/>
@@ -14801,7 +14814,7 @@
       <c r="AA460" s="13"/>
       <c r="AB460" s="13"/>
     </row>
-    <row r="461" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="13"/>
       <c r="B461" s="13"/>
       <c r="C461" s="13"/>
@@ -14831,7 +14844,7 @@
       <c r="AA461" s="13"/>
       <c r="AB461" s="13"/>
     </row>
-    <row r="462" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="13"/>
       <c r="B462" s="13"/>
       <c r="C462" s="13"/>
@@ -14861,7 +14874,7 @@
       <c r="AA462" s="13"/>
       <c r="AB462" s="13"/>
     </row>
-    <row r="463" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="13"/>
       <c r="B463" s="13"/>
       <c r="C463" s="13"/>
@@ -14891,7 +14904,7 @@
       <c r="AA463" s="13"/>
       <c r="AB463" s="13"/>
     </row>
-    <row r="464" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="13"/>
       <c r="B464" s="13"/>
       <c r="C464" s="13"/>
@@ -14921,7 +14934,7 @@
       <c r="AA464" s="13"/>
       <c r="AB464" s="13"/>
     </row>
-    <row r="465" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="13"/>
       <c r="B465" s="13"/>
       <c r="C465" s="13"/>
@@ -14951,7 +14964,7 @@
       <c r="AA465" s="13"/>
       <c r="AB465" s="13"/>
     </row>
-    <row r="466" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="13"/>
       <c r="B466" s="13"/>
       <c r="C466" s="13"/>
@@ -14981,7 +14994,7 @@
       <c r="AA466" s="13"/>
       <c r="AB466" s="13"/>
     </row>
-    <row r="467" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="13"/>
       <c r="B467" s="13"/>
       <c r="C467" s="13"/>
@@ -15011,7 +15024,7 @@
       <c r="AA467" s="13"/>
       <c r="AB467" s="13"/>
     </row>
-    <row r="468" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="13"/>
       <c r="B468" s="13"/>
       <c r="C468" s="13"/>
@@ -15041,7 +15054,7 @@
       <c r="AA468" s="13"/>
       <c r="AB468" s="13"/>
     </row>
-    <row r="469" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="13"/>
       <c r="B469" s="13"/>
       <c r="C469" s="13"/>
@@ -15071,7 +15084,7 @@
       <c r="AA469" s="13"/>
       <c r="AB469" s="13"/>
     </row>
-    <row r="470" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="13"/>
       <c r="B470" s="13"/>
       <c r="C470" s="13"/>
@@ -15101,7 +15114,7 @@
       <c r="AA470" s="13"/>
       <c r="AB470" s="13"/>
     </row>
-    <row r="471" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="13"/>
       <c r="B471" s="13"/>
       <c r="C471" s="13"/>
@@ -15131,7 +15144,7 @@
       <c r="AA471" s="13"/>
       <c r="AB471" s="13"/>
     </row>
-    <row r="472" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="13"/>
       <c r="B472" s="13"/>
       <c r="C472" s="13"/>
@@ -15161,7 +15174,7 @@
       <c r="AA472" s="13"/>
       <c r="AB472" s="13"/>
     </row>
-    <row r="473" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="13"/>
       <c r="B473" s="13"/>
       <c r="C473" s="13"/>
@@ -15191,7 +15204,7 @@
       <c r="AA473" s="13"/>
       <c r="AB473" s="13"/>
     </row>
-    <row r="474" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="13"/>
       <c r="B474" s="13"/>
       <c r="C474" s="13"/>
@@ -15221,7 +15234,7 @@
       <c r="AA474" s="13"/>
       <c r="AB474" s="13"/>
     </row>
-    <row r="475" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="13"/>
       <c r="B475" s="13"/>
       <c r="C475" s="13"/>
@@ -15251,7 +15264,7 @@
       <c r="AA475" s="13"/>
       <c r="AB475" s="13"/>
     </row>
-    <row r="476" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="13"/>
       <c r="B476" s="13"/>
       <c r="C476" s="13"/>
@@ -15281,7 +15294,7 @@
       <c r="AA476" s="13"/>
       <c r="AB476" s="13"/>
     </row>
-    <row r="477" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="13"/>
       <c r="B477" s="13"/>
       <c r="C477" s="13"/>
@@ -15311,7 +15324,7 @@
       <c r="AA477" s="13"/>
       <c r="AB477" s="13"/>
     </row>
-    <row r="478" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="13"/>
       <c r="B478" s="13"/>
       <c r="C478" s="13"/>
@@ -15341,7 +15354,7 @@
       <c r="AA478" s="13"/>
       <c r="AB478" s="13"/>
     </row>
-    <row r="479" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="13"/>
       <c r="B479" s="13"/>
       <c r="C479" s="13"/>
@@ -15371,7 +15384,7 @@
       <c r="AA479" s="13"/>
       <c r="AB479" s="13"/>
     </row>
-    <row r="480" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="13"/>
       <c r="B480" s="13"/>
       <c r="C480" s="13"/>
@@ -15401,7 +15414,7 @@
       <c r="AA480" s="13"/>
       <c r="AB480" s="13"/>
     </row>
-    <row r="481" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="13"/>
       <c r="B481" s="13"/>
       <c r="C481" s="13"/>
@@ -15431,7 +15444,7 @@
       <c r="AA481" s="13"/>
       <c r="AB481" s="13"/>
     </row>
-    <row r="482" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="13"/>
       <c r="B482" s="13"/>
       <c r="C482" s="13"/>
@@ -15461,7 +15474,7 @@
       <c r="AA482" s="13"/>
       <c r="AB482" s="13"/>
     </row>
-    <row r="483" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="13"/>
       <c r="B483" s="13"/>
       <c r="C483" s="13"/>
@@ -15491,7 +15504,7 @@
       <c r="AA483" s="13"/>
       <c r="AB483" s="13"/>
     </row>
-    <row r="484" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="13"/>
       <c r="B484" s="13"/>
       <c r="C484" s="13"/>
@@ -15521,7 +15534,7 @@
       <c r="AA484" s="13"/>
       <c r="AB484" s="13"/>
     </row>
-    <row r="485" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="13"/>
       <c r="B485" s="13"/>
       <c r="C485" s="13"/>
@@ -15551,7 +15564,7 @@
       <c r="AA485" s="13"/>
       <c r="AB485" s="13"/>
     </row>
-    <row r="486" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="13"/>
       <c r="B486" s="13"/>
       <c r="C486" s="13"/>
@@ -15581,7 +15594,7 @@
       <c r="AA486" s="13"/>
       <c r="AB486" s="13"/>
     </row>
-    <row r="487" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="13"/>
       <c r="B487" s="13"/>
       <c r="C487" s="13"/>
@@ -15611,7 +15624,7 @@
       <c r="AA487" s="13"/>
       <c r="AB487" s="13"/>
     </row>
-    <row r="488" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="13"/>
       <c r="B488" s="13"/>
       <c r="C488" s="13"/>
@@ -15641,7 +15654,7 @@
       <c r="AA488" s="13"/>
       <c r="AB488" s="13"/>
     </row>
-    <row r="489" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="13"/>
       <c r="B489" s="13"/>
       <c r="C489" s="13"/>
@@ -15671,7 +15684,7 @@
       <c r="AA489" s="13"/>
       <c r="AB489" s="13"/>
     </row>
-    <row r="490" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="13"/>
       <c r="B490" s="13"/>
       <c r="C490" s="13"/>
@@ -15701,7 +15714,7 @@
       <c r="AA490" s="13"/>
       <c r="AB490" s="13"/>
     </row>
-    <row r="491" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="13"/>
       <c r="B491" s="13"/>
       <c r="C491" s="13"/>
@@ -15731,7 +15744,7 @@
       <c r="AA491" s="13"/>
       <c r="AB491" s="13"/>
     </row>
-    <row r="492" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="13"/>
       <c r="B492" s="13"/>
       <c r="C492" s="13"/>
@@ -15761,7 +15774,7 @@
       <c r="AA492" s="13"/>
       <c r="AB492" s="13"/>
     </row>
-    <row r="493" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="13"/>
       <c r="B493" s="13"/>
       <c r="C493" s="13"/>
@@ -15791,7 +15804,7 @@
       <c r="AA493" s="13"/>
       <c r="AB493" s="13"/>
     </row>
-    <row r="494" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="13"/>
       <c r="B494" s="13"/>
       <c r="C494" s="13"/>
@@ -15821,7 +15834,7 @@
       <c r="AA494" s="13"/>
       <c r="AB494" s="13"/>
     </row>
-    <row r="495" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="13"/>
       <c r="B495" s="13"/>
       <c r="C495" s="13"/>
@@ -15851,7 +15864,7 @@
       <c r="AA495" s="13"/>
       <c r="AB495" s="13"/>
     </row>
-    <row r="496" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="13"/>
       <c r="B496" s="13"/>
       <c r="C496" s="13"/>
@@ -15881,7 +15894,7 @@
       <c r="AA496" s="13"/>
       <c r="AB496" s="13"/>
     </row>
-    <row r="497" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="13"/>
       <c r="B497" s="13"/>
       <c r="C497" s="13"/>
@@ -15911,7 +15924,7 @@
       <c r="AA497" s="13"/>
       <c r="AB497" s="13"/>
     </row>
-    <row r="498" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="13"/>
       <c r="B498" s="13"/>
       <c r="C498" s="13"/>
@@ -15941,7 +15954,7 @@
       <c r="AA498" s="13"/>
       <c r="AB498" s="13"/>
     </row>
-    <row r="499" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="13"/>
       <c r="B499" s="13"/>
       <c r="C499" s="13"/>
@@ -15971,7 +15984,7 @@
       <c r="AA499" s="13"/>
       <c r="AB499" s="13"/>
     </row>
-    <row r="500" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="13"/>
       <c r="B500" s="13"/>
       <c r="C500" s="13"/>
@@ -16001,7 +16014,7 @@
       <c r="AA500" s="13"/>
       <c r="AB500" s="13"/>
     </row>
-    <row r="501" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="13"/>
       <c r="B501" s="13"/>
       <c r="C501" s="13"/>
@@ -16031,7 +16044,7 @@
       <c r="AA501" s="13"/>
       <c r="AB501" s="13"/>
     </row>
-    <row r="502" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="13"/>
       <c r="B502" s="13"/>
       <c r="C502" s="13"/>
@@ -16061,7 +16074,7 @@
       <c r="AA502" s="13"/>
       <c r="AB502" s="13"/>
     </row>
-    <row r="503" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="13"/>
       <c r="B503" s="13"/>
       <c r="C503" s="13"/>
@@ -16091,7 +16104,7 @@
       <c r="AA503" s="13"/>
       <c r="AB503" s="13"/>
     </row>
-    <row r="504" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="13"/>
       <c r="B504" s="13"/>
       <c r="C504" s="13"/>
@@ -16121,7 +16134,7 @@
       <c r="AA504" s="13"/>
       <c r="AB504" s="13"/>
     </row>
-    <row r="505" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="13"/>
       <c r="B505" s="13"/>
       <c r="C505" s="13"/>
@@ -16151,7 +16164,7 @@
       <c r="AA505" s="13"/>
       <c r="AB505" s="13"/>
     </row>
-    <row r="506" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="13"/>
       <c r="B506" s="13"/>
       <c r="C506" s="13"/>
@@ -16181,7 +16194,7 @@
       <c r="AA506" s="13"/>
       <c r="AB506" s="13"/>
     </row>
-    <row r="507" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="13"/>
       <c r="B507" s="13"/>
       <c r="C507" s="13"/>
@@ -16211,7 +16224,7 @@
       <c r="AA507" s="13"/>
       <c r="AB507" s="13"/>
     </row>
-    <row r="508" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="13"/>
       <c r="B508" s="13"/>
       <c r="C508" s="13"/>
@@ -16241,7 +16254,7 @@
       <c r="AA508" s="13"/>
       <c r="AB508" s="13"/>
     </row>
-    <row r="509" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="13"/>
       <c r="B509" s="13"/>
       <c r="C509" s="13"/>
@@ -16271,7 +16284,7 @@
       <c r="AA509" s="13"/>
       <c r="AB509" s="13"/>
     </row>
-    <row r="510" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="13"/>
       <c r="B510" s="13"/>
       <c r="C510" s="13"/>
@@ -16301,7 +16314,7 @@
       <c r="AA510" s="13"/>
       <c r="AB510" s="13"/>
     </row>
-    <row r="511" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="13"/>
       <c r="B511" s="13"/>
       <c r="C511" s="13"/>
@@ -16331,7 +16344,7 @@
       <c r="AA511" s="13"/>
       <c r="AB511" s="13"/>
     </row>
-    <row r="512" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="13"/>
       <c r="B512" s="13"/>
       <c r="C512" s="13"/>
@@ -16361,7 +16374,7 @@
       <c r="AA512" s="13"/>
       <c r="AB512" s="13"/>
     </row>
-    <row r="513" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="13"/>
       <c r="B513" s="13"/>
       <c r="C513" s="13"/>
@@ -16391,7 +16404,7 @@
       <c r="AA513" s="13"/>
       <c r="AB513" s="13"/>
     </row>
-    <row r="514" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="13"/>
       <c r="B514" s="13"/>
       <c r="C514" s="13"/>
@@ -16421,7 +16434,7 @@
       <c r="AA514" s="13"/>
       <c r="AB514" s="13"/>
     </row>
-    <row r="515" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="13"/>
       <c r="B515" s="13"/>
       <c r="C515" s="13"/>
@@ -16451,7 +16464,7 @@
       <c r="AA515" s="13"/>
       <c r="AB515" s="13"/>
     </row>
-    <row r="516" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="13"/>
       <c r="B516" s="13"/>
       <c r="C516" s="13"/>
@@ -16481,7 +16494,7 @@
       <c r="AA516" s="13"/>
       <c r="AB516" s="13"/>
     </row>
-    <row r="517" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="13"/>
       <c r="B517" s="13"/>
       <c r="C517" s="13"/>
@@ -16511,7 +16524,7 @@
       <c r="AA517" s="13"/>
       <c r="AB517" s="13"/>
     </row>
-    <row r="518" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="13"/>
       <c r="B518" s="13"/>
       <c r="C518" s="13"/>
@@ -16541,7 +16554,7 @@
       <c r="AA518" s="13"/>
       <c r="AB518" s="13"/>
     </row>
-    <row r="519" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="13"/>
       <c r="B519" s="13"/>
       <c r="C519" s="13"/>
@@ -16571,7 +16584,7 @@
       <c r="AA519" s="13"/>
       <c r="AB519" s="13"/>
     </row>
-    <row r="520" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="13"/>
       <c r="B520" s="13"/>
       <c r="C520" s="13"/>
@@ -16601,7 +16614,7 @@
       <c r="AA520" s="13"/>
       <c r="AB520" s="13"/>
     </row>
-    <row r="521" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="13"/>
       <c r="B521" s="13"/>
       <c r="C521" s="13"/>
@@ -16631,7 +16644,7 @@
       <c r="AA521" s="13"/>
       <c r="AB521" s="13"/>
     </row>
-    <row r="522" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="13"/>
       <c r="B522" s="13"/>
       <c r="C522" s="13"/>
@@ -16661,7 +16674,7 @@
       <c r="AA522" s="13"/>
       <c r="AB522" s="13"/>
     </row>
-    <row r="523" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="13"/>
       <c r="B523" s="13"/>
       <c r="C523" s="13"/>
@@ -16691,7 +16704,7 @@
       <c r="AA523" s="13"/>
       <c r="AB523" s="13"/>
     </row>
-    <row r="524" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="13"/>
       <c r="B524" s="13"/>
       <c r="C524" s="13"/>
@@ -16721,7 +16734,7 @@
       <c r="AA524" s="13"/>
       <c r="AB524" s="13"/>
     </row>
-    <row r="525" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="13"/>
       <c r="B525" s="13"/>
       <c r="C525" s="13"/>
@@ -16751,7 +16764,7 @@
       <c r="AA525" s="13"/>
       <c r="AB525" s="13"/>
     </row>
-    <row r="526" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="13"/>
       <c r="B526" s="13"/>
       <c r="C526" s="13"/>
@@ -16781,7 +16794,7 @@
       <c r="AA526" s="13"/>
       <c r="AB526" s="13"/>
     </row>
-    <row r="527" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="13"/>
       <c r="B527" s="13"/>
       <c r="C527" s="13"/>
@@ -16811,7 +16824,7 @@
       <c r="AA527" s="13"/>
       <c r="AB527" s="13"/>
     </row>
-    <row r="528" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="13"/>
       <c r="B528" s="13"/>
       <c r="C528" s="13"/>
@@ -16841,7 +16854,7 @@
       <c r="AA528" s="13"/>
       <c r="AB528" s="13"/>
     </row>
-    <row r="529" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="13"/>
       <c r="B529" s="13"/>
       <c r="C529" s="13"/>
@@ -16871,7 +16884,7 @@
       <c r="AA529" s="13"/>
       <c r="AB529" s="13"/>
     </row>
-    <row r="530" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="13"/>
       <c r="B530" s="13"/>
       <c r="C530" s="13"/>
@@ -16901,7 +16914,7 @@
       <c r="AA530" s="13"/>
       <c r="AB530" s="13"/>
     </row>
-    <row r="531" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="13"/>
       <c r="B531" s="13"/>
       <c r="C531" s="13"/>
@@ -16931,7 +16944,7 @@
       <c r="AA531" s="13"/>
       <c r="AB531" s="13"/>
     </row>
-    <row r="532" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="13"/>
       <c r="B532" s="13"/>
       <c r="C532" s="13"/>
@@ -16961,7 +16974,7 @@
       <c r="AA532" s="13"/>
       <c r="AB532" s="13"/>
     </row>
-    <row r="533" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="13"/>
       <c r="B533" s="13"/>
       <c r="C533" s="13"/>
@@ -16991,7 +17004,7 @@
       <c r="AA533" s="13"/>
       <c r="AB533" s="13"/>
     </row>
-    <row r="534" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="13"/>
       <c r="B534" s="13"/>
       <c r="C534" s="13"/>
@@ -17021,7 +17034,7 @@
       <c r="AA534" s="13"/>
       <c r="AB534" s="13"/>
     </row>
-    <row r="535" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="13"/>
       <c r="B535" s="13"/>
       <c r="C535" s="13"/>
@@ -17051,7 +17064,7 @@
       <c r="AA535" s="13"/>
       <c r="AB535" s="13"/>
     </row>
-    <row r="536" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="13"/>
       <c r="B536" s="13"/>
       <c r="C536" s="13"/>
@@ -17081,7 +17094,7 @@
       <c r="AA536" s="13"/>
       <c r="AB536" s="13"/>
     </row>
-    <row r="537" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="13"/>
       <c r="B537" s="13"/>
       <c r="C537" s="13"/>
@@ -17111,7 +17124,7 @@
       <c r="AA537" s="13"/>
       <c r="AB537" s="13"/>
     </row>
-    <row r="538" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="13"/>
       <c r="B538" s="13"/>
       <c r="C538" s="13"/>
@@ -17141,7 +17154,7 @@
       <c r="AA538" s="13"/>
       <c r="AB538" s="13"/>
     </row>
-    <row r="539" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="13"/>
       <c r="B539" s="13"/>
       <c r="C539" s="13"/>
@@ -17171,7 +17184,7 @@
       <c r="AA539" s="13"/>
       <c r="AB539" s="13"/>
     </row>
-    <row r="540" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="13"/>
       <c r="B540" s="13"/>
       <c r="C540" s="13"/>
@@ -17201,7 +17214,7 @@
       <c r="AA540" s="13"/>
       <c r="AB540" s="13"/>
     </row>
-    <row r="541" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="13"/>
       <c r="B541" s="13"/>
       <c r="C541" s="13"/>
@@ -17231,7 +17244,7 @@
       <c r="AA541" s="13"/>
       <c r="AB541" s="13"/>
     </row>
-    <row r="542" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="13"/>
       <c r="B542" s="13"/>
       <c r="C542" s="13"/>
@@ -17261,7 +17274,7 @@
       <c r="AA542" s="13"/>
       <c r="AB542" s="13"/>
     </row>
-    <row r="543" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="13"/>
       <c r="B543" s="13"/>
       <c r="C543" s="13"/>
@@ -17291,7 +17304,7 @@
       <c r="AA543" s="13"/>
       <c r="AB543" s="13"/>
     </row>
-    <row r="544" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="13"/>
       <c r="B544" s="13"/>
       <c r="C544" s="13"/>
@@ -17321,7 +17334,7 @@
       <c r="AA544" s="13"/>
       <c r="AB544" s="13"/>
     </row>
-    <row r="545" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="13"/>
       <c r="B545" s="13"/>
       <c r="C545" s="13"/>
@@ -17351,7 +17364,7 @@
       <c r="AA545" s="13"/>
       <c r="AB545" s="13"/>
     </row>
-    <row r="546" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="13"/>
       <c r="B546" s="13"/>
       <c r="C546" s="13"/>
@@ -17381,7 +17394,7 @@
       <c r="AA546" s="13"/>
       <c r="AB546" s="13"/>
     </row>
-    <row r="547" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="13"/>
       <c r="B547" s="13"/>
       <c r="C547" s="13"/>
@@ -17411,7 +17424,7 @@
       <c r="AA547" s="13"/>
       <c r="AB547" s="13"/>
     </row>
-    <row r="548" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="13"/>
       <c r="B548" s="13"/>
       <c r="C548" s="13"/>
@@ -17441,7 +17454,7 @@
       <c r="AA548" s="13"/>
       <c r="AB548" s="13"/>
     </row>
-    <row r="549" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="13"/>
       <c r="B549" s="13"/>
       <c r="C549" s="13"/>
@@ -17471,7 +17484,7 @@
       <c r="AA549" s="13"/>
       <c r="AB549" s="13"/>
     </row>
-    <row r="550" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="13"/>
       <c r="B550" s="13"/>
       <c r="C550" s="13"/>
@@ -17501,7 +17514,7 @@
       <c r="AA550" s="13"/>
       <c r="AB550" s="13"/>
     </row>
-    <row r="551" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="13"/>
       <c r="B551" s="13"/>
       <c r="C551" s="13"/>
@@ -17531,7 +17544,7 @@
       <c r="AA551" s="13"/>
       <c r="AB551" s="13"/>
     </row>
-    <row r="552" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="13"/>
       <c r="B552" s="13"/>
       <c r="C552" s="13"/>
@@ -17561,7 +17574,7 @@
       <c r="AA552" s="13"/>
       <c r="AB552" s="13"/>
     </row>
-    <row r="553" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="13"/>
       <c r="B553" s="13"/>
       <c r="C553" s="13"/>
@@ -17591,7 +17604,7 @@
       <c r="AA553" s="13"/>
       <c r="AB553" s="13"/>
     </row>
-    <row r="554" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="13"/>
       <c r="B554" s="13"/>
       <c r="C554" s="13"/>
@@ -17621,7 +17634,7 @@
       <c r="AA554" s="13"/>
       <c r="AB554" s="13"/>
     </row>
-    <row r="555" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="13"/>
       <c r="B555" s="13"/>
       <c r="C555" s="13"/>
@@ -17651,7 +17664,7 @@
       <c r="AA555" s="13"/>
       <c r="AB555" s="13"/>
     </row>
-    <row r="556" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="13"/>
       <c r="B556" s="13"/>
       <c r="C556" s="13"/>
@@ -17681,7 +17694,7 @@
       <c r="AA556" s="13"/>
       <c r="AB556" s="13"/>
     </row>
-    <row r="557" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="13"/>
       <c r="B557" s="13"/>
       <c r="C557" s="13"/>
@@ -17711,7 +17724,7 @@
       <c r="AA557" s="13"/>
       <c r="AB557" s="13"/>
     </row>
-    <row r="558" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="13"/>
       <c r="B558" s="13"/>
       <c r="C558" s="13"/>
@@ -17741,7 +17754,7 @@
       <c r="AA558" s="13"/>
       <c r="AB558" s="13"/>
     </row>
-    <row r="559" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="13"/>
       <c r="B559" s="13"/>
       <c r="C559" s="13"/>
@@ -17771,7 +17784,7 @@
       <c r="AA559" s="13"/>
       <c r="AB559" s="13"/>
     </row>
-    <row r="560" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="13"/>
       <c r="B560" s="13"/>
       <c r="C560" s="13"/>
@@ -17801,7 +17814,7 @@
       <c r="AA560" s="13"/>
       <c r="AB560" s="13"/>
     </row>
-    <row r="561" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="13"/>
       <c r="B561" s="13"/>
       <c r="C561" s="13"/>
@@ -17831,7 +17844,7 @@
       <c r="AA561" s="13"/>
       <c r="AB561" s="13"/>
     </row>
-    <row r="562" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="13"/>
       <c r="B562" s="13"/>
       <c r="C562" s="13"/>
@@ -17861,7 +17874,7 @@
       <c r="AA562" s="13"/>
       <c r="AB562" s="13"/>
     </row>
-    <row r="563" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="13"/>
       <c r="B563" s="13"/>
       <c r="C563" s="13"/>
@@ -17891,7 +17904,7 @@
       <c r="AA563" s="13"/>
       <c r="AB563" s="13"/>
     </row>
-    <row r="564" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="13"/>
       <c r="B564" s="13"/>
       <c r="C564" s="13"/>
@@ -17921,7 +17934,7 @@
       <c r="AA564" s="13"/>
       <c r="AB564" s="13"/>
     </row>
-    <row r="565" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="13"/>
       <c r="B565" s="13"/>
       <c r="C565" s="13"/>
@@ -17951,7 +17964,7 @@
       <c r="AA565" s="13"/>
       <c r="AB565" s="13"/>
     </row>
-    <row r="566" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="13"/>
       <c r="B566" s="13"/>
       <c r="C566" s="13"/>
@@ -17981,7 +17994,7 @@
       <c r="AA566" s="13"/>
       <c r="AB566" s="13"/>
     </row>
-    <row r="567" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="13"/>
       <c r="B567" s="13"/>
       <c r="C567" s="13"/>
@@ -18011,7 +18024,7 @@
       <c r="AA567" s="13"/>
       <c r="AB567" s="13"/>
     </row>
-    <row r="568" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="13"/>
       <c r="B568" s="13"/>
       <c r="C568" s="13"/>
@@ -18041,7 +18054,7 @@
       <c r="AA568" s="13"/>
       <c r="AB568" s="13"/>
     </row>
-    <row r="569" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="13"/>
       <c r="B569" s="13"/>
       <c r="C569" s="13"/>
@@ -18071,7 +18084,7 @@
       <c r="AA569" s="13"/>
       <c r="AB569" s="13"/>
     </row>
-    <row r="570" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="13"/>
       <c r="B570" s="13"/>
       <c r="C570" s="13"/>
@@ -18101,7 +18114,7 @@
       <c r="AA570" s="13"/>
       <c r="AB570" s="13"/>
     </row>
-    <row r="571" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="13"/>
       <c r="B571" s="13"/>
       <c r="C571" s="13"/>
@@ -18131,7 +18144,7 @@
       <c r="AA571" s="13"/>
       <c r="AB571" s="13"/>
     </row>
-    <row r="572" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="13"/>
       <c r="B572" s="13"/>
       <c r="C572" s="13"/>
@@ -18161,7 +18174,7 @@
       <c r="AA572" s="13"/>
       <c r="AB572" s="13"/>
     </row>
-    <row r="573" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="13"/>
       <c r="B573" s="13"/>
       <c r="C573" s="13"/>
@@ -18191,7 +18204,7 @@
       <c r="AA573" s="13"/>
       <c r="AB573" s="13"/>
     </row>
-    <row r="574" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="13"/>
       <c r="B574" s="13"/>
       <c r="C574" s="13"/>
@@ -18221,7 +18234,7 @@
       <c r="AA574" s="13"/>
       <c r="AB574" s="13"/>
     </row>
-    <row r="575" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="13"/>
       <c r="B575" s="13"/>
       <c r="C575" s="13"/>
@@ -18251,7 +18264,7 @@
       <c r="AA575" s="13"/>
       <c r="AB575" s="13"/>
     </row>
-    <row r="576" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="13"/>
       <c r="B576" s="13"/>
       <c r="C576" s="13"/>
@@ -18281,7 +18294,7 @@
       <c r="AA576" s="13"/>
       <c r="AB576" s="13"/>
     </row>
-    <row r="577" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="13"/>
       <c r="B577" s="13"/>
       <c r="C577" s="13"/>
@@ -18311,7 +18324,7 @@
       <c r="AA577" s="13"/>
       <c r="AB577" s="13"/>
     </row>
-    <row r="578" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="13"/>
       <c r="B578" s="13"/>
       <c r="C578" s="13"/>
@@ -18341,7 +18354,7 @@
       <c r="AA578" s="13"/>
       <c r="AB578" s="13"/>
     </row>
-    <row r="579" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="13"/>
       <c r="B579" s="13"/>
       <c r="C579" s="13"/>
@@ -18371,7 +18384,7 @@
       <c r="AA579" s="13"/>
       <c r="AB579" s="13"/>
     </row>
-    <row r="580" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="13"/>
       <c r="B580" s="13"/>
       <c r="C580" s="13"/>
@@ -18401,7 +18414,7 @@
       <c r="AA580" s="13"/>
       <c r="AB580" s="13"/>
     </row>
-    <row r="581" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="13"/>
       <c r="B581" s="13"/>
       <c r="C581" s="13"/>
@@ -18431,7 +18444,7 @@
       <c r="AA581" s="13"/>
       <c r="AB581" s="13"/>
     </row>
-    <row r="582" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="13"/>
       <c r="B582" s="13"/>
       <c r="C582" s="13"/>
@@ -18461,7 +18474,7 @@
       <c r="AA582" s="13"/>
       <c r="AB582" s="13"/>
     </row>
-    <row r="583" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="13"/>
       <c r="B583" s="13"/>
       <c r="C583" s="13"/>
@@ -18491,7 +18504,7 @@
       <c r="AA583" s="13"/>
       <c r="AB583" s="13"/>
     </row>
-    <row r="584" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="13"/>
       <c r="B584" s="13"/>
       <c r="C584" s="13"/>
@@ -18521,7 +18534,7 @@
       <c r="AA584" s="13"/>
       <c r="AB584" s="13"/>
     </row>
-    <row r="585" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="13"/>
       <c r="B585" s="13"/>
       <c r="C585" s="13"/>
@@ -18551,7 +18564,7 @@
       <c r="AA585" s="13"/>
       <c r="AB585" s="13"/>
     </row>
-    <row r="586" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="13"/>
       <c r="B586" s="13"/>
       <c r="C586" s="13"/>
@@ -18581,7 +18594,7 @@
       <c r="AA586" s="13"/>
       <c r="AB586" s="13"/>
     </row>
-    <row r="587" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="13"/>
       <c r="B587" s="13"/>
       <c r="C587" s="13"/>
@@ -18611,7 +18624,7 @@
       <c r="AA587" s="13"/>
       <c r="AB587" s="13"/>
     </row>
-    <row r="588" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="13"/>
       <c r="B588" s="13"/>
       <c r="C588" s="13"/>
@@ -18641,7 +18654,7 @@
       <c r="AA588" s="13"/>
       <c r="AB588" s="13"/>
     </row>
-    <row r="589" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="13"/>
       <c r="B589" s="13"/>
       <c r="C589" s="13"/>
@@ -18671,7 +18684,7 @@
       <c r="AA589" s="13"/>
       <c r="AB589" s="13"/>
     </row>
-    <row r="590" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="13"/>
       <c r="B590" s="13"/>
       <c r="C590" s="13"/>
@@ -18701,7 +18714,7 @@
       <c r="AA590" s="13"/>
       <c r="AB590" s="13"/>
     </row>
-    <row r="591" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="13"/>
       <c r="B591" s="13"/>
       <c r="C591" s="13"/>
@@ -18731,7 +18744,7 @@
       <c r="AA591" s="13"/>
       <c r="AB591" s="13"/>
     </row>
-    <row r="592" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="13"/>
       <c r="B592" s="13"/>
       <c r="C592" s="13"/>
@@ -18761,7 +18774,7 @@
       <c r="AA592" s="13"/>
       <c r="AB592" s="13"/>
     </row>
-    <row r="593" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="13"/>
       <c r="B593" s="13"/>
       <c r="C593" s="13"/>
@@ -18791,7 +18804,7 @@
       <c r="AA593" s="13"/>
       <c r="AB593" s="13"/>
     </row>
-    <row r="594" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="13"/>
       <c r="B594" s="13"/>
       <c r="C594" s="13"/>
@@ -18821,7 +18834,7 @@
       <c r="AA594" s="13"/>
       <c r="AB594" s="13"/>
     </row>
-    <row r="595" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="13"/>
       <c r="B595" s="13"/>
       <c r="C595" s="13"/>
@@ -18851,7 +18864,7 @@
       <c r="AA595" s="13"/>
       <c r="AB595" s="13"/>
     </row>
-    <row r="596" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="13"/>
       <c r="B596" s="13"/>
       <c r="C596" s="13"/>
@@ -18881,7 +18894,7 @@
       <c r="AA596" s="13"/>
       <c r="AB596" s="13"/>
     </row>
-    <row r="597" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="13"/>
       <c r="B597" s="13"/>
       <c r="C597" s="13"/>
@@ -18911,7 +18924,7 @@
       <c r="AA597" s="13"/>
       <c r="AB597" s="13"/>
     </row>
-    <row r="598" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="13"/>
       <c r="B598" s="13"/>
       <c r="C598" s="13"/>
@@ -18941,7 +18954,7 @@
       <c r="AA598" s="13"/>
       <c r="AB598" s="13"/>
     </row>
-    <row r="599" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="13"/>
       <c r="B599" s="13"/>
       <c r="C599" s="13"/>
@@ -18971,7 +18984,7 @@
       <c r="AA599" s="13"/>
       <c r="AB599" s="13"/>
     </row>
-    <row r="600" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="13"/>
       <c r="B600" s="13"/>
       <c r="C600" s="13"/>
@@ -19001,7 +19014,7 @@
       <c r="AA600" s="13"/>
       <c r="AB600" s="13"/>
     </row>
-    <row r="601" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="13"/>
       <c r="B601" s="13"/>
       <c r="C601" s="13"/>
@@ -19031,7 +19044,7 @@
       <c r="AA601" s="13"/>
       <c r="AB601" s="13"/>
     </row>
-    <row r="602" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="13"/>
       <c r="B602" s="13"/>
       <c r="C602" s="13"/>
@@ -19061,7 +19074,7 @@
       <c r="AA602" s="13"/>
       <c r="AB602" s="13"/>
     </row>
-    <row r="603" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="13"/>
       <c r="B603" s="13"/>
       <c r="C603" s="13"/>
@@ -19091,7 +19104,7 @@
       <c r="AA603" s="13"/>
       <c r="AB603" s="13"/>
     </row>
-    <row r="604" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="13"/>
       <c r="B604" s="13"/>
       <c r="C604" s="13"/>
@@ -19121,7 +19134,7 @@
       <c r="AA604" s="13"/>
       <c r="AB604" s="13"/>
     </row>
-    <row r="605" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="13"/>
       <c r="B605" s="13"/>
       <c r="C605" s="13"/>
@@ -19151,7 +19164,7 @@
       <c r="AA605" s="13"/>
       <c r="AB605" s="13"/>
     </row>
-    <row r="606" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="13"/>
       <c r="B606" s="13"/>
       <c r="C606" s="13"/>
@@ -19181,7 +19194,7 @@
       <c r="AA606" s="13"/>
       <c r="AB606" s="13"/>
     </row>
-    <row r="607" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="13"/>
       <c r="B607" s="13"/>
       <c r="C607" s="13"/>
@@ -19211,7 +19224,7 @@
       <c r="AA607" s="13"/>
       <c r="AB607" s="13"/>
     </row>
-    <row r="608" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="13"/>
       <c r="B608" s="13"/>
       <c r="C608" s="13"/>
@@ -19241,7 +19254,7 @@
       <c r="AA608" s="13"/>
       <c r="AB608" s="13"/>
     </row>
-    <row r="609" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="13"/>
       <c r="B609" s="13"/>
       <c r="C609" s="13"/>
@@ -19271,7 +19284,7 @@
       <c r="AA609" s="13"/>
       <c r="AB609" s="13"/>
     </row>
-    <row r="610" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="13"/>
       <c r="B610" s="13"/>
       <c r="C610" s="13"/>
@@ -19301,7 +19314,7 @@
       <c r="AA610" s="13"/>
       <c r="AB610" s="13"/>
     </row>
-    <row r="611" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="13"/>
       <c r="B611" s="13"/>
       <c r="C611" s="13"/>
@@ -19331,7 +19344,7 @@
       <c r="AA611" s="13"/>
       <c r="AB611" s="13"/>
     </row>
-    <row r="612" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="13"/>
       <c r="B612" s="13"/>
       <c r="C612" s="13"/>
@@ -19361,7 +19374,7 @@
       <c r="AA612" s="13"/>
       <c r="AB612" s="13"/>
     </row>
-    <row r="613" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="13"/>
       <c r="B613" s="13"/>
       <c r="C613" s="13"/>
@@ -19391,7 +19404,7 @@
       <c r="AA613" s="13"/>
       <c r="AB613" s="13"/>
     </row>
-    <row r="614" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="13"/>
       <c r="B614" s="13"/>
       <c r="C614" s="13"/>
@@ -19421,7 +19434,7 @@
       <c r="AA614" s="13"/>
       <c r="AB614" s="13"/>
     </row>
-    <row r="615" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="13"/>
       <c r="B615" s="13"/>
       <c r="C615" s="13"/>
@@ -19451,7 +19464,7 @@
       <c r="AA615" s="13"/>
       <c r="AB615" s="13"/>
     </row>
-    <row r="616" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="13"/>
       <c r="B616" s="13"/>
       <c r="C616" s="13"/>
@@ -19481,7 +19494,7 @@
       <c r="AA616" s="13"/>
       <c r="AB616" s="13"/>
     </row>
-    <row r="617" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="13"/>
       <c r="B617" s="13"/>
       <c r="C617" s="13"/>
@@ -19511,7 +19524,7 @@
       <c r="AA617" s="13"/>
       <c r="AB617" s="13"/>
     </row>
-    <row r="618" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="13"/>
       <c r="B618" s="13"/>
       <c r="C618" s="13"/>
@@ -19541,7 +19554,7 @@
       <c r="AA618" s="13"/>
       <c r="AB618" s="13"/>
     </row>
-    <row r="619" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="13"/>
       <c r="B619" s="13"/>
       <c r="C619" s="13"/>
@@ -19571,7 +19584,7 @@
       <c r="AA619" s="13"/>
       <c r="AB619" s="13"/>
     </row>
-    <row r="620" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="13"/>
       <c r="B620" s="13"/>
       <c r="C620" s="13"/>
@@ -19601,7 +19614,7 @@
       <c r="AA620" s="13"/>
       <c r="AB620" s="13"/>
     </row>
-    <row r="621" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="13"/>
       <c r="B621" s="13"/>
       <c r="C621" s="13"/>
@@ -19631,7 +19644,7 @@
       <c r="AA621" s="13"/>
       <c r="AB621" s="13"/>
     </row>
-    <row r="622" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="13"/>
       <c r="B622" s="13"/>
       <c r="C622" s="13"/>
@@ -19661,7 +19674,7 @@
       <c r="AA622" s="13"/>
       <c r="AB622" s="13"/>
     </row>
-    <row r="623" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="13"/>
       <c r="B623" s="13"/>
       <c r="C623" s="13"/>
@@ -19691,7 +19704,7 @@
       <c r="AA623" s="13"/>
       <c r="AB623" s="13"/>
     </row>
-    <row r="624" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="13"/>
       <c r="B624" s="13"/>
       <c r="C624" s="13"/>
@@ -19721,7 +19734,7 @@
       <c r="AA624" s="13"/>
       <c r="AB624" s="13"/>
     </row>
-    <row r="625" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="13"/>
       <c r="B625" s="13"/>
       <c r="C625" s="13"/>
@@ -19751,7 +19764,7 @@
       <c r="AA625" s="13"/>
       <c r="AB625" s="13"/>
     </row>
-    <row r="626" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="13"/>
       <c r="B626" s="13"/>
       <c r="C626" s="13"/>
@@ -19781,7 +19794,7 @@
       <c r="AA626" s="13"/>
       <c r="AB626" s="13"/>
     </row>
-    <row r="627" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="13"/>
       <c r="B627" s="13"/>
       <c r="C627" s="13"/>
@@ -19811,7 +19824,7 @@
       <c r="AA627" s="13"/>
       <c r="AB627" s="13"/>
     </row>
-    <row r="628" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="13"/>
       <c r="B628" s="13"/>
       <c r="C628" s="13"/>
@@ -19841,7 +19854,7 @@
       <c r="AA628" s="13"/>
       <c r="AB628" s="13"/>
     </row>
-    <row r="629" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="13"/>
       <c r="B629" s="13"/>
       <c r="C629" s="13"/>
@@ -19871,7 +19884,7 @@
       <c r="AA629" s="13"/>
       <c r="AB629" s="13"/>
     </row>
-    <row r="630" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="13"/>
       <c r="B630" s="13"/>
       <c r="C630" s="13"/>
@@ -19901,7 +19914,7 @@
       <c r="AA630" s="13"/>
       <c r="AB630" s="13"/>
     </row>
-    <row r="631" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="13"/>
       <c r="B631" s="13"/>
       <c r="C631" s="13"/>
@@ -19931,7 +19944,7 @@
       <c r="AA631" s="13"/>
       <c r="AB631" s="13"/>
     </row>
-    <row r="632" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="13"/>
       <c r="B632" s="13"/>
       <c r="C632" s="13"/>
@@ -19961,7 +19974,7 @@
       <c r="AA632" s="13"/>
       <c r="AB632" s="13"/>
     </row>
-    <row r="633" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="13"/>
       <c r="B633" s="13"/>
       <c r="C633" s="13"/>
@@ -19991,7 +20004,7 @@
       <c r="AA633" s="13"/>
       <c r="AB633" s="13"/>
     </row>
-    <row r="634" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="13"/>
       <c r="B634" s="13"/>
       <c r="C634" s="13"/>
@@ -20021,7 +20034,7 @@
       <c r="AA634" s="13"/>
       <c r="AB634" s="13"/>
     </row>
-    <row r="635" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="13"/>
       <c r="B635" s="13"/>
       <c r="C635" s="13"/>
@@ -20051,7 +20064,7 @@
       <c r="AA635" s="13"/>
       <c r="AB635" s="13"/>
     </row>
-    <row r="636" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="13"/>
       <c r="B636" s="13"/>
       <c r="C636" s="13"/>
@@ -20081,7 +20094,7 @@
       <c r="AA636" s="13"/>
       <c r="AB636" s="13"/>
     </row>
-    <row r="637" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="13"/>
       <c r="B637" s="13"/>
       <c r="C637" s="13"/>
@@ -20111,7 +20124,7 @@
       <c r="AA637" s="13"/>
       <c r="AB637" s="13"/>
     </row>
-    <row r="638" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="13"/>
       <c r="B638" s="13"/>
       <c r="C638" s="13"/>
@@ -20141,7 +20154,7 @@
       <c r="AA638" s="13"/>
       <c r="AB638" s="13"/>
     </row>
-    <row r="639" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="13"/>
       <c r="B639" s="13"/>
       <c r="C639" s="13"/>
@@ -20171,7 +20184,7 @@
       <c r="AA639" s="13"/>
       <c r="AB639" s="13"/>
     </row>
-    <row r="640" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="13"/>
       <c r="B640" s="13"/>
       <c r="C640" s="13"/>
@@ -20201,7 +20214,7 @@
       <c r="AA640" s="13"/>
       <c r="AB640" s="13"/>
     </row>
-    <row r="641" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="13"/>
       <c r="B641" s="13"/>
       <c r="C641" s="13"/>
@@ -20231,7 +20244,7 @@
       <c r="AA641" s="13"/>
       <c r="AB641" s="13"/>
     </row>
-    <row r="642" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="13"/>
       <c r="B642" s="13"/>
       <c r="C642" s="13"/>
@@ -20261,7 +20274,7 @@
       <c r="AA642" s="13"/>
       <c r="AB642" s="13"/>
     </row>
-    <row r="643" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="13"/>
       <c r="B643" s="13"/>
       <c r="C643" s="13"/>
@@ -20291,7 +20304,7 @@
       <c r="AA643" s="13"/>
       <c r="AB643" s="13"/>
     </row>
-    <row r="644" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="13"/>
       <c r="B644" s="13"/>
       <c r="C644" s="13"/>
@@ -20321,7 +20334,7 @@
       <c r="AA644" s="13"/>
       <c r="AB644" s="13"/>
     </row>
-    <row r="645" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="13"/>
       <c r="B645" s="13"/>
       <c r="C645" s="13"/>
@@ -20351,7 +20364,7 @@
       <c r="AA645" s="13"/>
       <c r="AB645" s="13"/>
     </row>
-    <row r="646" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="13"/>
       <c r="B646" s="13"/>
       <c r="C646" s="13"/>
@@ -20381,7 +20394,7 @@
       <c r="AA646" s="13"/>
       <c r="AB646" s="13"/>
     </row>
-    <row r="647" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="13"/>
       <c r="B647" s="13"/>
       <c r="C647" s="13"/>
@@ -20411,7 +20424,7 @@
       <c r="AA647" s="13"/>
       <c r="AB647" s="13"/>
     </row>
-    <row r="648" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="13"/>
       <c r="B648" s="13"/>
       <c r="C648" s="13"/>
@@ -20441,7 +20454,7 @@
       <c r="AA648" s="13"/>
       <c r="AB648" s="13"/>
     </row>
-    <row r="649" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="13"/>
       <c r="B649" s="13"/>
       <c r="C649" s="13"/>
@@ -20471,7 +20484,7 @@
       <c r="AA649" s="13"/>
       <c r="AB649" s="13"/>
     </row>
-    <row r="650" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="13"/>
       <c r="B650" s="13"/>
       <c r="C650" s="13"/>
@@ -20501,7 +20514,7 @@
       <c r="AA650" s="13"/>
       <c r="AB650" s="13"/>
     </row>
-    <row r="651" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="13"/>
       <c r="B651" s="13"/>
       <c r="C651" s="13"/>
@@ -20531,7 +20544,7 @@
       <c r="AA651" s="13"/>
       <c r="AB651" s="13"/>
     </row>
-    <row r="652" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="13"/>
       <c r="B652" s="13"/>
       <c r="C652" s="13"/>
@@ -20561,7 +20574,7 @@
       <c r="AA652" s="13"/>
       <c r="AB652" s="13"/>
     </row>
-    <row r="653" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="13"/>
       <c r="B653" s="13"/>
       <c r="C653" s="13"/>
@@ -20591,7 +20604,7 @@
       <c r="AA653" s="13"/>
       <c r="AB653" s="13"/>
     </row>
-    <row r="654" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="13"/>
       <c r="B654" s="13"/>
       <c r="C654" s="13"/>
@@ -20621,7 +20634,7 @@
       <c r="AA654" s="13"/>
       <c r="AB654" s="13"/>
     </row>
-    <row r="655" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="13"/>
       <c r="B655" s="13"/>
       <c r="C655" s="13"/>
@@ -20651,7 +20664,7 @@
       <c r="AA655" s="13"/>
       <c r="AB655" s="13"/>
     </row>
-    <row r="656" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="13"/>
       <c r="B656" s="13"/>
       <c r="C656" s="13"/>
@@ -20681,7 +20694,7 @@
       <c r="AA656" s="13"/>
       <c r="AB656" s="13"/>
     </row>
-    <row r="657" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="13"/>
       <c r="B657" s="13"/>
       <c r="C657" s="13"/>
@@ -20711,7 +20724,7 @@
       <c r="AA657" s="13"/>
       <c r="AB657" s="13"/>
     </row>
-    <row r="658" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="13"/>
       <c r="B658" s="13"/>
       <c r="C658" s="13"/>
@@ -20741,7 +20754,7 @@
       <c r="AA658" s="13"/>
       <c r="AB658" s="13"/>
     </row>
-    <row r="659" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="13"/>
       <c r="B659" s="13"/>
       <c r="C659" s="13"/>
@@ -20771,7 +20784,7 @@
       <c r="AA659" s="13"/>
       <c r="AB659" s="13"/>
     </row>
-    <row r="660" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="13"/>
       <c r="B660" s="13"/>
       <c r="C660" s="13"/>
@@ -20801,7 +20814,7 @@
       <c r="AA660" s="13"/>
       <c r="AB660" s="13"/>
     </row>
-    <row r="661" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="13"/>
       <c r="B661" s="13"/>
       <c r="C661" s="13"/>
@@ -20831,7 +20844,7 @@
       <c r="AA661" s="13"/>
       <c r="AB661" s="13"/>
     </row>
-    <row r="662" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="13"/>
       <c r="B662" s="13"/>
       <c r="C662" s="13"/>
@@ -20861,7 +20874,7 @@
       <c r="AA662" s="13"/>
       <c r="AB662" s="13"/>
     </row>
-    <row r="663" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="13"/>
       <c r="B663" s="13"/>
       <c r="C663" s="13"/>
@@ -20891,7 +20904,7 @@
       <c r="AA663" s="13"/>
       <c r="AB663" s="13"/>
     </row>
-    <row r="664" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="13"/>
       <c r="B664" s="13"/>
       <c r="C664" s="13"/>
@@ -20921,7 +20934,7 @@
       <c r="AA664" s="13"/>
       <c r="AB664" s="13"/>
     </row>
-    <row r="665" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="13"/>
       <c r="B665" s="13"/>
       <c r="C665" s="13"/>
@@ -20951,7 +20964,7 @@
       <c r="AA665" s="13"/>
       <c r="AB665" s="13"/>
     </row>
-    <row r="666" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="13"/>
       <c r="B666" s="13"/>
       <c r="C666" s="13"/>
@@ -20981,7 +20994,7 @@
       <c r="AA666" s="13"/>
       <c r="AB666" s="13"/>
     </row>
-    <row r="667" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="13"/>
       <c r="B667" s="13"/>
       <c r="C667" s="13"/>
@@ -21011,7 +21024,7 @@
       <c r="AA667" s="13"/>
       <c r="AB667" s="13"/>
     </row>
-    <row r="668" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="13"/>
       <c r="B668" s="13"/>
       <c r="C668" s="13"/>
@@ -21041,7 +21054,7 @@
       <c r="AA668" s="13"/>
       <c r="AB668" s="13"/>
     </row>
-    <row r="669" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="13"/>
       <c r="B669" s="13"/>
       <c r="C669" s="13"/>
@@ -21071,7 +21084,7 @@
       <c r="AA669" s="13"/>
       <c r="AB669" s="13"/>
     </row>
-    <row r="670" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="13"/>
       <c r="B670" s="13"/>
       <c r="C670" s="13"/>
@@ -21101,7 +21114,7 @@
       <c r="AA670" s="13"/>
       <c r="AB670" s="13"/>
     </row>
-    <row r="671" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="13"/>
       <c r="B671" s="13"/>
       <c r="C671" s="13"/>
@@ -21131,7 +21144,7 @@
       <c r="AA671" s="13"/>
       <c r="AB671" s="13"/>
     </row>
-    <row r="672" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="13"/>
       <c r="B672" s="13"/>
       <c r="C672" s="13"/>
@@ -21161,7 +21174,7 @@
       <c r="AA672" s="13"/>
       <c r="AB672" s="13"/>
     </row>
-    <row r="673" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="13"/>
       <c r="B673" s="13"/>
       <c r="C673" s="13"/>
@@ -21191,7 +21204,7 @@
       <c r="AA673" s="13"/>
       <c r="AB673" s="13"/>
     </row>
-    <row r="674" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="13"/>
       <c r="B674" s="13"/>
       <c r="C674" s="13"/>
@@ -21221,7 +21234,7 @@
       <c r="AA674" s="13"/>
       <c r="AB674" s="13"/>
     </row>
-    <row r="675" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="13"/>
       <c r="B675" s="13"/>
       <c r="C675" s="13"/>
@@ -21251,7 +21264,7 @@
       <c r="AA675" s="13"/>
       <c r="AB675" s="13"/>
     </row>
-    <row r="676" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="13"/>
       <c r="B676" s="13"/>
       <c r="C676" s="13"/>
@@ -21281,7 +21294,7 @@
       <c r="AA676" s="13"/>
       <c r="AB676" s="13"/>
     </row>
-    <row r="677" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="13"/>
       <c r="B677" s="13"/>
       <c r="C677" s="13"/>
@@ -21311,7 +21324,7 @@
       <c r="AA677" s="13"/>
       <c r="AB677" s="13"/>
     </row>
-    <row r="678" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="13"/>
       <c r="B678" s="13"/>
       <c r="C678" s="13"/>
@@ -21341,7 +21354,7 @@
       <c r="AA678" s="13"/>
       <c r="AB678" s="13"/>
     </row>
-    <row r="679" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="13"/>
       <c r="B679" s="13"/>
       <c r="C679" s="13"/>
@@ -21371,7 +21384,7 @@
       <c r="AA679" s="13"/>
       <c r="AB679" s="13"/>
     </row>
-    <row r="680" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="13"/>
       <c r="B680" s="13"/>
       <c r="C680" s="13"/>
@@ -21401,7 +21414,7 @@
       <c r="AA680" s="13"/>
       <c r="AB680" s="13"/>
     </row>
-    <row r="681" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="13"/>
       <c r="B681" s="13"/>
       <c r="C681" s="13"/>
@@ -21431,7 +21444,7 @@
       <c r="AA681" s="13"/>
       <c r="AB681" s="13"/>
     </row>
-    <row r="682" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="13"/>
       <c r="B682" s="13"/>
       <c r="C682" s="13"/>
@@ -21461,7 +21474,7 @@
       <c r="AA682" s="13"/>
       <c r="AB682" s="13"/>
     </row>
-    <row r="683" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="13"/>
       <c r="B683" s="13"/>
       <c r="C683" s="13"/>
@@ -21491,7 +21504,7 @@
       <c r="AA683" s="13"/>
       <c r="AB683" s="13"/>
     </row>
-    <row r="684" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="13"/>
       <c r="B684" s="13"/>
       <c r="C684" s="13"/>
@@ -21521,7 +21534,7 @@
       <c r="AA684" s="13"/>
       <c r="AB684" s="13"/>
     </row>
-    <row r="685" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="13"/>
       <c r="B685" s="13"/>
       <c r="C685" s="13"/>
@@ -21551,7 +21564,7 @@
       <c r="AA685" s="13"/>
       <c r="AB685" s="13"/>
     </row>
-    <row r="686" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="13"/>
       <c r="B686" s="13"/>
       <c r="C686" s="13"/>
@@ -21581,7 +21594,7 @@
       <c r="AA686" s="13"/>
       <c r="AB686" s="13"/>
     </row>
-    <row r="687" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="13"/>
       <c r="B687" s="13"/>
       <c r="C687" s="13"/>
@@ -21611,7 +21624,7 @@
       <c r="AA687" s="13"/>
       <c r="AB687" s="13"/>
     </row>
-    <row r="688" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="13"/>
       <c r="B688" s="13"/>
       <c r="C688" s="13"/>
@@ -21641,7 +21654,7 @@
       <c r="AA688" s="13"/>
       <c r="AB688" s="13"/>
     </row>
-    <row r="689" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="13"/>
       <c r="B689" s="13"/>
       <c r="C689" s="13"/>
@@ -21671,7 +21684,7 @@
       <c r="AA689" s="13"/>
       <c r="AB689" s="13"/>
     </row>
-    <row r="690" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="13"/>
       <c r="B690" s="13"/>
       <c r="C690" s="13"/>
@@ -21701,7 +21714,7 @@
       <c r="AA690" s="13"/>
       <c r="AB690" s="13"/>
     </row>
-    <row r="691" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="13"/>
       <c r="B691" s="13"/>
       <c r="C691" s="13"/>
@@ -21731,7 +21744,7 @@
       <c r="AA691" s="13"/>
       <c r="AB691" s="13"/>
     </row>
-    <row r="692" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="13"/>
       <c r="B692" s="13"/>
       <c r="C692" s="13"/>
@@ -21761,7 +21774,7 @@
       <c r="AA692" s="13"/>
       <c r="AB692" s="13"/>
     </row>
-    <row r="693" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="13"/>
       <c r="B693" s="13"/>
       <c r="C693" s="13"/>
@@ -21791,7 +21804,7 @@
       <c r="AA693" s="13"/>
       <c r="AB693" s="13"/>
     </row>
-    <row r="694" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="13"/>
       <c r="B694" s="13"/>
       <c r="C694" s="13"/>
@@ -21821,7 +21834,7 @@
       <c r="AA694" s="13"/>
       <c r="AB694" s="13"/>
     </row>
-    <row r="695" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="13"/>
       <c r="B695" s="13"/>
       <c r="C695" s="13"/>
@@ -21851,7 +21864,7 @@
       <c r="AA695" s="13"/>
       <c r="AB695" s="13"/>
     </row>
-    <row r="696" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="13"/>
       <c r="B696" s="13"/>
       <c r="C696" s="13"/>
@@ -21881,7 +21894,7 @@
       <c r="AA696" s="13"/>
       <c r="AB696" s="13"/>
     </row>
-    <row r="697" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="13"/>
       <c r="B697" s="13"/>
       <c r="C697" s="13"/>
@@ -21911,7 +21924,7 @@
       <c r="AA697" s="13"/>
       <c r="AB697" s="13"/>
     </row>
-    <row r="698" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="13"/>
       <c r="B698" s="13"/>
       <c r="C698" s="13"/>
@@ -21941,7 +21954,7 @@
       <c r="AA698" s="13"/>
       <c r="AB698" s="13"/>
     </row>
-    <row r="699" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="13"/>
       <c r="B699" s="13"/>
       <c r="C699" s="13"/>
@@ -21971,7 +21984,7 @@
       <c r="AA699" s="13"/>
       <c r="AB699" s="13"/>
     </row>
-    <row r="700" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="13"/>
       <c r="B700" s="13"/>
       <c r="C700" s="13"/>
@@ -22001,7 +22014,7 @@
       <c r="AA700" s="13"/>
       <c r="AB700" s="13"/>
     </row>
-    <row r="701" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="13"/>
       <c r="B701" s="13"/>
       <c r="C701" s="13"/>
@@ -22031,7 +22044,7 @@
       <c r="AA701" s="13"/>
       <c r="AB701" s="13"/>
     </row>
-    <row r="702" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="13"/>
       <c r="B702" s="13"/>
       <c r="C702" s="13"/>
@@ -22061,7 +22074,7 @@
       <c r="AA702" s="13"/>
       <c r="AB702" s="13"/>
     </row>
-    <row r="703" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="13"/>
       <c r="B703" s="13"/>
       <c r="C703" s="13"/>
@@ -22091,7 +22104,7 @@
       <c r="AA703" s="13"/>
       <c r="AB703" s="13"/>
     </row>
-    <row r="704" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="13"/>
       <c r="B704" s="13"/>
       <c r="C704" s="13"/>
@@ -22121,7 +22134,7 @@
       <c r="AA704" s="13"/>
       <c r="AB704" s="13"/>
     </row>
-    <row r="705" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="13"/>
       <c r="B705" s="13"/>
       <c r="C705" s="13"/>
@@ -22151,7 +22164,7 @@
       <c r="AA705" s="13"/>
       <c r="AB705" s="13"/>
     </row>
-    <row r="706" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="13"/>
       <c r="B706" s="13"/>
       <c r="C706" s="13"/>
@@ -22181,7 +22194,7 @@
       <c r="AA706" s="13"/>
       <c r="AB706" s="13"/>
     </row>
-    <row r="707" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="13"/>
       <c r="B707" s="13"/>
       <c r="C707" s="13"/>
@@ -22211,7 +22224,7 @@
       <c r="AA707" s="13"/>
       <c r="AB707" s="13"/>
     </row>
-    <row r="708" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="13"/>
       <c r="B708" s="13"/>
       <c r="C708" s="13"/>
@@ -22241,7 +22254,7 @@
       <c r="AA708" s="13"/>
       <c r="AB708" s="13"/>
     </row>
-    <row r="709" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="13"/>
       <c r="B709" s="13"/>
       <c r="C709" s="13"/>
@@ -22271,7 +22284,7 @@
       <c r="AA709" s="13"/>
       <c r="AB709" s="13"/>
     </row>
-    <row r="710" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="13"/>
       <c r="B710" s="13"/>
       <c r="C710" s="13"/>
@@ -22301,7 +22314,7 @@
       <c r="AA710" s="13"/>
       <c r="AB710" s="13"/>
     </row>
-    <row r="711" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="13"/>
       <c r="B711" s="13"/>
       <c r="C711" s="13"/>
@@ -22331,7 +22344,7 @@
       <c r="AA711" s="13"/>
       <c r="AB711" s="13"/>
     </row>
-    <row r="712" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="13"/>
       <c r="B712" s="13"/>
       <c r="C712" s="13"/>
@@ -22361,7 +22374,7 @@
       <c r="AA712" s="13"/>
       <c r="AB712" s="13"/>
     </row>
-    <row r="713" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="13"/>
       <c r="B713" s="13"/>
       <c r="C713" s="13"/>
@@ -22391,7 +22404,7 @@
       <c r="AA713" s="13"/>
       <c r="AB713" s="13"/>
     </row>
-    <row r="714" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="13"/>
       <c r="B714" s="13"/>
       <c r="C714" s="13"/>
@@ -22421,7 +22434,7 @@
       <c r="AA714" s="13"/>
       <c r="AB714" s="13"/>
     </row>
-    <row r="715" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="13"/>
       <c r="B715" s="13"/>
       <c r="C715" s="13"/>
@@ -22451,7 +22464,7 @@
       <c r="AA715" s="13"/>
       <c r="AB715" s="13"/>
     </row>
-    <row r="716" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="13"/>
       <c r="B716" s="13"/>
       <c r="C716" s="13"/>
@@ -22481,7 +22494,7 @@
       <c r="AA716" s="13"/>
       <c r="AB716" s="13"/>
     </row>
-    <row r="717" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="13"/>
       <c r="B717" s="13"/>
       <c r="C717" s="13"/>
@@ -22511,7 +22524,7 @@
       <c r="AA717" s="13"/>
       <c r="AB717" s="13"/>
     </row>
-    <row r="718" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="13"/>
       <c r="B718" s="13"/>
       <c r="C718" s="13"/>
@@ -22541,7 +22554,7 @@
       <c r="AA718" s="13"/>
       <c r="AB718" s="13"/>
     </row>
-    <row r="719" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="13"/>
       <c r="B719" s="13"/>
       <c r="C719" s="13"/>
@@ -22571,7 +22584,7 @@
       <c r="AA719" s="13"/>
       <c r="AB719" s="13"/>
     </row>
-    <row r="720" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="13"/>
       <c r="B720" s="13"/>
       <c r="C720" s="13"/>
@@ -22601,7 +22614,7 @@
       <c r="AA720" s="13"/>
       <c r="AB720" s="13"/>
     </row>
-    <row r="721" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="13"/>
       <c r="B721" s="13"/>
       <c r="C721" s="13"/>
@@ -22631,7 +22644,7 @@
       <c r="AA721" s="13"/>
       <c r="AB721" s="13"/>
     </row>
-    <row r="722" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="13"/>
       <c r="B722" s="13"/>
       <c r="C722" s="13"/>
@@ -22661,7 +22674,7 @@
       <c r="AA722" s="13"/>
       <c r="AB722" s="13"/>
     </row>
-    <row r="723" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="13"/>
       <c r="B723" s="13"/>
       <c r="C723" s="13"/>
@@ -22691,7 +22704,7 @@
       <c r="AA723" s="13"/>
       <c r="AB723" s="13"/>
     </row>
-    <row r="724" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="13"/>
       <c r="B724" s="13"/>
       <c r="C724" s="13"/>
@@ -22721,7 +22734,7 @@
       <c r="AA724" s="13"/>
       <c r="AB724" s="13"/>
     </row>
-    <row r="725" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="13"/>
       <c r="B725" s="13"/>
       <c r="C725" s="13"/>
@@ -22751,7 +22764,7 @@
       <c r="AA725" s="13"/>
       <c r="AB725" s="13"/>
     </row>
-    <row r="726" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="13"/>
       <c r="B726" s="13"/>
       <c r="C726" s="13"/>
@@ -22781,7 +22794,7 @@
       <c r="AA726" s="13"/>
       <c r="AB726" s="13"/>
     </row>
-    <row r="727" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="13"/>
       <c r="B727" s="13"/>
       <c r="C727" s="13"/>
@@ -22811,7 +22824,7 @@
       <c r="AA727" s="13"/>
       <c r="AB727" s="13"/>
     </row>
-    <row r="728" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A728" s="13"/>
       <c r="B728" s="13"/>
       <c r="C728" s="13"/>
@@ -22841,7 +22854,7 @@
       <c r="AA728" s="13"/>
       <c r="AB728" s="13"/>
     </row>
-    <row r="729" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="13"/>
       <c r="B729" s="13"/>
       <c r="C729" s="13"/>
@@ -22871,7 +22884,7 @@
       <c r="AA729" s="13"/>
       <c r="AB729" s="13"/>
     </row>
-    <row r="730" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="13"/>
       <c r="B730" s="13"/>
       <c r="C730" s="13"/>
@@ -22901,7 +22914,7 @@
       <c r="AA730" s="13"/>
       <c r="AB730" s="13"/>
     </row>
-    <row r="731" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="13"/>
       <c r="B731" s="13"/>
       <c r="C731" s="13"/>
@@ -22931,7 +22944,7 @@
       <c r="AA731" s="13"/>
       <c r="AB731" s="13"/>
     </row>
-    <row r="732" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="13"/>
       <c r="B732" s="13"/>
       <c r="C732" s="13"/>
@@ -22961,7 +22974,7 @@
       <c r="AA732" s="13"/>
       <c r="AB732" s="13"/>
     </row>
-    <row r="733" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="13"/>
       <c r="B733" s="13"/>
       <c r="C733" s="13"/>
@@ -22991,7 +23004,7 @@
       <c r="AA733" s="13"/>
       <c r="AB733" s="13"/>
     </row>
-    <row r="734" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" s="13"/>
       <c r="B734" s="13"/>
       <c r="C734" s="13"/>
@@ -23021,7 +23034,7 @@
       <c r="AA734" s="13"/>
       <c r="AB734" s="13"/>
     </row>
-    <row r="735" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A735" s="13"/>
       <c r="B735" s="13"/>
       <c r="C735" s="13"/>
@@ -23051,7 +23064,7 @@
       <c r="AA735" s="13"/>
       <c r="AB735" s="13"/>
     </row>
-    <row r="736" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="13"/>
       <c r="B736" s="13"/>
       <c r="C736" s="13"/>
@@ -23081,7 +23094,7 @@
       <c r="AA736" s="13"/>
       <c r="AB736" s="13"/>
     </row>
-    <row r="737" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="13"/>
       <c r="B737" s="13"/>
       <c r="C737" s="13"/>
@@ -23111,7 +23124,7 @@
       <c r="AA737" s="13"/>
       <c r="AB737" s="13"/>
     </row>
-    <row r="738" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="13"/>
       <c r="B738" s="13"/>
       <c r="C738" s="13"/>
@@ -23141,7 +23154,7 @@
       <c r="AA738" s="13"/>
       <c r="AB738" s="13"/>
     </row>
-    <row r="739" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="13"/>
       <c r="B739" s="13"/>
       <c r="C739" s="13"/>
@@ -23171,7 +23184,7 @@
       <c r="AA739" s="13"/>
       <c r="AB739" s="13"/>
     </row>
-    <row r="740" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="13"/>
       <c r="B740" s="13"/>
       <c r="C740" s="13"/>
@@ -23201,7 +23214,7 @@
       <c r="AA740" s="13"/>
       <c r="AB740" s="13"/>
     </row>
-    <row r="741" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A741" s="13"/>
       <c r="B741" s="13"/>
       <c r="C741" s="13"/>
@@ -23231,7 +23244,7 @@
       <c r="AA741" s="13"/>
       <c r="AB741" s="13"/>
     </row>
-    <row r="742" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="13"/>
       <c r="B742" s="13"/>
       <c r="C742" s="13"/>
@@ -23261,7 +23274,7 @@
       <c r="AA742" s="13"/>
       <c r="AB742" s="13"/>
     </row>
-    <row r="743" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A743" s="13"/>
       <c r="B743" s="13"/>
       <c r="C743" s="13"/>
@@ -23291,7 +23304,7 @@
       <c r="AA743" s="13"/>
       <c r="AB743" s="13"/>
     </row>
-    <row r="744" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A744" s="13"/>
       <c r="B744" s="13"/>
       <c r="C744" s="13"/>
@@ -23321,7 +23334,7 @@
       <c r="AA744" s="13"/>
       <c r="AB744" s="13"/>
     </row>
-    <row r="745" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="13"/>
       <c r="B745" s="13"/>
       <c r="C745" s="13"/>
@@ -23351,7 +23364,7 @@
       <c r="AA745" s="13"/>
       <c r="AB745" s="13"/>
     </row>
-    <row r="746" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="13"/>
       <c r="B746" s="13"/>
       <c r="C746" s="13"/>
@@ -23381,7 +23394,7 @@
       <c r="AA746" s="13"/>
       <c r="AB746" s="13"/>
     </row>
-    <row r="747" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="13"/>
       <c r="B747" s="13"/>
       <c r="C747" s="13"/>
@@ -23411,7 +23424,7 @@
       <c r="AA747" s="13"/>
       <c r="AB747" s="13"/>
     </row>
-    <row r="748" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A748" s="13"/>
       <c r="B748" s="13"/>
       <c r="C748" s="13"/>
@@ -23441,7 +23454,7 @@
       <c r="AA748" s="13"/>
       <c r="AB748" s="13"/>
     </row>
-    <row r="749" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="13"/>
       <c r="B749" s="13"/>
       <c r="C749" s="13"/>
@@ -23471,7 +23484,7 @@
       <c r="AA749" s="13"/>
       <c r="AB749" s="13"/>
     </row>
-    <row r="750" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="13"/>
       <c r="B750" s="13"/>
       <c r="C750" s="13"/>
@@ -23501,7 +23514,7 @@
       <c r="AA750" s="13"/>
       <c r="AB750" s="13"/>
     </row>
-    <row r="751" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="13"/>
       <c r="B751" s="13"/>
       <c r="C751" s="13"/>
@@ -23531,7 +23544,7 @@
       <c r="AA751" s="13"/>
       <c r="AB751" s="13"/>
     </row>
-    <row r="752" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="13"/>
       <c r="B752" s="13"/>
       <c r="C752" s="13"/>
@@ -23561,7 +23574,7 @@
       <c r="AA752" s="13"/>
       <c r="AB752" s="13"/>
     </row>
-    <row r="753" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="13"/>
       <c r="B753" s="13"/>
       <c r="C753" s="13"/>
@@ -23591,7 +23604,7 @@
       <c r="AA753" s="13"/>
       <c r="AB753" s="13"/>
     </row>
-    <row r="754" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="13"/>
       <c r="B754" s="13"/>
       <c r="C754" s="13"/>
@@ -23621,7 +23634,7 @@
       <c r="AA754" s="13"/>
       <c r="AB754" s="13"/>
     </row>
-    <row r="755" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="13"/>
       <c r="B755" s="13"/>
       <c r="C755" s="13"/>
@@ -23651,7 +23664,7 @@
       <c r="AA755" s="13"/>
       <c r="AB755" s="13"/>
     </row>
-    <row r="756" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="13"/>
       <c r="B756" s="13"/>
       <c r="C756" s="13"/>
@@ -23681,7 +23694,7 @@
       <c r="AA756" s="13"/>
       <c r="AB756" s="13"/>
     </row>
-    <row r="757" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="13"/>
       <c r="B757" s="13"/>
       <c r="C757" s="13"/>
@@ -23711,7 +23724,7 @@
       <c r="AA757" s="13"/>
       <c r="AB757" s="13"/>
     </row>
-    <row r="758" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="13"/>
       <c r="B758" s="13"/>
       <c r="C758" s="13"/>
@@ -23741,7 +23754,7 @@
       <c r="AA758" s="13"/>
       <c r="AB758" s="13"/>
     </row>
-    <row r="759" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="13"/>
       <c r="B759" s="13"/>
       <c r="C759" s="13"/>
@@ -23771,7 +23784,7 @@
       <c r="AA759" s="13"/>
       <c r="AB759" s="13"/>
     </row>
-    <row r="760" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="13"/>
       <c r="B760" s="13"/>
       <c r="C760" s="13"/>
@@ -23801,7 +23814,7 @@
       <c r="AA760" s="13"/>
       <c r="AB760" s="13"/>
     </row>
-    <row r="761" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="13"/>
       <c r="B761" s="13"/>
       <c r="C761" s="13"/>
@@ -23831,7 +23844,7 @@
       <c r="AA761" s="13"/>
       <c r="AB761" s="13"/>
     </row>
-    <row r="762" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="13"/>
       <c r="B762" s="13"/>
       <c r="C762" s="13"/>
@@ -23861,7 +23874,7 @@
       <c r="AA762" s="13"/>
       <c r="AB762" s="13"/>
     </row>
-    <row r="763" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A763" s="13"/>
       <c r="B763" s="13"/>
       <c r="C763" s="13"/>
@@ -23891,7 +23904,7 @@
       <c r="AA763" s="13"/>
       <c r="AB763" s="13"/>
     </row>
-    <row r="764" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A764" s="13"/>
       <c r="B764" s="13"/>
       <c r="C764" s="13"/>
@@ -23921,7 +23934,7 @@
       <c r="AA764" s="13"/>
       <c r="AB764" s="13"/>
     </row>
-    <row r="765" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="13"/>
       <c r="B765" s="13"/>
       <c r="C765" s="13"/>
@@ -23951,7 +23964,7 @@
       <c r="AA765" s="13"/>
       <c r="AB765" s="13"/>
     </row>
-    <row r="766" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A766" s="13"/>
       <c r="B766" s="13"/>
       <c r="C766" s="13"/>
@@ -23981,7 +23994,7 @@
       <c r="AA766" s="13"/>
       <c r="AB766" s="13"/>
     </row>
-    <row r="767" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="13"/>
       <c r="B767" s="13"/>
       <c r="C767" s="13"/>
@@ -24011,7 +24024,7 @@
       <c r="AA767" s="13"/>
       <c r="AB767" s="13"/>
     </row>
-    <row r="768" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A768" s="13"/>
       <c r="B768" s="13"/>
       <c r="C768" s="13"/>
@@ -24041,7 +24054,7 @@
       <c r="AA768" s="13"/>
       <c r="AB768" s="13"/>
     </row>
-    <row r="769" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="13"/>
       <c r="B769" s="13"/>
       <c r="C769" s="13"/>
@@ -24071,7 +24084,7 @@
       <c r="AA769" s="13"/>
       <c r="AB769" s="13"/>
     </row>
-    <row r="770" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="13"/>
       <c r="B770" s="13"/>
       <c r="C770" s="13"/>
@@ -24101,7 +24114,7 @@
       <c r="AA770" s="13"/>
       <c r="AB770" s="13"/>
     </row>
-    <row r="771" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A771" s="13"/>
       <c r="B771" s="13"/>
       <c r="C771" s="13"/>
@@ -24131,7 +24144,7 @@
       <c r="AA771" s="13"/>
       <c r="AB771" s="13"/>
     </row>
-    <row r="772" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A772" s="13"/>
       <c r="B772" s="13"/>
       <c r="C772" s="13"/>
@@ -24161,7 +24174,7 @@
       <c r="AA772" s="13"/>
       <c r="AB772" s="13"/>
     </row>
-    <row r="773" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A773" s="13"/>
       <c r="B773" s="13"/>
       <c r="C773" s="13"/>
@@ -24191,7 +24204,7 @@
       <c r="AA773" s="13"/>
       <c r="AB773" s="13"/>
     </row>
-    <row r="774" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774" s="13"/>
       <c r="B774" s="13"/>
       <c r="C774" s="13"/>
@@ -24221,7 +24234,7 @@
       <c r="AA774" s="13"/>
       <c r="AB774" s="13"/>
     </row>
-    <row r="775" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775" s="13"/>
       <c r="B775" s="13"/>
       <c r="C775" s="13"/>
@@ -24251,7 +24264,7 @@
       <c r="AA775" s="13"/>
       <c r="AB775" s="13"/>
     </row>
-    <row r="776" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776" s="13"/>
       <c r="B776" s="13"/>
       <c r="C776" s="13"/>
@@ -24281,7 +24294,7 @@
       <c r="AA776" s="13"/>
       <c r="AB776" s="13"/>
     </row>
-    <row r="777" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777" s="13"/>
       <c r="B777" s="13"/>
       <c r="C777" s="13"/>
@@ -24311,7 +24324,7 @@
       <c r="AA777" s="13"/>
       <c r="AB777" s="13"/>
     </row>
-    <row r="778" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A778" s="13"/>
       <c r="B778" s="13"/>
       <c r="C778" s="13"/>
@@ -24341,7 +24354,7 @@
       <c r="AA778" s="13"/>
       <c r="AB778" s="13"/>
     </row>
-    <row r="779" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A779" s="13"/>
       <c r="B779" s="13"/>
       <c r="C779" s="13"/>
@@ -24371,7 +24384,7 @@
       <c r="AA779" s="13"/>
       <c r="AB779" s="13"/>
     </row>
-    <row r="780" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780" s="13"/>
       <c r="B780" s="13"/>
       <c r="C780" s="13"/>
@@ -24401,7 +24414,7 @@
       <c r="AA780" s="13"/>
       <c r="AB780" s="13"/>
     </row>
-    <row r="781" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781" s="13"/>
       <c r="B781" s="13"/>
       <c r="C781" s="13"/>
@@ -24431,7 +24444,7 @@
       <c r="AA781" s="13"/>
       <c r="AB781" s="13"/>
     </row>
-    <row r="782" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A782" s="13"/>
       <c r="B782" s="13"/>
       <c r="C782" s="13"/>
@@ -24461,7 +24474,7 @@
       <c r="AA782" s="13"/>
       <c r="AB782" s="13"/>
     </row>
-    <row r="783" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783" s="13"/>
       <c r="B783" s="13"/>
       <c r="C783" s="13"/>
@@ -24491,7 +24504,7 @@
       <c r="AA783" s="13"/>
       <c r="AB783" s="13"/>
     </row>
-    <row r="784" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A784" s="13"/>
       <c r="B784" s="13"/>
       <c r="C784" s="13"/>
@@ -24521,7 +24534,7 @@
       <c r="AA784" s="13"/>
       <c r="AB784" s="13"/>
     </row>
-    <row r="785" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785" s="13"/>
       <c r="B785" s="13"/>
       <c r="C785" s="13"/>
@@ -24551,7 +24564,7 @@
       <c r="AA785" s="13"/>
       <c r="AB785" s="13"/>
     </row>
-    <row r="786" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A786" s="13"/>
       <c r="B786" s="13"/>
       <c r="C786" s="13"/>
@@ -24581,7 +24594,7 @@
       <c r="AA786" s="13"/>
       <c r="AB786" s="13"/>
     </row>
-    <row r="787" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A787" s="13"/>
       <c r="B787" s="13"/>
       <c r="C787" s="13"/>
@@ -24611,7 +24624,7 @@
       <c r="AA787" s="13"/>
       <c r="AB787" s="13"/>
     </row>
-    <row r="788" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A788" s="13"/>
       <c r="B788" s="13"/>
       <c r="C788" s="13"/>
@@ -24641,7 +24654,7 @@
       <c r="AA788" s="13"/>
       <c r="AB788" s="13"/>
     </row>
-    <row r="789" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A789" s="13"/>
       <c r="B789" s="13"/>
       <c r="C789" s="13"/>
@@ -24671,7 +24684,7 @@
       <c r="AA789" s="13"/>
       <c r="AB789" s="13"/>
     </row>
-    <row r="790" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A790" s="13"/>
       <c r="B790" s="13"/>
       <c r="C790" s="13"/>
@@ -24701,7 +24714,7 @@
       <c r="AA790" s="13"/>
       <c r="AB790" s="13"/>
     </row>
-    <row r="791" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A791" s="13"/>
       <c r="B791" s="13"/>
       <c r="C791" s="13"/>
@@ -24731,7 +24744,7 @@
       <c r="AA791" s="13"/>
       <c r="AB791" s="13"/>
     </row>
-    <row r="792" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A792" s="13"/>
       <c r="B792" s="13"/>
       <c r="C792" s="13"/>
@@ -24761,7 +24774,7 @@
       <c r="AA792" s="13"/>
       <c r="AB792" s="13"/>
     </row>
-    <row r="793" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A793" s="13"/>
       <c r="B793" s="13"/>
       <c r="C793" s="13"/>
@@ -24791,7 +24804,7 @@
       <c r="AA793" s="13"/>
       <c r="AB793" s="13"/>
     </row>
-    <row r="794" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A794" s="13"/>
       <c r="B794" s="13"/>
       <c r="C794" s="13"/>
@@ -24821,7 +24834,7 @@
       <c r="AA794" s="13"/>
       <c r="AB794" s="13"/>
     </row>
-    <row r="795" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A795" s="13"/>
       <c r="B795" s="13"/>
       <c r="C795" s="13"/>
@@ -24851,7 +24864,7 @@
       <c r="AA795" s="13"/>
       <c r="AB795" s="13"/>
     </row>
-    <row r="796" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A796" s="13"/>
       <c r="B796" s="13"/>
       <c r="C796" s="13"/>
@@ -24881,7 +24894,7 @@
       <c r="AA796" s="13"/>
       <c r="AB796" s="13"/>
     </row>
-    <row r="797" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A797" s="13"/>
       <c r="B797" s="13"/>
       <c r="C797" s="13"/>
@@ -24911,7 +24924,7 @@
       <c r="AA797" s="13"/>
       <c r="AB797" s="13"/>
     </row>
-    <row r="798" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A798" s="13"/>
       <c r="B798" s="13"/>
       <c r="C798" s="13"/>
@@ -24941,7 +24954,7 @@
       <c r="AA798" s="13"/>
       <c r="AB798" s="13"/>
     </row>
-    <row r="799" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A799" s="13"/>
       <c r="B799" s="13"/>
       <c r="C799" s="13"/>
@@ -24971,7 +24984,7 @@
       <c r="AA799" s="13"/>
       <c r="AB799" s="13"/>
     </row>
-    <row r="800" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A800" s="13"/>
       <c r="B800" s="13"/>
       <c r="C800" s="13"/>
@@ -25001,7 +25014,7 @@
       <c r="AA800" s="13"/>
       <c r="AB800" s="13"/>
     </row>
-    <row r="801" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A801" s="13"/>
       <c r="B801" s="13"/>
       <c r="C801" s="13"/>
@@ -25031,7 +25044,7 @@
       <c r="AA801" s="13"/>
       <c r="AB801" s="13"/>
     </row>
-    <row r="802" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A802" s="13"/>
       <c r="B802" s="13"/>
       <c r="C802" s="13"/>
@@ -25061,7 +25074,7 @@
       <c r="AA802" s="13"/>
       <c r="AB802" s="13"/>
     </row>
-    <row r="803" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A803" s="13"/>
       <c r="B803" s="13"/>
       <c r="C803" s="13"/>
@@ -25091,7 +25104,7 @@
       <c r="AA803" s="13"/>
       <c r="AB803" s="13"/>
     </row>
-    <row r="804" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A804" s="13"/>
       <c r="B804" s="13"/>
       <c r="C804" s="13"/>
@@ -25121,7 +25134,7 @@
       <c r="AA804" s="13"/>
       <c r="AB804" s="13"/>
     </row>
-    <row r="805" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A805" s="13"/>
       <c r="B805" s="13"/>
       <c r="C805" s="13"/>
@@ -25151,7 +25164,7 @@
       <c r="AA805" s="13"/>
       <c r="AB805" s="13"/>
     </row>
-    <row r="806" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A806" s="13"/>
       <c r="B806" s="13"/>
       <c r="C806" s="13"/>
@@ -25181,7 +25194,7 @@
       <c r="AA806" s="13"/>
       <c r="AB806" s="13"/>
     </row>
-    <row r="807" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A807" s="13"/>
       <c r="B807" s="13"/>
       <c r="C807" s="13"/>
@@ -25211,7 +25224,7 @@
       <c r="AA807" s="13"/>
       <c r="AB807" s="13"/>
     </row>
-    <row r="808" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A808" s="13"/>
       <c r="B808" s="13"/>
       <c r="C808" s="13"/>
@@ -25241,7 +25254,7 @@
       <c r="AA808" s="13"/>
       <c r="AB808" s="13"/>
     </row>
-    <row r="809" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A809" s="13"/>
       <c r="B809" s="13"/>
       <c r="C809" s="13"/>
@@ -25271,7 +25284,7 @@
       <c r="AA809" s="13"/>
       <c r="AB809" s="13"/>
     </row>
-    <row r="810" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A810" s="13"/>
       <c r="B810" s="13"/>
       <c r="C810" s="13"/>
@@ -25301,7 +25314,7 @@
       <c r="AA810" s="13"/>
       <c r="AB810" s="13"/>
     </row>
-    <row r="811" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A811" s="13"/>
       <c r="B811" s="13"/>
       <c r="C811" s="13"/>
@@ -25331,7 +25344,7 @@
       <c r="AA811" s="13"/>
       <c r="AB811" s="13"/>
     </row>
-    <row r="812" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A812" s="13"/>
       <c r="B812" s="13"/>
       <c r="C812" s="13"/>
@@ -25361,7 +25374,7 @@
       <c r="AA812" s="13"/>
       <c r="AB812" s="13"/>
     </row>
-    <row r="813" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A813" s="13"/>
       <c r="B813" s="13"/>
       <c r="C813" s="13"/>
@@ -25391,7 +25404,7 @@
       <c r="AA813" s="13"/>
       <c r="AB813" s="13"/>
     </row>
-    <row r="814" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A814" s="13"/>
       <c r="B814" s="13"/>
       <c r="C814" s="13"/>
@@ -25421,7 +25434,7 @@
       <c r="AA814" s="13"/>
       <c r="AB814" s="13"/>
     </row>
-    <row r="815" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A815" s="13"/>
       <c r="B815" s="13"/>
       <c r="C815" s="13"/>
@@ -25451,7 +25464,7 @@
       <c r="AA815" s="13"/>
       <c r="AB815" s="13"/>
     </row>
-    <row r="816" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A816" s="13"/>
       <c r="B816" s="13"/>
       <c r="C816" s="13"/>
@@ -25481,7 +25494,7 @@
       <c r="AA816" s="13"/>
       <c r="AB816" s="13"/>
     </row>
-    <row r="817" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A817" s="13"/>
       <c r="B817" s="13"/>
       <c r="C817" s="13"/>
@@ -25511,7 +25524,7 @@
       <c r="AA817" s="13"/>
       <c r="AB817" s="13"/>
     </row>
-    <row r="818" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A818" s="13"/>
       <c r="B818" s="13"/>
       <c r="C818" s="13"/>
@@ -25541,7 +25554,7 @@
       <c r="AA818" s="13"/>
       <c r="AB818" s="13"/>
     </row>
-    <row r="819" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A819" s="13"/>
       <c r="B819" s="13"/>
       <c r="C819" s="13"/>
@@ -25571,7 +25584,7 @@
       <c r="AA819" s="13"/>
       <c r="AB819" s="13"/>
     </row>
-    <row r="820" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A820" s="13"/>
       <c r="B820" s="13"/>
       <c r="C820" s="13"/>
@@ -25601,7 +25614,7 @@
       <c r="AA820" s="13"/>
       <c r="AB820" s="13"/>
     </row>
-    <row r="821" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A821" s="13"/>
       <c r="B821" s="13"/>
       <c r="C821" s="13"/>
@@ -25631,7 +25644,7 @@
       <c r="AA821" s="13"/>
       <c r="AB821" s="13"/>
     </row>
-    <row r="822" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A822" s="13"/>
       <c r="B822" s="13"/>
       <c r="C822" s="13"/>
@@ -25661,7 +25674,7 @@
       <c r="AA822" s="13"/>
       <c r="AB822" s="13"/>
     </row>
-    <row r="823" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A823" s="13"/>
       <c r="B823" s="13"/>
       <c r="C823" s="13"/>
@@ -25691,7 +25704,7 @@
       <c r="AA823" s="13"/>
       <c r="AB823" s="13"/>
     </row>
-    <row r="824" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A824" s="13"/>
       <c r="B824" s="13"/>
       <c r="C824" s="13"/>
@@ -25721,7 +25734,7 @@
       <c r="AA824" s="13"/>
       <c r="AB824" s="13"/>
     </row>
-    <row r="825" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A825" s="13"/>
       <c r="B825" s="13"/>
       <c r="C825" s="13"/>
@@ -25751,7 +25764,7 @@
       <c r="AA825" s="13"/>
       <c r="AB825" s="13"/>
     </row>
-    <row r="826" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A826" s="13"/>
       <c r="B826" s="13"/>
       <c r="C826" s="13"/>
@@ -25781,7 +25794,7 @@
       <c r="AA826" s="13"/>
       <c r="AB826" s="13"/>
     </row>
-    <row r="827" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A827" s="13"/>
       <c r="B827" s="13"/>
       <c r="C827" s="13"/>
@@ -25811,7 +25824,7 @@
       <c r="AA827" s="13"/>
       <c r="AB827" s="13"/>
     </row>
-    <row r="828" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A828" s="13"/>
       <c r="B828" s="13"/>
       <c r="C828" s="13"/>
@@ -25841,7 +25854,7 @@
       <c r="AA828" s="13"/>
       <c r="AB828" s="13"/>
     </row>
-    <row r="829" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A829" s="13"/>
       <c r="B829" s="13"/>
       <c r="C829" s="13"/>
@@ -25871,7 +25884,7 @@
       <c r="AA829" s="13"/>
       <c r="AB829" s="13"/>
     </row>
-    <row r="830" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A830" s="13"/>
       <c r="B830" s="13"/>
       <c r="C830" s="13"/>
@@ -25901,7 +25914,7 @@
       <c r="AA830" s="13"/>
       <c r="AB830" s="13"/>
     </row>
-    <row r="831" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A831" s="13"/>
       <c r="B831" s="13"/>
       <c r="C831" s="13"/>
@@ -25931,7 +25944,7 @@
       <c r="AA831" s="13"/>
       <c r="AB831" s="13"/>
     </row>
-    <row r="832" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A832" s="13"/>
       <c r="B832" s="13"/>
       <c r="C832" s="13"/>
@@ -25961,7 +25974,7 @@
       <c r="AA832" s="13"/>
       <c r="AB832" s="13"/>
     </row>
-    <row r="833" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A833" s="13"/>
       <c r="B833" s="13"/>
       <c r="C833" s="13"/>
@@ -25991,7 +26004,7 @@
       <c r="AA833" s="13"/>
       <c r="AB833" s="13"/>
     </row>
-    <row r="834" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A834" s="13"/>
       <c r="B834" s="13"/>
       <c r="C834" s="13"/>
@@ -26021,7 +26034,7 @@
       <c r="AA834" s="13"/>
       <c r="AB834" s="13"/>
     </row>
-    <row r="835" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A835" s="13"/>
       <c r="B835" s="13"/>
       <c r="C835" s="13"/>
@@ -26051,7 +26064,7 @@
       <c r="AA835" s="13"/>
       <c r="AB835" s="13"/>
     </row>
-    <row r="836" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A836" s="13"/>
       <c r="B836" s="13"/>
       <c r="C836" s="13"/>
@@ -26081,7 +26094,7 @@
       <c r="AA836" s="13"/>
       <c r="AB836" s="13"/>
     </row>
-    <row r="837" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A837" s="13"/>
       <c r="B837" s="13"/>
       <c r="C837" s="13"/>
@@ -26111,7 +26124,7 @@
       <c r="AA837" s="13"/>
       <c r="AB837" s="13"/>
     </row>
-    <row r="838" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A838" s="13"/>
       <c r="B838" s="13"/>
       <c r="C838" s="13"/>
@@ -26141,7 +26154,7 @@
       <c r="AA838" s="13"/>
       <c r="AB838" s="13"/>
     </row>
-    <row r="839" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A839" s="13"/>
       <c r="B839" s="13"/>
       <c r="C839" s="13"/>
@@ -26171,7 +26184,7 @@
       <c r="AA839" s="13"/>
       <c r="AB839" s="13"/>
     </row>
-    <row r="840" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A840" s="13"/>
       <c r="B840" s="13"/>
       <c r="C840" s="13"/>
@@ -26201,7 +26214,7 @@
       <c r="AA840" s="13"/>
       <c r="AB840" s="13"/>
     </row>
-    <row r="841" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A841" s="13"/>
       <c r="B841" s="13"/>
       <c r="C841" s="13"/>
@@ -26231,7 +26244,7 @@
       <c r="AA841" s="13"/>
       <c r="AB841" s="13"/>
     </row>
-    <row r="842" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A842" s="13"/>
       <c r="B842" s="13"/>
       <c r="C842" s="13"/>
@@ -26261,7 +26274,7 @@
       <c r="AA842" s="13"/>
       <c r="AB842" s="13"/>
     </row>
-    <row r="843" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A843" s="13"/>
       <c r="B843" s="13"/>
       <c r="C843" s="13"/>
@@ -26291,7 +26304,7 @@
       <c r="AA843" s="13"/>
       <c r="AB843" s="13"/>
     </row>
-    <row r="844" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A844" s="13"/>
       <c r="B844" s="13"/>
       <c r="C844" s="13"/>
@@ -26321,7 +26334,7 @@
       <c r="AA844" s="13"/>
       <c r="AB844" s="13"/>
     </row>
-    <row r="845" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A845" s="13"/>
       <c r="B845" s="13"/>
       <c r="C845" s="13"/>
@@ -26351,7 +26364,7 @@
       <c r="AA845" s="13"/>
       <c r="AB845" s="13"/>
     </row>
-    <row r="846" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A846" s="13"/>
       <c r="B846" s="13"/>
       <c r="C846" s="13"/>
@@ -26381,7 +26394,7 @@
       <c r="AA846" s="13"/>
       <c r="AB846" s="13"/>
     </row>
-    <row r="847" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A847" s="13"/>
       <c r="B847" s="13"/>
       <c r="C847" s="13"/>
@@ -26411,7 +26424,7 @@
       <c r="AA847" s="13"/>
       <c r="AB847" s="13"/>
     </row>
-    <row r="848" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A848" s="13"/>
       <c r="B848" s="13"/>
       <c r="C848" s="13"/>
@@ -26441,7 +26454,7 @@
       <c r="AA848" s="13"/>
       <c r="AB848" s="13"/>
     </row>
-    <row r="849" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A849" s="13"/>
       <c r="B849" s="13"/>
       <c r="C849" s="13"/>
@@ -26471,7 +26484,7 @@
       <c r="AA849" s="13"/>
       <c r="AB849" s="13"/>
     </row>
-    <row r="850" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A850" s="13"/>
       <c r="B850" s="13"/>
       <c r="C850" s="13"/>
@@ -26501,7 +26514,7 @@
       <c r="AA850" s="13"/>
       <c r="AB850" s="13"/>
     </row>
-    <row r="851" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A851" s="13"/>
       <c r="B851" s="13"/>
       <c r="C851" s="13"/>
@@ -26531,7 +26544,7 @@
       <c r="AA851" s="13"/>
       <c r="AB851" s="13"/>
     </row>
-    <row r="852" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A852" s="13"/>
       <c r="B852" s="13"/>
       <c r="C852" s="13"/>
@@ -26561,7 +26574,7 @@
       <c r="AA852" s="13"/>
       <c r="AB852" s="13"/>
     </row>
-    <row r="853" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A853" s="13"/>
       <c r="B853" s="13"/>
       <c r="C853" s="13"/>
@@ -26591,7 +26604,7 @@
       <c r="AA853" s="13"/>
       <c r="AB853" s="13"/>
     </row>
-    <row r="854" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A854" s="13"/>
       <c r="B854" s="13"/>
       <c r="C854" s="13"/>
@@ -26621,7 +26634,7 @@
       <c r="AA854" s="13"/>
       <c r="AB854" s="13"/>
     </row>
-    <row r="855" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A855" s="13"/>
       <c r="B855" s="13"/>
       <c r="C855" s="13"/>
@@ -26651,7 +26664,7 @@
       <c r="AA855" s="13"/>
       <c r="AB855" s="13"/>
     </row>
-    <row r="856" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A856" s="13"/>
       <c r="B856" s="13"/>
       <c r="C856" s="13"/>
@@ -26681,7 +26694,7 @@
       <c r="AA856" s="13"/>
       <c r="AB856" s="13"/>
     </row>
-    <row r="857" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A857" s="13"/>
       <c r="B857" s="13"/>
       <c r="C857" s="13"/>
@@ -26711,7 +26724,7 @@
       <c r="AA857" s="13"/>
       <c r="AB857" s="13"/>
     </row>
-    <row r="858" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A858" s="13"/>
       <c r="B858" s="13"/>
       <c r="C858" s="13"/>
@@ -26741,7 +26754,7 @@
       <c r="AA858" s="13"/>
       <c r="AB858" s="13"/>
     </row>
-    <row r="859" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A859" s="13"/>
       <c r="B859" s="13"/>
       <c r="C859" s="13"/>
@@ -26771,7 +26784,7 @@
       <c r="AA859" s="13"/>
       <c r="AB859" s="13"/>
     </row>
-    <row r="860" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A860" s="13"/>
       <c r="B860" s="13"/>
       <c r="C860" s="13"/>
@@ -26801,7 +26814,7 @@
       <c r="AA860" s="13"/>
       <c r="AB860" s="13"/>
     </row>
-    <row r="861" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A861" s="13"/>
       <c r="B861" s="13"/>
       <c r="C861" s="13"/>
@@ -26831,7 +26844,7 @@
       <c r="AA861" s="13"/>
       <c r="AB861" s="13"/>
     </row>
-    <row r="862" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A862" s="13"/>
       <c r="B862" s="13"/>
       <c r="C862" s="13"/>
@@ -26861,7 +26874,7 @@
       <c r="AA862" s="13"/>
       <c r="AB862" s="13"/>
     </row>
-    <row r="863" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A863" s="13"/>
       <c r="B863" s="13"/>
       <c r="C863" s="13"/>
@@ -26891,7 +26904,7 @@
       <c r="AA863" s="13"/>
       <c r="AB863" s="13"/>
     </row>
-    <row r="864" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A864" s="13"/>
       <c r="B864" s="13"/>
       <c r="C864" s="13"/>
@@ -26921,7 +26934,7 @@
       <c r="AA864" s="13"/>
       <c r="AB864" s="13"/>
     </row>
-    <row r="865" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A865" s="13"/>
       <c r="B865" s="13"/>
       <c r="C865" s="13"/>
@@ -26951,7 +26964,7 @@
       <c r="AA865" s="13"/>
       <c r="AB865" s="13"/>
     </row>
-    <row r="866" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A866" s="13"/>
       <c r="B866" s="13"/>
       <c r="C866" s="13"/>
@@ -26981,7 +26994,7 @@
       <c r="AA866" s="13"/>
       <c r="AB866" s="13"/>
     </row>
-    <row r="867" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A867" s="13"/>
       <c r="B867" s="13"/>
       <c r="C867" s="13"/>
@@ -27011,7 +27024,7 @@
       <c r="AA867" s="13"/>
       <c r="AB867" s="13"/>
     </row>
-    <row r="868" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A868" s="13"/>
       <c r="B868" s="13"/>
       <c r="C868" s="13"/>
@@ -27041,7 +27054,7 @@
       <c r="AA868" s="13"/>
       <c r="AB868" s="13"/>
     </row>
-    <row r="869" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A869" s="13"/>
       <c r="B869" s="13"/>
       <c r="C869" s="13"/>
@@ -27071,7 +27084,7 @@
       <c r="AA869" s="13"/>
       <c r="AB869" s="13"/>
     </row>
-    <row r="870" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A870" s="13"/>
       <c r="B870" s="13"/>
       <c r="C870" s="13"/>
@@ -27101,7 +27114,7 @@
       <c r="AA870" s="13"/>
       <c r="AB870" s="13"/>
     </row>
-    <row r="871" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A871" s="13"/>
       <c r="B871" s="13"/>
       <c r="C871" s="13"/>
@@ -27131,7 +27144,7 @@
       <c r="AA871" s="13"/>
       <c r="AB871" s="13"/>
     </row>
-    <row r="872" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A872" s="13"/>
       <c r="B872" s="13"/>
       <c r="C872" s="13"/>
@@ -27161,7 +27174,7 @@
       <c r="AA872" s="13"/>
       <c r="AB872" s="13"/>
     </row>
-    <row r="873" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A873" s="13"/>
       <c r="B873" s="13"/>
       <c r="C873" s="13"/>
@@ -27191,7 +27204,7 @@
       <c r="AA873" s="13"/>
       <c r="AB873" s="13"/>
     </row>
-    <row r="874" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A874" s="13"/>
       <c r="B874" s="13"/>
       <c r="C874" s="13"/>
@@ -27221,7 +27234,7 @@
       <c r="AA874" s="13"/>
       <c r="AB874" s="13"/>
     </row>
-    <row r="875" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A875" s="13"/>
       <c r="B875" s="13"/>
       <c r="C875" s="13"/>
@@ -27251,7 +27264,7 @@
       <c r="AA875" s="13"/>
       <c r="AB875" s="13"/>
     </row>
-    <row r="876" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A876" s="13"/>
       <c r="B876" s="13"/>
       <c r="C876" s="13"/>
@@ -27281,7 +27294,7 @@
       <c r="AA876" s="13"/>
       <c r="AB876" s="13"/>
     </row>
-    <row r="877" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A877" s="13"/>
       <c r="B877" s="13"/>
       <c r="C877" s="13"/>
@@ -27311,7 +27324,7 @@
       <c r="AA877" s="13"/>
       <c r="AB877" s="13"/>
     </row>
-    <row r="878" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A878" s="13"/>
       <c r="B878" s="13"/>
       <c r="C878" s="13"/>
@@ -27341,7 +27354,7 @@
       <c r="AA878" s="13"/>
       <c r="AB878" s="13"/>
     </row>
-    <row r="879" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A879" s="13"/>
       <c r="B879" s="13"/>
       <c r="C879" s="13"/>
@@ -27371,7 +27384,7 @@
       <c r="AA879" s="13"/>
       <c r="AB879" s="13"/>
     </row>
-    <row r="880" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A880" s="13"/>
       <c r="B880" s="13"/>
       <c r="C880" s="13"/>
@@ -27401,7 +27414,7 @@
       <c r="AA880" s="13"/>
       <c r="AB880" s="13"/>
     </row>
-    <row r="881" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A881" s="13"/>
       <c r="B881" s="13"/>
       <c r="C881" s="13"/>
@@ -27431,7 +27444,7 @@
       <c r="AA881" s="13"/>
       <c r="AB881" s="13"/>
     </row>
-    <row r="882" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A882" s="13"/>
       <c r="B882" s="13"/>
       <c r="C882" s="13"/>
@@ -27461,7 +27474,7 @@
       <c r="AA882" s="13"/>
       <c r="AB882" s="13"/>
     </row>
-    <row r="883" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A883" s="13"/>
       <c r="B883" s="13"/>
       <c r="C883" s="13"/>
@@ -27491,7 +27504,7 @@
       <c r="AA883" s="13"/>
       <c r="AB883" s="13"/>
     </row>
-    <row r="884" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A884" s="13"/>
       <c r="B884" s="13"/>
       <c r="C884" s="13"/>
@@ -27521,7 +27534,7 @@
       <c r="AA884" s="13"/>
       <c r="AB884" s="13"/>
     </row>
-    <row r="885" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A885" s="13"/>
       <c r="B885" s="13"/>
       <c r="C885" s="13"/>
@@ -27551,7 +27564,7 @@
       <c r="AA885" s="13"/>
       <c r="AB885" s="13"/>
     </row>
-    <row r="886" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A886" s="13"/>
       <c r="B886" s="13"/>
       <c r="C886" s="13"/>
@@ -27581,7 +27594,7 @@
       <c r="AA886" s="13"/>
       <c r="AB886" s="13"/>
     </row>
-    <row r="887" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A887" s="13"/>
       <c r="B887" s="13"/>
       <c r="C887" s="13"/>
@@ -27611,7 +27624,7 @@
       <c r="AA887" s="13"/>
       <c r="AB887" s="13"/>
     </row>
-    <row r="888" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A888" s="13"/>
       <c r="B888" s="13"/>
       <c r="C888" s="13"/>
@@ -27641,7 +27654,7 @@
       <c r="AA888" s="13"/>
       <c r="AB888" s="13"/>
     </row>
-    <row r="889" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A889" s="13"/>
       <c r="B889" s="13"/>
       <c r="C889" s="13"/>
@@ -27671,7 +27684,7 @@
       <c r="AA889" s="13"/>
       <c r="AB889" s="13"/>
     </row>
-    <row r="890" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A890" s="13"/>
       <c r="B890" s="13"/>
       <c r="C890" s="13"/>
@@ -27701,7 +27714,7 @@
       <c r="AA890" s="13"/>
       <c r="AB890" s="13"/>
     </row>
-    <row r="891" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A891" s="13"/>
       <c r="B891" s="13"/>
       <c r="C891" s="13"/>
@@ -27731,7 +27744,7 @@
       <c r="AA891" s="13"/>
       <c r="AB891" s="13"/>
     </row>
-    <row r="892" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A892" s="13"/>
       <c r="B892" s="13"/>
       <c r="C892" s="13"/>
@@ -27761,7 +27774,7 @@
       <c r="AA892" s="13"/>
       <c r="AB892" s="13"/>
     </row>
-    <row r="893" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A893" s="13"/>
       <c r="B893" s="13"/>
       <c r="C893" s="13"/>
@@ -27791,7 +27804,7 @@
       <c r="AA893" s="13"/>
       <c r="AB893" s="13"/>
     </row>
-    <row r="894" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A894" s="13"/>
       <c r="B894" s="13"/>
       <c r="C894" s="13"/>
@@ -27821,7 +27834,7 @@
       <c r="AA894" s="13"/>
       <c r="AB894" s="13"/>
     </row>
-    <row r="895" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A895" s="13"/>
       <c r="B895" s="13"/>
       <c r="C895" s="13"/>
@@ -27851,7 +27864,7 @@
       <c r="AA895" s="13"/>
       <c r="AB895" s="13"/>
     </row>
-    <row r="896" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A896" s="13"/>
       <c r="B896" s="13"/>
       <c r="C896" s="13"/>
@@ -27881,7 +27894,7 @@
       <c r="AA896" s="13"/>
       <c r="AB896" s="13"/>
     </row>
-    <row r="897" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A897" s="13"/>
       <c r="B897" s="13"/>
       <c r="C897" s="13"/>
@@ -27911,7 +27924,7 @@
       <c r="AA897" s="13"/>
       <c r="AB897" s="13"/>
     </row>
-    <row r="898" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A898" s="13"/>
       <c r="B898" s="13"/>
       <c r="C898" s="13"/>
@@ -27941,7 +27954,7 @@
       <c r="AA898" s="13"/>
       <c r="AB898" s="13"/>
     </row>
-    <row r="899" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A899" s="13"/>
       <c r="B899" s="13"/>
       <c r="C899" s="13"/>
@@ -27971,7 +27984,7 @@
       <c r="AA899" s="13"/>
       <c r="AB899" s="13"/>
     </row>
-    <row r="900" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A900" s="13"/>
       <c r="B900" s="13"/>
       <c r="C900" s="13"/>
@@ -28001,7 +28014,7 @@
       <c r="AA900" s="13"/>
       <c r="AB900" s="13"/>
     </row>
-    <row r="901" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A901" s="13"/>
       <c r="B901" s="13"/>
       <c r="C901" s="13"/>
@@ -28031,7 +28044,7 @@
       <c r="AA901" s="13"/>
       <c r="AB901" s="13"/>
     </row>
-    <row r="902" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A902" s="13"/>
       <c r="B902" s="13"/>
       <c r="C902" s="13"/>
@@ -28061,7 +28074,7 @@
       <c r="AA902" s="13"/>
       <c r="AB902" s="13"/>
     </row>
-    <row r="903" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A903" s="13"/>
       <c r="B903" s="13"/>
       <c r="C903" s="13"/>
@@ -28091,7 +28104,7 @@
       <c r="AA903" s="13"/>
       <c r="AB903" s="13"/>
     </row>
-    <row r="904" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A904" s="13"/>
       <c r="B904" s="13"/>
       <c r="C904" s="13"/>
@@ -28121,7 +28134,7 @@
       <c r="AA904" s="13"/>
       <c r="AB904" s="13"/>
     </row>
-    <row r="905" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A905" s="13"/>
       <c r="B905" s="13"/>
       <c r="C905" s="13"/>
@@ -28151,7 +28164,7 @@
       <c r="AA905" s="13"/>
       <c r="AB905" s="13"/>
     </row>
-    <row r="906" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A906" s="13"/>
       <c r="B906" s="13"/>
       <c r="C906" s="13"/>
@@ -28181,7 +28194,7 @@
       <c r="AA906" s="13"/>
       <c r="AB906" s="13"/>
     </row>
-    <row r="907" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A907" s="13"/>
       <c r="B907" s="13"/>
       <c r="C907" s="13"/>
@@ -28211,7 +28224,7 @@
       <c r="AA907" s="13"/>
       <c r="AB907" s="13"/>
     </row>
-    <row r="908" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A908" s="13"/>
       <c r="B908" s="13"/>
       <c r="C908" s="13"/>
@@ -28241,7 +28254,7 @@
       <c r="AA908" s="13"/>
       <c r="AB908" s="13"/>
     </row>
-    <row r="909" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A909" s="13"/>
       <c r="B909" s="13"/>
       <c r="C909" s="13"/>
@@ -28271,7 +28284,7 @@
       <c r="AA909" s="13"/>
       <c r="AB909" s="13"/>
     </row>
-    <row r="910" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A910" s="13"/>
       <c r="B910" s="13"/>
       <c r="C910" s="13"/>
@@ -28301,7 +28314,7 @@
       <c r="AA910" s="13"/>
       <c r="AB910" s="13"/>
     </row>
-    <row r="911" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A911" s="13"/>
       <c r="B911" s="13"/>
       <c r="C911" s="13"/>
@@ -28331,7 +28344,7 @@
       <c r="AA911" s="13"/>
       <c r="AB911" s="13"/>
     </row>
-    <row r="912" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A912" s="13"/>
       <c r="B912" s="13"/>
       <c r="C912" s="13"/>
@@ -28361,7 +28374,7 @@
       <c r="AA912" s="13"/>
       <c r="AB912" s="13"/>
     </row>
-    <row r="913" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A913" s="13"/>
       <c r="B913" s="13"/>
       <c r="C913" s="13"/>
@@ -28391,7 +28404,7 @@
       <c r="AA913" s="13"/>
       <c r="AB913" s="13"/>
     </row>
-    <row r="914" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A914" s="13"/>
       <c r="B914" s="13"/>
       <c r="C914" s="13"/>
@@ -28421,7 +28434,7 @@
       <c r="AA914" s="13"/>
       <c r="AB914" s="13"/>
     </row>
-    <row r="915" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A915" s="13"/>
       <c r="B915" s="13"/>
       <c r="C915" s="13"/>
@@ -28451,7 +28464,7 @@
       <c r="AA915" s="13"/>
       <c r="AB915" s="13"/>
     </row>
-    <row r="916" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A916" s="13"/>
       <c r="B916" s="13"/>
       <c r="C916" s="13"/>
@@ -28481,7 +28494,7 @@
       <c r="AA916" s="13"/>
       <c r="AB916" s="13"/>
     </row>
-    <row r="917" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A917" s="13"/>
       <c r="B917" s="13"/>
       <c r="C917" s="13"/>
@@ -28511,7 +28524,7 @@
       <c r="AA917" s="13"/>
       <c r="AB917" s="13"/>
     </row>
-    <row r="918" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A918" s="13"/>
       <c r="B918" s="13"/>
       <c r="C918" s="13"/>
@@ -28541,7 +28554,7 @@
       <c r="AA918" s="13"/>
       <c r="AB918" s="13"/>
     </row>
-    <row r="919" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A919" s="13"/>
       <c r="B919" s="13"/>
       <c r="C919" s="13"/>
@@ -28571,7 +28584,7 @@
       <c r="AA919" s="13"/>
       <c r="AB919" s="13"/>
     </row>
-    <row r="920" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A920" s="13"/>
       <c r="B920" s="13"/>
       <c r="C920" s="13"/>
@@ -28601,7 +28614,7 @@
       <c r="AA920" s="13"/>
       <c r="AB920" s="13"/>
     </row>
-    <row r="921" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A921" s="13"/>
       <c r="B921" s="13"/>
       <c r="C921" s="13"/>
@@ -28631,7 +28644,7 @@
       <c r="AA921" s="13"/>
       <c r="AB921" s="13"/>
     </row>
-    <row r="922" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A922" s="13"/>
       <c r="B922" s="13"/>
       <c r="C922" s="13"/>
@@ -28661,7 +28674,7 @@
       <c r="AA922" s="13"/>
       <c r="AB922" s="13"/>
     </row>
-    <row r="923" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A923" s="13"/>
       <c r="B923" s="13"/>
       <c r="C923" s="13"/>
@@ -28691,7 +28704,7 @@
       <c r="AA923" s="13"/>
       <c r="AB923" s="13"/>
     </row>
-    <row r="924" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A924" s="13"/>
       <c r="B924" s="13"/>
       <c r="C924" s="13"/>
@@ -28721,7 +28734,7 @@
       <c r="AA924" s="13"/>
       <c r="AB924" s="13"/>
     </row>
-    <row r="925" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A925" s="13"/>
       <c r="B925" s="13"/>
       <c r="C925" s="13"/>
@@ -28751,7 +28764,7 @@
       <c r="AA925" s="13"/>
       <c r="AB925" s="13"/>
     </row>
-    <row r="926" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A926" s="13"/>
       <c r="B926" s="13"/>
       <c r="C926" s="13"/>
@@ -28781,7 +28794,7 @@
       <c r="AA926" s="13"/>
       <c r="AB926" s="13"/>
     </row>
-    <row r="927" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A927" s="13"/>
       <c r="B927" s="13"/>
       <c r="C927" s="13"/>
@@ -28811,7 +28824,7 @@
       <c r="AA927" s="13"/>
       <c r="AB927" s="13"/>
     </row>
-    <row r="928" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A928" s="13"/>
       <c r="B928" s="13"/>
       <c r="C928" s="13"/>
@@ -28841,7 +28854,7 @@
       <c r="AA928" s="13"/>
       <c r="AB928" s="13"/>
     </row>
-    <row r="929" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A929" s="13"/>
       <c r="B929" s="13"/>
       <c r="C929" s="13"/>
@@ -28871,7 +28884,7 @@
       <c r="AA929" s="13"/>
       <c r="AB929" s="13"/>
     </row>
-    <row r="930" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A930" s="13"/>
       <c r="B930" s="13"/>
       <c r="C930" s="13"/>
@@ -28901,7 +28914,7 @@
       <c r="AA930" s="13"/>
       <c r="AB930" s="13"/>
     </row>
-    <row r="931" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A931" s="13"/>
       <c r="B931" s="13"/>
       <c r="C931" s="13"/>
@@ -28931,7 +28944,7 @@
       <c r="AA931" s="13"/>
       <c r="AB931" s="13"/>
     </row>
-    <row r="932" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A932" s="13"/>
       <c r="B932" s="13"/>
       <c r="C932" s="13"/>
@@ -28961,7 +28974,7 @@
       <c r="AA932" s="13"/>
       <c r="AB932" s="13"/>
     </row>
-    <row r="933" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A933" s="13"/>
       <c r="B933" s="13"/>
       <c r="C933" s="13"/>
@@ -28991,7 +29004,7 @@
       <c r="AA933" s="13"/>
       <c r="AB933" s="13"/>
     </row>
-    <row r="934" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A934" s="13"/>
       <c r="B934" s="13"/>
       <c r="C934" s="13"/>
@@ -29021,7 +29034,7 @@
       <c r="AA934" s="13"/>
       <c r="AB934" s="13"/>
     </row>
-    <row r="935" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A935" s="13"/>
       <c r="B935" s="13"/>
       <c r="C935" s="13"/>
@@ -29051,7 +29064,7 @@
       <c r="AA935" s="13"/>
       <c r="AB935" s="13"/>
     </row>
-    <row r="936" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A936" s="13"/>
       <c r="B936" s="13"/>
       <c r="C936" s="13"/>
@@ -29081,7 +29094,7 @@
       <c r="AA936" s="13"/>
       <c r="AB936" s="13"/>
     </row>
-    <row r="937" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A937" s="13"/>
       <c r="B937" s="13"/>
       <c r="C937" s="13"/>
@@ -29111,7 +29124,7 @@
       <c r="AA937" s="13"/>
       <c r="AB937" s="13"/>
     </row>
-    <row r="938" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A938" s="13"/>
       <c r="B938" s="13"/>
       <c r="C938" s="13"/>
@@ -29141,7 +29154,7 @@
       <c r="AA938" s="13"/>
       <c r="AB938" s="13"/>
     </row>
-    <row r="939" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A939" s="13"/>
       <c r="B939" s="13"/>
       <c r="C939" s="13"/>
@@ -29171,7 +29184,7 @@
       <c r="AA939" s="13"/>
       <c r="AB939" s="13"/>
     </row>
-    <row r="940" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A940" s="13"/>
       <c r="B940" s="13"/>
       <c r="C940" s="13"/>
@@ -29201,7 +29214,7 @@
       <c r="AA940" s="13"/>
       <c r="AB940" s="13"/>
     </row>
-    <row r="941" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A941" s="13"/>
       <c r="B941" s="13"/>
       <c r="C941" s="13"/>
@@ -29231,7 +29244,7 @@
       <c r="AA941" s="13"/>
       <c r="AB941" s="13"/>
     </row>
-    <row r="942" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A942" s="13"/>
       <c r="B942" s="13"/>
       <c r="C942" s="13"/>
@@ -29261,7 +29274,7 @@
       <c r="AA942" s="13"/>
       <c r="AB942" s="13"/>
     </row>
-    <row r="943" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A943" s="13"/>
       <c r="B943" s="13"/>
       <c r="C943" s="13"/>
@@ -29291,7 +29304,7 @@
       <c r="AA943" s="13"/>
       <c r="AB943" s="13"/>
     </row>
-    <row r="944" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A944" s="13"/>
       <c r="B944" s="13"/>
       <c r="C944" s="13"/>
@@ -29321,7 +29334,7 @@
       <c r="AA944" s="13"/>
       <c r="AB944" s="13"/>
     </row>
-    <row r="945" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A945" s="13"/>
       <c r="B945" s="13"/>
       <c r="C945" s="13"/>
@@ -29351,7 +29364,7 @@
       <c r="AA945" s="13"/>
       <c r="AB945" s="13"/>
     </row>
-    <row r="946" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A946" s="13"/>
       <c r="B946" s="13"/>
       <c r="C946" s="13"/>
@@ -29381,7 +29394,7 @@
       <c r="AA946" s="13"/>
       <c r="AB946" s="13"/>
     </row>
-    <row r="947" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A947" s="13"/>
       <c r="B947" s="13"/>
       <c r="C947" s="13"/>
@@ -29411,7 +29424,7 @@
       <c r="AA947" s="13"/>
       <c r="AB947" s="13"/>
     </row>
-    <row r="948" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A948" s="13"/>
       <c r="B948" s="13"/>
       <c r="C948" s="13"/>
@@ -29441,7 +29454,7 @@
       <c r="AA948" s="13"/>
       <c r="AB948" s="13"/>
     </row>
-    <row r="949" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A949" s="13"/>
       <c r="B949" s="13"/>
       <c r="C949" s="13"/>
@@ -29471,7 +29484,7 @@
       <c r="AA949" s="13"/>
       <c r="AB949" s="13"/>
     </row>
-    <row r="950" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A950" s="13"/>
       <c r="B950" s="13"/>
       <c r="C950" s="13"/>
@@ -29501,7 +29514,7 @@
       <c r="AA950" s="13"/>
       <c r="AB950" s="13"/>
     </row>
-    <row r="951" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A951" s="13"/>
       <c r="B951" s="13"/>
       <c r="C951" s="13"/>
@@ -29531,7 +29544,7 @@
       <c r="AA951" s="13"/>
       <c r="AB951" s="13"/>
     </row>
-    <row r="952" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A952" s="13"/>
       <c r="B952" s="13"/>
       <c r="C952" s="13"/>
@@ -29561,7 +29574,7 @@
       <c r="AA952" s="13"/>
       <c r="AB952" s="13"/>
     </row>
-    <row r="953" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A953" s="13"/>
       <c r="B953" s="13"/>
       <c r="C953" s="13"/>
@@ -29591,7 +29604,7 @@
       <c r="AA953" s="13"/>
       <c r="AB953" s="13"/>
     </row>
-    <row r="954" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A954" s="13"/>
       <c r="B954" s="13"/>
       <c r="C954" s="13"/>
@@ -29621,7 +29634,7 @@
       <c r="AA954" s="13"/>
       <c r="AB954" s="13"/>
     </row>
-    <row r="955" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A955" s="13"/>
       <c r="B955" s="13"/>
       <c r="C955" s="13"/>
@@ -29651,7 +29664,7 @@
       <c r="AA955" s="13"/>
       <c r="AB955" s="13"/>
     </row>
-    <row r="956" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A956" s="13"/>
       <c r="B956" s="13"/>
       <c r="C956" s="13"/>
@@ -29681,7 +29694,7 @@
       <c r="AA956" s="13"/>
       <c r="AB956" s="13"/>
     </row>
-    <row r="957" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A957" s="13"/>
       <c r="B957" s="13"/>
       <c r="C957" s="13"/>
@@ -29711,7 +29724,7 @@
       <c r="AA957" s="13"/>
       <c r="AB957" s="13"/>
     </row>
-    <row r="958" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A958" s="13"/>
       <c r="B958" s="13"/>
       <c r="C958" s="13"/>
@@ -29741,7 +29754,7 @@
       <c r="AA958" s="13"/>
       <c r="AB958" s="13"/>
     </row>
-    <row r="959" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A959" s="13"/>
       <c r="B959" s="13"/>
       <c r="C959" s="13"/>
@@ -29771,7 +29784,7 @@
       <c r="AA959" s="13"/>
       <c r="AB959" s="13"/>
     </row>
-    <row r="960" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A960" s="13"/>
       <c r="B960" s="13"/>
       <c r="C960" s="13"/>
@@ -29801,7 +29814,7 @@
       <c r="AA960" s="13"/>
       <c r="AB960" s="13"/>
     </row>
-    <row r="961" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A961" s="13"/>
       <c r="B961" s="13"/>
       <c r="C961" s="13"/>
@@ -29831,7 +29844,7 @@
       <c r="AA961" s="13"/>
       <c r="AB961" s="13"/>
     </row>
-    <row r="962" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A962" s="13"/>
       <c r="B962" s="13"/>
       <c r="C962" s="13"/>
@@ -29861,7 +29874,7 @@
       <c r="AA962" s="13"/>
       <c r="AB962" s="13"/>
     </row>
-    <row r="963" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A963" s="13"/>
       <c r="B963" s="13"/>
       <c r="C963" s="13"/>
@@ -29891,7 +29904,7 @@
       <c r="AA963" s="13"/>
       <c r="AB963" s="13"/>
     </row>
-    <row r="964" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A964" s="13"/>
       <c r="B964" s="13"/>
       <c r="C964" s="13"/>
@@ -29921,7 +29934,7 @@
       <c r="AA964" s="13"/>
       <c r="AB964" s="13"/>
     </row>
-    <row r="965" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A965" s="13"/>
       <c r="B965" s="13"/>
       <c r="C965" s="13"/>
@@ -29951,7 +29964,7 @@
       <c r="AA965" s="13"/>
       <c r="AB965" s="13"/>
     </row>
-    <row r="966" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A966" s="13"/>
       <c r="B966" s="13"/>
       <c r="C966" s="13"/>
@@ -29981,7 +29994,7 @@
       <c r="AA966" s="13"/>
       <c r="AB966" s="13"/>
     </row>
-    <row r="967" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A967" s="13"/>
       <c r="B967" s="13"/>
       <c r="C967" s="13"/>
@@ -30011,7 +30024,7 @@
       <c r="AA967" s="13"/>
       <c r="AB967" s="13"/>
     </row>
-    <row r="968" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A968" s="13"/>
       <c r="B968" s="13"/>
       <c r="C968" s="13"/>
@@ -30041,7 +30054,7 @@
       <c r="AA968" s="13"/>
       <c r="AB968" s="13"/>
     </row>
-    <row r="969" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A969" s="13"/>
       <c r="B969" s="13"/>
       <c r="C969" s="13"/>
@@ -30071,7 +30084,7 @@
       <c r="AA969" s="13"/>
       <c r="AB969" s="13"/>
     </row>
-    <row r="970" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A970" s="13"/>
       <c r="B970" s="13"/>
       <c r="C970" s="13"/>
@@ -30101,7 +30114,7 @@
       <c r="AA970" s="13"/>
       <c r="AB970" s="13"/>
     </row>
-    <row r="971" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A971" s="13"/>
       <c r="B971" s="13"/>
       <c r="C971" s="13"/>
@@ -30131,7 +30144,7 @@
       <c r="AA971" s="13"/>
       <c r="AB971" s="13"/>
     </row>
-    <row r="972" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A972" s="13"/>
       <c r="B972" s="13"/>
       <c r="C972" s="13"/>
@@ -30161,7 +30174,7 @@
       <c r="AA972" s="13"/>
       <c r="AB972" s="13"/>
     </row>
-    <row r="973" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A973" s="13"/>
       <c r="B973" s="13"/>
       <c r="C973" s="13"/>
@@ -30191,7 +30204,7 @@
       <c r="AA973" s="13"/>
       <c r="AB973" s="13"/>
     </row>
-    <row r="974" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A974" s="13"/>
       <c r="B974" s="13"/>
       <c r="C974" s="13"/>
@@ -30221,7 +30234,7 @@
       <c r="AA974" s="13"/>
       <c r="AB974" s="13"/>
     </row>
-    <row r="975" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A975" s="13"/>
       <c r="B975" s="13"/>
       <c r="C975" s="13"/>
@@ -30251,7 +30264,7 @@
       <c r="AA975" s="13"/>
       <c r="AB975" s="13"/>
     </row>
-    <row r="976" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A976" s="13"/>
       <c r="B976" s="13"/>
       <c r="C976" s="13"/>
@@ -30281,7 +30294,7 @@
       <c r="AA976" s="13"/>
       <c r="AB976" s="13"/>
     </row>
-    <row r="977" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A977" s="13"/>
       <c r="B977" s="13"/>
       <c r="C977" s="13"/>
@@ -30311,7 +30324,7 @@
       <c r="AA977" s="13"/>
       <c r="AB977" s="13"/>
     </row>
-    <row r="978" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A978" s="13"/>
       <c r="B978" s="13"/>
       <c r="C978" s="13"/>
@@ -30341,7 +30354,7 @@
       <c r="AA978" s="13"/>
       <c r="AB978" s="13"/>
     </row>
-    <row r="979" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A979" s="13"/>
       <c r="B979" s="13"/>
       <c r="C979" s="13"/>
@@ -30371,7 +30384,7 @@
       <c r="AA979" s="13"/>
       <c r="AB979" s="13"/>
     </row>
-    <row r="980" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A980" s="13"/>
       <c r="B980" s="13"/>
       <c r="C980" s="13"/>
@@ -30401,7 +30414,7 @@
       <c r="AA980" s="13"/>
       <c r="AB980" s="13"/>
     </row>
-    <row r="981" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A981" s="13"/>
       <c r="B981" s="13"/>
       <c r="C981" s="13"/>
@@ -30431,7 +30444,7 @@
       <c r="AA981" s="13"/>
       <c r="AB981" s="13"/>
     </row>
-    <row r="982" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A982" s="13"/>
       <c r="B982" s="13"/>
       <c r="C982" s="13"/>
@@ -30461,7 +30474,7 @@
       <c r="AA982" s="13"/>
       <c r="AB982" s="13"/>
     </row>
-    <row r="983" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A983" s="13"/>
       <c r="B983" s="13"/>
       <c r="C983" s="13"/>
@@ -30491,7 +30504,7 @@
       <c r="AA983" s="13"/>
       <c r="AB983" s="13"/>
     </row>
-    <row r="984" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A984" s="13"/>
       <c r="B984" s="13"/>
       <c r="C984" s="13"/>
@@ -30521,7 +30534,7 @@
       <c r="AA984" s="13"/>
       <c r="AB984" s="13"/>
     </row>
-    <row r="985" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A985" s="13"/>
       <c r="B985" s="13"/>
       <c r="C985" s="13"/>
@@ -30551,7 +30564,7 @@
       <c r="AA985" s="13"/>
       <c r="AB985" s="13"/>
     </row>
-    <row r="986" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A986" s="13"/>
       <c r="B986" s="13"/>
       <c r="C986" s="13"/>
@@ -30581,7 +30594,7 @@
       <c r="AA986" s="13"/>
       <c r="AB986" s="13"/>
     </row>
-    <row r="987" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A987" s="13"/>
       <c r="B987" s="13"/>
       <c r="C987" s="13"/>
@@ -30611,7 +30624,7 @@
       <c r="AA987" s="13"/>
       <c r="AB987" s="13"/>
     </row>
-    <row r="988" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A988" s="13"/>
       <c r="B988" s="13"/>
       <c r="C988" s="13"/>
@@ -30641,7 +30654,7 @@
       <c r="AA988" s="13"/>
       <c r="AB988" s="13"/>
     </row>
-    <row r="989" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A989" s="13"/>
       <c r="B989" s="13"/>
       <c r="C989" s="13"/>
@@ -30671,7 +30684,7 @@
       <c r="AA989" s="13"/>
       <c r="AB989" s="13"/>
     </row>
-    <row r="990" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A990" s="13"/>
       <c r="B990" s="13"/>
       <c r="C990" s="13"/>
@@ -30701,7 +30714,7 @@
       <c r="AA990" s="13"/>
       <c r="AB990" s="13"/>
     </row>
-    <row r="991" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A991" s="13"/>
       <c r="B991" s="13"/>
       <c r="C991" s="13"/>
@@ -30731,7 +30744,7 @@
       <c r="AA991" s="13"/>
       <c r="AB991" s="13"/>
     </row>
-    <row r="992" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A992" s="13"/>
       <c r="B992" s="13"/>
       <c r="C992" s="13"/>
@@ -30761,7 +30774,7 @@
       <c r="AA992" s="13"/>
       <c r="AB992" s="13"/>
     </row>
-    <row r="993" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A993" s="13"/>
       <c r="B993" s="13"/>
       <c r="C993" s="13"/>
@@ -30791,7 +30804,7 @@
       <c r="AA993" s="13"/>
       <c r="AB993" s="13"/>
     </row>
-    <row r="994" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A994" s="13"/>
       <c r="B994" s="13"/>
       <c r="C994" s="13"/>
@@ -30821,7 +30834,7 @@
       <c r="AA994" s="13"/>
       <c r="AB994" s="13"/>
     </row>
-    <row r="995" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A995" s="13"/>
       <c r="B995" s="13"/>
       <c r="C995" s="13"/>
@@ -30851,7 +30864,7 @@
       <c r="AA995" s="13"/>
       <c r="AB995" s="13"/>
     </row>
-    <row r="996" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A996" s="13"/>
       <c r="B996" s="13"/>
       <c r="C996" s="13"/>

--- a/team-managment/purchases/project-payments .xlsx
+++ b/team-managment/purchases/project-payments .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhdgh\OneDrive\Desktop\on-campus-delivery-robot\team-managment\purchases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADB9E06-5B15-48CA-BB3F-CD4ACA84E515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DEDAB2F-C8BC-491D-95E3-90C6E8AAB71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>ITEM</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>servo motor</t>
+  </si>
+  <si>
+    <t>Payment settled</t>
   </si>
 </sst>
 </file>
@@ -914,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ1006"/>
+  <dimension ref="A1:AMJ1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2110,24 +2113,24 @@
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
     </row>
-    <row r="29" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B29" s="10">
-        <v>6.24</v>
+        <v>133.35249999999999</v>
       </c>
       <c r="C29" s="10">
         <v>1</v>
       </c>
       <c r="D29" s="6">
-        <v>0</v>
+        <v>-133.35249999999999</v>
       </c>
       <c r="E29" s="6">
         <v>0</v>
       </c>
       <c r="F29" s="7">
-        <v>6.24</v>
+        <v>133.35249999999999</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -2154,10 +2157,10 @@
     </row>
     <row r="30" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B30" s="10">
-        <v>13</v>
+        <v>6.24</v>
       </c>
       <c r="C30" s="10">
         <v>1</v>
@@ -2166,10 +2169,10 @@
         <v>0</v>
       </c>
       <c r="E30" s="6">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F30" s="7">
-        <v>0</v>
+        <v>6.24</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -2195,22 +2198,23 @@
       <c r="AB30" s="2"/>
     </row>
     <row r="31" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
-        <v>27</v>
+      <c r="A31" s="11" t="s">
+        <v>26</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14">
-        <f>SUM(D3:D30)</f>
-        <v>1460.2375</v>
+      <c r="B31" s="10">
+        <v>13</v>
       </c>
-      <c r="E31" s="14">
-        <f>SUM(E3:E30)</f>
-        <v>453</v>
+      <c r="C31" s="10">
+        <v>1</v>
       </c>
-      <c r="F31" s="15">
-        <f>SUM(F3:F30)</f>
-        <v>756.58999999999992</v>
+      <c r="D31" s="6">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6">
+        <v>13</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -2236,22 +2240,22 @@
       <c r="AB31" s="2"/>
     </row>
     <row r="32" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
-        <v>28</v>
+      <c r="A32" s="12" t="s">
+        <v>27</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="18">
-        <f>SUM(E3:F30)/3</f>
-        <v>403.19666666666666</v>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="14">
+        <f>SUM(D3:D31)</f>
+        <v>1326.885</v>
       </c>
-      <c r="E32" s="18">
-        <f>SUM(D3:D30,F3:F30)/3</f>
-        <v>738.9425</v>
+      <c r="E32" s="14">
+        <f>SUM(E3:E31)</f>
+        <v>453</v>
       </c>
-      <c r="F32" s="19">
-        <f>SUM(D3:E30)/3</f>
-        <v>637.74583333333328</v>
+      <c r="F32" s="15">
+        <f>SUM(F3:F31)</f>
+        <v>889.94249999999988</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -2277,22 +2281,22 @@
       <c r="AB32" s="2"/>
     </row>
     <row r="33" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
-        <v>29</v>
+      <c r="A33" s="16" t="s">
+        <v>28</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="22">
-        <f>D32-2*D31/3</f>
-        <v>-570.29500000000007</v>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="18">
+        <f>SUM(E3:F31)/3</f>
+        <v>447.64749999999998</v>
       </c>
-      <c r="E33" s="22">
-        <f>E32-2*E31/3</f>
-        <v>436.9425</v>
+      <c r="E33" s="18">
+        <f>SUM(D3:D31,F3:F31)/3</f>
+        <v>738.94249999999977</v>
       </c>
-      <c r="F33" s="23">
-        <f>F32-2*F31/3</f>
-        <v>133.35250000000002</v>
+      <c r="F33" s="19">
+        <f>SUM(D3:E31)/3</f>
+        <v>593.29499999999996</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -2318,12 +2322,23 @@
       <c r="AB33" s="2"/>
     </row>
     <row r="34" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="A34" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="22">
+        <f>D33-2*D32/3</f>
+        <v>-436.94250000000005</v>
+      </c>
+      <c r="E34" s="22">
+        <f>E33-2*E32/3</f>
+        <v>436.94249999999977</v>
+      </c>
+      <c r="F34" s="23">
+        <f>F33-2*F32/3</f>
+        <v>0</v>
+      </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -31507,6 +31522,36 @@
       <c r="AA1006" s="2"/>
       <c r="AB1006" s="2"/>
     </row>
+    <row r="1007" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1007" s="2"/>
+      <c r="B1007" s="2"/>
+      <c r="C1007" s="2"/>
+      <c r="D1007" s="2"/>
+      <c r="E1007" s="2"/>
+      <c r="F1007" s="2"/>
+      <c r="G1007" s="2"/>
+      <c r="H1007" s="2"/>
+      <c r="I1007" s="2"/>
+      <c r="J1007" s="2"/>
+      <c r="K1007" s="2"/>
+      <c r="L1007" s="2"/>
+      <c r="M1007" s="2"/>
+      <c r="N1007" s="2"/>
+      <c r="O1007" s="2"/>
+      <c r="P1007" s="2"/>
+      <c r="Q1007" s="2"/>
+      <c r="R1007" s="2"/>
+      <c r="S1007" s="2"/>
+      <c r="T1007" s="2"/>
+      <c r="U1007" s="2"/>
+      <c r="V1007" s="2"/>
+      <c r="W1007" s="2"/>
+      <c r="X1007" s="2"/>
+      <c r="Y1007" s="2"/>
+      <c r="Z1007" s="2"/>
+      <c r="AA1007" s="2"/>
+      <c r="AB1007" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
